--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD44F0E-09E7-4AAA-8B37-A3C009D86042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C766479B-2C2E-451E-AC1E-6D4EEC8FB6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>止损时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止盈时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +271,30 @@
   </si>
   <si>
     <t>持股时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +354,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +364,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,6 +423,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -817,13 +869,22 @@
     <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10" style="2"/>
+    <col min="13" max="13" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -858,34 +919,46 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="X1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -899,7 +972,7 @@
         <v>44467</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <v>440.3</v>
@@ -923,7 +996,7 @@
         <v>442.60000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -937,7 +1010,7 @@
         <v>44467</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>370.6</v>
@@ -953,15 +1026,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J4" si="1">-H3*I3</f>
+        <f t="shared" ref="J3:J26" si="1">-H3*I3</f>
         <v>4.31732325957912E-3</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:K4" si="2">F3*(1+J3)</f>
+        <f t="shared" ref="K3:K26" si="2">F3*(1+J3)</f>
         <v>372.2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -975,7 +1048,7 @@
         <v>44467</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>141.69999999999999</v>
@@ -999,12 +1072,12 @@
         <v>143.49999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4">
         <v>44463</v>
@@ -1013,7 +1086,7 @@
         <v>44467</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>728</v>
@@ -1029,20 +1102,20 @@
         <v>1</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5:J26" si="3">-H5*I5</f>
+        <f t="shared" si="1"/>
         <v>1.7857142857142905E-2</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K26" si="4">F5*(1+J5)</f>
+        <f t="shared" si="2"/>
         <v>741</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4">
         <v>44463</v>
@@ -1051,7 +1124,7 @@
         <v>44467</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
         <v>342</v>
@@ -1067,20 +1140,20 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.830409356725184E-3</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>343.31</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4">
         <v>44463</v>
@@ -1089,7 +1162,7 @@
         <v>44467</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
         <v>220.8</v>
@@ -1105,20 +1178,20 @@
         <v>1</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.8876811594202882E-3</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>222.10000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4">
         <v>44463</v>
@@ -1127,7 +1200,7 @@
         <v>44467</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
         <v>298.5</v>
@@ -1143,20 +1216,20 @@
         <v>1</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.3551088777219471E-3</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>299.79999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4">
         <v>44463</v>
@@ -1165,7 +1238,7 @@
         <v>44467</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>447.5</v>
@@ -1181,20 +1254,20 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.0055865921787754E-2</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4">
         <v>44463</v>
@@ -1203,7 +1276,7 @@
         <v>44467</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>270</v>
@@ -1219,20 +1292,20 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4">
         <v>44463</v>
@@ -1241,7 +1314,7 @@
         <v>44467</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>105</v>
@@ -1257,20 +1330,20 @@
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.7142857142856718E-3</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>105.60000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>44463</v>
@@ -1279,7 +1352,7 @@
         <v>44467</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <v>37.6</v>
@@ -1295,20 +1368,20 @@
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.9787234042554278E-3</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>37.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4">
         <v>44463</v>
@@ -1317,7 +1390,7 @@
         <v>44467</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>117.9</v>
@@ -1333,20 +1406,20 @@
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.30788804071247E-2</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>121.80000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <v>44463</v>
@@ -1355,7 +1428,7 @@
         <v>44467</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>80.5</v>
@@ -1371,20 +1444,20 @@
         <v>1</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.7267080745341241E-3</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>80.799999999999983</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4">
         <v>44463</v>
@@ -1393,7 +1466,7 @@
         <v>44467</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
         <v>262.39999999999998</v>
@@ -1409,20 +1482,20 @@
         <v>1</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.4786585365853577E-3</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>264.09999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4">
         <v>44463</v>
@@ -1431,7 +1504,7 @@
         <v>44467</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
         <v>216</v>
@@ -1447,11 +1520,11 @@
         <v>1</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.2592592592593004E-3</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
     </row>
@@ -1460,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4">
         <v>44463</v>
@@ -1469,7 +1542,7 @@
         <v>44467</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2">
         <v>327.39999999999998</v>
@@ -1485,11 +1558,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2217470983506451E-2</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>331.40000000000003</v>
       </c>
     </row>
@@ -1498,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4">
         <v>44463</v>
@@ -1507,7 +1580,7 @@
         <v>44467</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2">
         <v>345</v>
@@ -1523,11 +1596,11 @@
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.7971014492753659E-3</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>347.00000000000006</v>
       </c>
     </row>
@@ -1536,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
         <v>44463</v>
@@ -1545,7 +1618,7 @@
         <v>44467</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2">
         <v>247</v>
@@ -1561,11 +1634,11 @@
         <v>1</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.0242914979757054E-2</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>251.99999999999997</v>
       </c>
     </row>
@@ -1574,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4">
         <v>44463</v>
@@ -1583,7 +1656,7 @@
         <v>44467</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2">
         <v>28.2</v>
@@ -1599,11 +1672,11 @@
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.4184397163120477E-2</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>28.599999999999994</v>
       </c>
     </row>
@@ -1612,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4">
         <v>44463</v>
@@ -1621,7 +1694,7 @@
         <v>44467</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2">
         <v>158.69999999999999</v>
@@ -1637,11 +1710,11 @@
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8273471959672216E-2</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>161.59999999999997</v>
       </c>
     </row>
@@ -1650,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4">
         <v>44463</v>
@@ -1659,7 +1732,7 @@
         <v>44467</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2">
         <v>37.9</v>
@@ -1675,11 +1748,11 @@
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9023746701847042E-2</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
@@ -1688,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4">
         <v>44463</v>
@@ -1697,7 +1770,7 @@
         <v>44467</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" s="2">
         <v>77.900000000000006</v>
@@ -1713,11 +1786,11 @@
         <v>1</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.9858793324775199E-3</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>78.600000000000009</v>
       </c>
     </row>
@@ -1726,7 +1799,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4">
         <v>44463</v>
@@ -1735,7 +1808,7 @@
         <v>44467</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2">
         <v>339.3</v>
@@ -1751,11 +1824,11 @@
         <v>1</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.8314176245211051E-3</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>340.6</v>
       </c>
     </row>
@@ -1764,7 +1837,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4">
         <v>44463</v>
@@ -1773,7 +1846,7 @@
         <v>44467</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2">
         <v>155</v>
@@ -1789,11 +1862,11 @@
         <v>1</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.4516129032258229E-3</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>155.99999999999997</v>
       </c>
     </row>
@@ -1802,7 +1875,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4">
         <v>44463</v>
@@ -1811,7 +1884,7 @@
         <v>44467</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2">
         <v>69.8</v>
@@ -1827,11 +1900,11 @@
         <v>1</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.7306590257878431E-3</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>70.2</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C766479B-2C2E-451E-AC1E-6D4EEC8FB6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A33D861-F174-4933-9E74-FF6EA7F67CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -995,6 +995,45 @@
         <f>F2*(1+J2)</f>
         <v>442.60000000000008</v>
       </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -1033,6 +1072,45 @@
         <f t="shared" ref="K3:K26" si="2">F3*(1+J3)</f>
         <v>372.2</v>
       </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11">
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -1071,6 +1149,45 @@
         <f t="shared" si="2"/>
         <v>143.49999999999997</v>
       </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -1109,6 +1226,45 @@
         <f t="shared" si="2"/>
         <v>741</v>
       </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -1147,6 +1303,45 @@
         <f t="shared" si="2"/>
         <v>343.31</v>
       </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -1185,6 +1380,45 @@
         <f t="shared" si="2"/>
         <v>222.10000000000002</v>
       </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1223,6 +1457,45 @@
         <f t="shared" si="2"/>
         <v>299.79999999999995</v>
       </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -1261,6 +1534,45 @@
         <f t="shared" si="2"/>
         <v>452</v>
       </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
+        <v>0</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -1299,6 +1611,45 @@
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -1337,6 +1688,45 @@
         <f t="shared" si="2"/>
         <v>105.60000000000001</v>
       </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -1375,6 +1765,45 @@
         <f t="shared" si="2"/>
         <v>37.900000000000006</v>
       </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1413,6 +1842,45 @@
         <f t="shared" si="2"/>
         <v>121.80000000000001</v>
       </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -1451,6 +1919,45 @@
         <f t="shared" si="2"/>
         <v>80.799999999999983</v>
       </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11">
+        <v>0</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -1489,6 +1996,45 @@
         <f t="shared" si="2"/>
         <v>264.09999999999997</v>
       </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -1527,8 +2073,47 @@
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1565,8 +2150,47 @@
         <f t="shared" si="2"/>
         <v>331.40000000000003</v>
       </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1603,8 +2227,47 @@
         <f t="shared" si="2"/>
         <v>347.00000000000006</v>
       </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
+        <v>0</v>
+      </c>
+      <c r="V18" s="12">
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
+        <v>0</v>
+      </c>
+      <c r="X18" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1641,8 +2304,47 @@
         <f t="shared" si="2"/>
         <v>251.99999999999997</v>
       </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1679,8 +2381,47 @@
         <f t="shared" si="2"/>
         <v>28.599999999999994</v>
       </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
+        <v>0</v>
+      </c>
+      <c r="U20" s="11">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <v>0</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1717,8 +2458,47 @@
         <f t="shared" si="2"/>
         <v>161.59999999999997</v>
       </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+      <c r="W21" s="12">
+        <v>0</v>
+      </c>
+      <c r="X21" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1755,8 +2535,47 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1793,8 +2612,47 @@
         <f t="shared" si="2"/>
         <v>78.600000000000009</v>
       </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
+        <v>0</v>
+      </c>
+      <c r="X23" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1831,8 +2689,47 @@
         <f t="shared" si="2"/>
         <v>340.6</v>
       </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
+        <v>0</v>
+      </c>
+      <c r="U24" s="11">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1869,8 +2766,47 @@
         <f t="shared" si="2"/>
         <v>155.99999999999997</v>
       </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1906,6 +2842,45 @@
       <c r="K26" s="6">
         <f t="shared" si="2"/>
         <v>70.2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="11">
+        <v>0</v>
+      </c>
+      <c r="U26" s="11">
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <v>0</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A33D861-F174-4933-9E74-FF6EA7F67CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6647A-62B5-4E9F-A69B-B3416E0580B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,10 @@
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$32</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +300,98 @@
     <t>出场金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日下周推演</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日盘前快播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TQQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +446,12 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -450,74 +551,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -537,7 +570,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -850,10 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -863,28 +897,28 @@
     <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10" style="2"/>
+    <col min="6" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -901,116 +935,120 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D2" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
-        <v>440.3</v>
+        <f>COUNTIFS(E:E,E2)</f>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>438</v>
-      </c>
-      <c r="H2" s="5">
-        <f>G2/F2-1</f>
-        <v>-5.2237111060641217E-3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <f>-H2*I2</f>
-        <v>5.2237111060641217E-3</v>
-      </c>
-      <c r="K2" s="6">
-        <f>F2*(1+J2)</f>
-        <v>442.60000000000008</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10">
+        <v>755</v>
+      </c>
+      <c r="H2" s="2">
+        <v>748</v>
+      </c>
+      <c r="I2" s="5">
+        <f>H2/G2-1</f>
+        <v>-9.2715231788079722E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <f>-I2*J2</f>
+        <v>9.2715231788079722E-3</v>
+      </c>
+      <c r="L2" s="6">
+        <f>G2*(1+K2)</f>
+        <v>761.99999999999989</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
         <v>0</v>
       </c>
       <c r="R2" s="10">
@@ -1019,13 +1057,13 @@
       <c r="S2" s="10">
         <v>0</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="10">
         <v>0</v>
       </c>
       <c r="U2" s="11">
         <v>0</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="11">
         <v>0</v>
       </c>
       <c r="W2" s="12">
@@ -1034,60 +1072,64 @@
       <c r="X2" s="12">
         <v>0</v>
       </c>
+      <c r="Y2" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D3" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2">
-        <v>370.6</v>
+        <f>COUNTIFS(E:E,E3)</f>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
+        <v>371</v>
+      </c>
+      <c r="H3" s="2">
         <v>369</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H26" si="0">G3/F3-1</f>
-        <v>-4.31732325957912E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J26" si="1">-H3*I3</f>
-        <v>4.31732325957912E-3</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K26" si="2">F3*(1+J3)</f>
-        <v>372.2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="I3" s="5">
+        <f>H3/G3-1</f>
+        <v>-5.3908355795148077E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <f>-I3*J3</f>
+        <v>5.3908355795148077E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f>G3*(1+K3)</f>
+        <v>372.99999999999994</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
         <v>0</v>
       </c>
       <c r="R3" s="10">
@@ -1096,13 +1138,13 @@
       <c r="S3" s="10">
         <v>0</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>0</v>
       </c>
       <c r="U3" s="11">
         <v>0</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="11">
         <v>0</v>
       </c>
       <c r="W3" s="12">
@@ -1111,60 +1153,64 @@
       <c r="X3" s="12">
         <v>0</v>
       </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D4" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>141.69999999999999</v>
+        <f>COUNTIFS(E:E,E4)</f>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>139.9</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2702893436838281E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2702893436838281E-2</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" si="2"/>
-        <v>143.49999999999997</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
+        <v>416</v>
+      </c>
+      <c r="H4" s="2">
+        <v>396</v>
+      </c>
+      <c r="I4" s="5">
+        <f>H4/G4-1</f>
+        <v>-4.8076923076923128E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <f>-I4*J4</f>
+        <v>4.8076923076923128E-2</v>
+      </c>
+      <c r="L4" s="6">
+        <f>G4*(1+K4)</f>
+        <v>436</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
         <v>0</v>
       </c>
       <c r="R4" s="10">
@@ -1173,13 +1219,13 @@
       <c r="S4" s="10">
         <v>0</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>0</v>
       </c>
       <c r="U4" s="11">
         <v>0</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11">
         <v>0</v>
       </c>
       <c r="W4" s="12">
@@ -1188,60 +1234,64 @@
       <c r="X4" s="12">
         <v>0</v>
       </c>
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D5" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2">
-        <v>728</v>
+        <f>COUNTIFS(E:E,E5)</f>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>715</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.7857142857142905E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7857142857142905E-2</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="2"/>
-        <v>741</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
+        <v>140.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>130</v>
+      </c>
+      <c r="I5" s="5">
+        <f>H5/G5-1</f>
+        <v>-7.4733096085409234E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <f>-I5*J5</f>
+        <v>7.4733096085409234E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <f>G5*(1+K5)</f>
+        <v>150.99999999999997</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
         <v>0</v>
       </c>
       <c r="R5" s="10">
@@ -1250,13 +1300,13 @@
       <c r="S5" s="10">
         <v>0</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>0</v>
       </c>
       <c r="U5" s="11">
         <v>0</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <v>0</v>
       </c>
       <c r="W5" s="12">
@@ -1265,60 +1315,64 @@
       <c r="X5" s="12">
         <v>0</v>
       </c>
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D6" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2">
-        <v>342</v>
+        <f>COUNTIFS(E:E,E6)</f>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>340.69</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.830409356725184E-3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="1"/>
-        <v>3.830409356725184E-3</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="2"/>
-        <v>343.31</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
+        <v>136.55000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>133.5</v>
+      </c>
+      <c r="I6" s="5">
+        <f>H6/G6-1</f>
+        <v>-2.2336140607836064E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <f>-I6*J6</f>
+        <v>2.2336140607836064E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <f>G6*(1+K6)</f>
+        <v>139.60000000000005</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
         <v>0</v>
       </c>
       <c r="R6" s="10">
@@ -1327,13 +1381,13 @@
       <c r="S6" s="10">
         <v>0</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>0</v>
       </c>
       <c r="U6" s="11">
         <v>0</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
         <v>0</v>
       </c>
       <c r="W6" s="12">
@@ -1342,60 +1396,64 @@
       <c r="X6" s="12">
         <v>0</v>
       </c>
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D7" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>220.8</v>
+        <f>COUNTIFS(E:E,E7)</f>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>219.5</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.8876811594202882E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8876811594202882E-3</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="2"/>
-        <v>222.10000000000002</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
+        <v>278</v>
+      </c>
+      <c r="H7" s="2">
+        <v>275</v>
+      </c>
+      <c r="I7" s="5">
+        <f>H7/G7-1</f>
+        <v>-1.0791366906474864E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <f>-I7*J7</f>
+        <v>1.0791366906474864E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <f>G7*(1+K7)</f>
+        <v>281</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
         <v>0</v>
       </c>
       <c r="R7" s="10">
@@ -1404,13 +1462,13 @@
       <c r="S7" s="10">
         <v>0</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>0</v>
       </c>
       <c r="U7" s="11">
         <v>0</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
         <v>0</v>
       </c>
       <c r="W7" s="12">
@@ -1419,60 +1477,64 @@
       <c r="X7" s="12">
         <v>0</v>
       </c>
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D8" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>298.5</v>
+        <f>COUNTIFS(E:E,E8)</f>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>297.2</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.3551088777219471E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3551088777219471E-3</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="2"/>
-        <v>299.79999999999995</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
+        <v>104.8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>104</v>
+      </c>
+      <c r="I8" s="5">
+        <f>H8/G8-1</f>
+        <v>-7.6335877862595547E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <f>-I8*J8</f>
+        <v>7.6335877862595547E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f>G8*(1+K8)</f>
+        <v>105.59999999999998</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <v>0</v>
       </c>
       <c r="R8" s="10">
@@ -1481,13 +1543,13 @@
       <c r="S8" s="10">
         <v>0</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>0</v>
       </c>
       <c r="U8" s="11">
         <v>0</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="11">
         <v>0</v>
       </c>
       <c r="W8" s="12">
@@ -1496,60 +1558,64 @@
       <c r="X8" s="12">
         <v>0</v>
       </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D9" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
-        <v>447.5</v>
+        <f>COUNTIFS(E:E,E9)</f>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>443</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0055865921787754E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0055865921787754E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="2"/>
-        <v>452</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
+        <v>122</v>
+      </c>
+      <c r="H9" s="2">
+        <v>118.5</v>
+      </c>
+      <c r="I9" s="5">
+        <f>H9/G9-1</f>
+        <v>-2.8688524590163911E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <f>-I9*J9</f>
+        <v>2.8688524590163911E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <f>G9*(1+K9)</f>
+        <v>125.50000000000001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
         <v>0</v>
       </c>
       <c r="R9" s="10">
@@ -1558,13 +1624,13 @@
       <c r="S9" s="10">
         <v>0</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <v>0</v>
       </c>
       <c r="U9" s="11">
         <v>0</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="11">
         <v>0</v>
       </c>
       <c r="W9" s="12">
@@ -1573,60 +1639,64 @@
       <c r="X9" s="12">
         <v>0</v>
       </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D10" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
-        <v>270</v>
+        <f>COUNTIFS(E:E,E10)</f>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>267</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.1111111111111072E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1111111111111072E-2</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="2"/>
-        <v>273</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
+        <v>80.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="I10" s="5">
+        <f>H10/G10-1</f>
+        <v>-1.2422360248447228E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <f>-I10*J10</f>
+        <v>4.9689440993788914E-2</v>
+      </c>
+      <c r="L10" s="6">
+        <f>G10*(1+K10)</f>
+        <v>84.500000000000014</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="10">
@@ -1635,13 +1705,13 @@
       <c r="S10" s="10">
         <v>0</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="10">
         <v>0</v>
       </c>
       <c r="U10" s="11">
         <v>0</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="11">
         <v>0</v>
       </c>
       <c r="W10" s="12">
@@ -1650,60 +1720,64 @@
       <c r="X10" s="12">
         <v>0</v>
       </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44466</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44468</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2">
+        <f>COUNTIFS(E:E,E11)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>38</v>
       </c>
-      <c r="C11" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44467</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2">
-        <v>105</v>
-      </c>
-      <c r="G11" s="2">
-        <v>104.4</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.7142857142856718E-3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7142857142856718E-3</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="2"/>
-        <v>105.60000000000001</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
+      <c r="H11" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I11" s="5">
+        <f>H11/G11-1</f>
+        <v>-5.2631578947369695E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <f>-I11*J11</f>
+        <v>5.2631578947369695E-3</v>
+      </c>
+      <c r="L11" s="6">
+        <f>G11*(1+K11)</f>
+        <v>38.20000000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
         <v>0</v>
       </c>
       <c r="R11" s="10">
@@ -1712,13 +1786,13 @@
       <c r="S11" s="10">
         <v>0</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>0</v>
       </c>
       <c r="U11" s="11">
         <v>0</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="11">
         <v>0</v>
       </c>
       <c r="W11" s="12">
@@ -1727,60 +1801,64 @@
       <c r="X11" s="12">
         <v>0</v>
       </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D12" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2">
-        <v>37.6</v>
+        <f>COUNTIFS(E:E,E12)</f>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>-7.9787234042554278E-3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="1"/>
-        <v>7.9787234042554278E-3</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="2"/>
-        <v>37.900000000000006</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
+        <v>616.20000000000005</v>
+      </c>
+      <c r="H12" s="2">
+        <v>604</v>
+      </c>
+      <c r="I12" s="5">
+        <f>H12/G12-1</f>
+        <v>-1.9798766634209763E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <f>-I12*J12</f>
+        <v>1.9798766634209763E-2</v>
+      </c>
+      <c r="L12" s="6">
+        <f>G12*(1+K12)</f>
+        <v>628.40000000000009</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
         <v>0</v>
       </c>
       <c r="R12" s="10">
@@ -1789,13 +1867,13 @@
       <c r="S12" s="10">
         <v>0</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>0</v>
       </c>
       <c r="U12" s="11">
         <v>0</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="11">
         <v>0</v>
       </c>
       <c r="W12" s="12">
@@ -1804,60 +1882,64 @@
       <c r="X12" s="12">
         <v>0</v>
       </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D13" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2">
-        <v>117.9</v>
+        <f>COUNTIFS(E:E,E13)</f>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>114</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.30788804071247E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="1"/>
-        <v>3.30788804071247E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="2"/>
-        <v>121.80000000000001</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
+        <v>41.7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="I13" s="5">
+        <f>H13/G13-1</f>
+        <v>-7.1942446043166131E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <f>-I13*J13</f>
+        <v>7.1942446043166131E-3</v>
+      </c>
+      <c r="L13" s="6">
+        <f>G13*(1+K13)</f>
+        <v>42</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
         <v>0</v>
       </c>
       <c r="R13" s="10">
@@ -1866,13 +1948,13 @@
       <c r="S13" s="10">
         <v>0</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>0</v>
       </c>
       <c r="U13" s="11">
         <v>0</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="11">
         <v>0</v>
       </c>
       <c r="W13" s="12">
@@ -1881,60 +1963,64 @@
       <c r="X13" s="12">
         <v>0</v>
       </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D14" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2">
-        <v>80.5</v>
+        <f>COUNTIFS(E:E,E14)</f>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>80.2</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.7267080745341241E-3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="1"/>
-        <v>3.7267080745341241E-3</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="2"/>
-        <v>80.799999999999983</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
+        <v>461</v>
+      </c>
+      <c r="H14" s="2">
+        <v>459</v>
+      </c>
+      <c r="I14" s="5">
+        <f>H14/G14-1</f>
+        <v>-4.3383947939262812E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <f>-I14*J14</f>
+        <v>4.3383947939262812E-3</v>
+      </c>
+      <c r="L14" s="6">
+        <f>G14*(1+K14)</f>
+        <v>462.99999999999994</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
         <v>0</v>
       </c>
       <c r="R14" s="10">
@@ -1943,13 +2029,13 @@
       <c r="S14" s="10">
         <v>0</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="10">
         <v>0</v>
       </c>
       <c r="U14" s="11">
         <v>0</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="11">
         <v>0</v>
       </c>
       <c r="W14" s="12">
@@ -1958,60 +2044,64 @@
       <c r="X14" s="12">
         <v>0</v>
       </c>
+      <c r="Y14" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D15" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2">
-        <v>262.39999999999998</v>
+        <f>COUNTIFS(E:E,E15)</f>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>260.7</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.4786585365853577E-3</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="1"/>
-        <v>6.4786585365853577E-3</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="2"/>
-        <v>264.09999999999997</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
+        <v>221.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>220</v>
+      </c>
+      <c r="I15" s="5">
+        <f>H15/G15-1</f>
+        <v>-6.7720090293453827E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" ref="K15" si="0">-I15*J15</f>
+        <v>6.7720090293453827E-3</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" ref="L15" si="1">G15*(1+K15)</f>
+        <v>223.00000000000003</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
         <v>0</v>
       </c>
       <c r="R15" s="10">
@@ -2020,13 +2110,13 @@
       <c r="S15" s="10">
         <v>0</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="10">
         <v>0</v>
       </c>
       <c r="U15" s="11">
         <v>0</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="11">
         <v>0</v>
       </c>
       <c r="W15" s="12">
@@ -2035,13 +2125,16 @@
       <c r="X15" s="12">
         <v>0</v>
       </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>44463</v>
@@ -2050,45 +2143,46 @@
         <v>44467</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2">
-        <v>216</v>
+        <f>COUNTIFS(E:E,E16)</f>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>214</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.2592592592593004E-3</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="1"/>
-        <v>9.2592592592593004E-3</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="2"/>
-        <v>218</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
+        <v>440.3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>438</v>
+      </c>
+      <c r="I16" s="5">
+        <f>H16/G16-1</f>
+        <v>-5.2237111060641217E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <f>-I16*J16</f>
+        <v>5.2237111060641217E-3</v>
+      </c>
+      <c r="L16" s="6">
+        <f>G16*(1+K16)</f>
+        <v>442.60000000000008</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
         <v>0</v>
       </c>
       <c r="R16" s="10">
@@ -2097,13 +2191,13 @@
       <c r="S16" s="10">
         <v>0</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <v>0</v>
       </c>
       <c r="U16" s="11">
         <v>0</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="11">
         <v>0</v>
       </c>
       <c r="W16" s="12">
@@ -2112,13 +2206,16 @@
       <c r="X16" s="12">
         <v>0</v>
       </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
         <v>44463</v>
@@ -2127,45 +2224,46 @@
         <v>44467</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>327.39999999999998</v>
+        <f>COUNTIFS(E:E,E17)</f>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>323.39999999999998</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2217470983506451E-2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2217470983506451E-2</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="2"/>
-        <v>331.40000000000003</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>139.9</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ref="I17:I32" si="2">H17/G17-1</f>
+        <v>-1.2702893436838281E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" ref="K17:K32" si="3">-I17*J17</f>
+        <v>1.2702893436838281E-2</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" ref="L17:L32" si="4">G17*(1+K17)</f>
+        <v>143.49999999999997</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
         <v>0</v>
       </c>
       <c r="R17" s="10">
@@ -2174,13 +2272,13 @@
       <c r="S17" s="10">
         <v>0</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>0</v>
       </c>
       <c r="U17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="11">
         <v>0</v>
       </c>
       <c r="W17" s="12">
@@ -2189,8 +2287,11 @@
       <c r="X17" s="12">
         <v>0</v>
       </c>
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2204,45 +2305,46 @@
         <v>44467</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>345</v>
+        <f>COUNTIFS(E:E,E18)</f>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>343</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>-5.7971014492753659E-3</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7971014492753659E-3</v>
-      </c>
-      <c r="K18" s="6">
+        <v>342</v>
+      </c>
+      <c r="H18" s="2">
+        <v>340.69</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="2"/>
-        <v>347.00000000000006</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
+        <v>-3.830409356725184E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
+        <v>3.830409356725184E-3</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="4"/>
+        <v>343.31</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
         <v>0</v>
       </c>
       <c r="R18" s="10">
@@ -2251,13 +2353,13 @@
       <c r="S18" s="10">
         <v>0</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="10">
         <v>0</v>
       </c>
       <c r="U18" s="11">
         <v>0</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="11">
         <v>0</v>
       </c>
       <c r="W18" s="12">
@@ -2266,8 +2368,11 @@
       <c r="X18" s="12">
         <v>0</v>
       </c>
+      <c r="Y18" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2281,45 +2386,46 @@
         <v>44467</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2">
-        <v>247</v>
+        <f>COUNTIFS(E:E,E19)</f>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>242</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.0242914979757054E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0242914979757054E-2</v>
-      </c>
-      <c r="K19" s="6">
+        <v>220.8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>219.5</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="2"/>
-        <v>251.99999999999997</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
-      <c r="P19" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
+        <v>-5.8876811594202882E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="3"/>
+        <v>5.8876811594202882E-3</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="4"/>
+        <v>222.10000000000002</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
         <v>0</v>
       </c>
       <c r="R19" s="10">
@@ -2328,13 +2434,13 @@
       <c r="S19" s="10">
         <v>0</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="10">
         <v>0</v>
       </c>
       <c r="U19" s="11">
         <v>0</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="11">
         <v>0</v>
       </c>
       <c r="W19" s="12">
@@ -2343,8 +2449,11 @@
       <c r="X19" s="12">
         <v>0</v>
       </c>
+      <c r="Y19" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2358,45 +2467,46 @@
         <v>44467</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>28.2</v>
+        <f>COUNTIFS(E:E,E20)</f>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.4184397163120477E-2</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4184397163120477E-2</v>
-      </c>
-      <c r="K20" s="6">
+        <v>298.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>297.2</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="2"/>
-        <v>28.599999999999994</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
+        <v>-4.3551088777219471E-3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="3"/>
+        <v>4.3551088777219471E-3</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="4"/>
+        <v>299.79999999999995</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
         <v>0</v>
       </c>
       <c r="R20" s="10">
@@ -2405,13 +2515,13 @@
       <c r="S20" s="10">
         <v>0</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="10">
         <v>0</v>
       </c>
       <c r="U20" s="11">
         <v>0</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="11">
         <v>0</v>
       </c>
       <c r="W20" s="12">
@@ -2420,8 +2530,11 @@
       <c r="X20" s="12">
         <v>0</v>
       </c>
+      <c r="Y20" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2435,45 +2548,46 @@
         <v>44467</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2">
-        <v>158.69999999999999</v>
+        <f>COUNTIFS(E:E,E21)</f>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.8273471959672216E-2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8273471959672216E-2</v>
-      </c>
-      <c r="K21" s="6">
+        <v>80.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="2"/>
-        <v>161.59999999999997</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
+        <v>-3.7267080745341241E-3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7267080745341241E-3</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="4"/>
+        <v>80.799999999999983</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
         <v>0</v>
       </c>
       <c r="R21" s="10">
@@ -2482,13 +2596,13 @@
       <c r="S21" s="10">
         <v>0</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="10">
         <v>0</v>
       </c>
       <c r="U21" s="11">
         <v>0</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="11">
         <v>0</v>
       </c>
       <c r="W21" s="12">
@@ -2497,8 +2611,11 @@
       <c r="X21" s="12">
         <v>0</v>
       </c>
+      <c r="Y21" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2512,45 +2629,46 @@
         <v>44467</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2">
-        <v>37.9</v>
+        <f>COUNTIFS(E:E,E22)</f>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.9023746701847042E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="1"/>
-        <v>2.9023746701847042E-2</v>
-      </c>
-      <c r="K22" s="6">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="H22" s="2">
+        <v>260.7</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10">
-        <v>0</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
+        <v>-6.4786585365853577E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="3"/>
+        <v>6.4786585365853577E-3</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="4"/>
+        <v>264.09999999999997</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
         <v>0</v>
       </c>
       <c r="R22" s="10">
@@ -2559,13 +2677,13 @@
       <c r="S22" s="10">
         <v>0</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="10">
         <v>0</v>
       </c>
       <c r="U22" s="11">
         <v>0</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="11">
         <v>0</v>
       </c>
       <c r="W22" s="12">
@@ -2574,8 +2692,11 @@
       <c r="X22" s="12">
         <v>0</v>
       </c>
+      <c r="Y22" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2589,45 +2710,46 @@
         <v>44467</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2">
-        <v>77.900000000000006</v>
+        <f>COUNTIFS(E:E,E23)</f>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>77.2</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.9858793324775199E-3</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="1"/>
-        <v>8.9858793324775199E-3</v>
-      </c>
-      <c r="K23" s="6">
+        <v>216</v>
+      </c>
+      <c r="H23" s="2">
+        <v>214</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="2"/>
-        <v>78.600000000000009</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
+        <v>-9.2592592592593004E-3</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="3"/>
+        <v>9.2592592592593004E-3</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
         <v>0</v>
       </c>
       <c r="R23" s="10">
@@ -2636,13 +2758,13 @@
       <c r="S23" s="10">
         <v>0</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="10">
         <v>0</v>
       </c>
       <c r="U23" s="11">
         <v>0</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="11">
         <v>0</v>
       </c>
       <c r="W23" s="12">
@@ -2651,8 +2773,11 @@
       <c r="X23" s="12">
         <v>0</v>
       </c>
+      <c r="Y23" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2666,45 +2791,46 @@
         <v>44467</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2">
-        <v>339.3</v>
+        <f>COUNTIFS(E:E,E24)</f>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>338</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.8314176245211051E-3</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="1"/>
-        <v>3.8314176245211051E-3</v>
-      </c>
-      <c r="K24" s="6">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="H24" s="2">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="2"/>
-        <v>340.6</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10">
-        <v>0</v>
-      </c>
-      <c r="P24" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
+        <v>-1.2217470983506451E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2217470983506451E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="4"/>
+        <v>331.40000000000003</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
         <v>0</v>
       </c>
       <c r="R24" s="10">
@@ -2713,13 +2839,13 @@
       <c r="S24" s="10">
         <v>0</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="10">
         <v>0</v>
       </c>
       <c r="U24" s="11">
         <v>0</v>
       </c>
-      <c r="V24" s="12">
+      <c r="V24" s="11">
         <v>0</v>
       </c>
       <c r="W24" s="12">
@@ -2728,8 +2854,11 @@
       <c r="X24" s="12">
         <v>0</v>
       </c>
+      <c r="Y24" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2743,45 +2872,46 @@
         <v>44467</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2">
-        <v>155</v>
+        <f>COUNTIFS(E:E,E25)</f>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>154</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.4516129032258229E-3</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="1"/>
-        <v>6.4516129032258229E-3</v>
-      </c>
-      <c r="K25" s="6">
+        <v>345</v>
+      </c>
+      <c r="H25" s="2">
+        <v>343</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="2"/>
-        <v>155.99999999999997</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
+        <v>-5.7971014492753659E-3</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7971014492753659E-3</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="4"/>
+        <v>347.00000000000006</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
         <v>0</v>
       </c>
       <c r="R25" s="10">
@@ -2790,13 +2920,13 @@
       <c r="S25" s="10">
         <v>0</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="10">
         <v>0</v>
       </c>
       <c r="U25" s="11">
         <v>0</v>
       </c>
-      <c r="V25" s="12">
+      <c r="V25" s="11">
         <v>0</v>
       </c>
       <c r="W25" s="12">
@@ -2805,8 +2935,11 @@
       <c r="X25" s="12">
         <v>0</v>
       </c>
+      <c r="Y25" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2820,66 +2953,556 @@
         <v>44467</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2">
+        <f>COUNTIFS(E:E,E26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>247</v>
+      </c>
+      <c r="H26" s="2">
+        <v>242</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.0242914979757054E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0242914979757054E-2</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="4"/>
+        <v>251.99999999999997</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0</v>
+      </c>
+      <c r="U26" s="11">
+        <v>0</v>
+      </c>
+      <c r="V26" s="11">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <v>0</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2">
+        <f>COUNTIFS(E:E,E27)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.4184397163120477E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4184397163120477E-2</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="4"/>
+        <v>28.599999999999994</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2">
+        <f>COUNTIFS(E:E,E28)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.8273471959672216E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8273471959672216E-2</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="4"/>
+        <v>161.59999999999997</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10">
+        <v>0</v>
+      </c>
+      <c r="U28" s="11">
+        <v>0</v>
+      </c>
+      <c r="V28" s="11">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <v>0</v>
+      </c>
+      <c r="X28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="2">
+        <f>COUNTIFS(E:E,E29)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.9023746701847042E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="3"/>
+        <v>2.9023746701847042E-2</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="10">
+        <v>0</v>
+      </c>
+      <c r="S29" s="10">
+        <v>0</v>
+      </c>
+      <c r="T29" s="10">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="12">
+        <v>0</v>
+      </c>
+      <c r="X29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2">
+        <f>COUNTIFS(E:E,E30)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>339.3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>338</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.8314176245211051E-3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8314176245211051E-3</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="4"/>
+        <v>340.6</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
+        <v>0</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2">
+        <f>COUNTIFS(E:E,E31)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>155</v>
+      </c>
+      <c r="H31" s="2">
+        <v>154</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.4516129032258229E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258229E-3</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="4"/>
+        <v>155.99999999999997</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="10">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="11">
+        <v>0</v>
+      </c>
+      <c r="V31" s="11">
+        <v>0</v>
+      </c>
+      <c r="W31" s="12">
+        <v>0</v>
+      </c>
+      <c r="X31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F32" s="2">
+        <f>COUNTIFS(E:E,E32)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
         <v>69.8</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H32" s="2">
         <v>69.400000000000006</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" si="0"/>
+      <c r="I32" s="5">
+        <f t="shared" si="2"/>
         <v>-5.7306590257878431E-3</v>
       </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="1"/>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="3"/>
         <v>5.7306590257878431E-3</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" si="2"/>
+      <c r="L32" s="6">
+        <f t="shared" si="4"/>
         <v>70.2</v>
       </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <v>0</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>0</v>
-      </c>
-      <c r="R26" s="10">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <v>0</v>
-      </c>
-      <c r="T26" s="11">
-        <v>0</v>
-      </c>
-      <c r="U26" s="11">
-        <v>0</v>
-      </c>
-      <c r="V26" s="12">
-        <v>0</v>
-      </c>
-      <c r="W26" s="12">
-        <v>0</v>
-      </c>
-      <c r="X26" s="12">
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <v>0</v>
+      </c>
+      <c r="X32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="12">
         <v>0</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6647A-62B5-4E9F-A69B-B3416E0580B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C16082-C150-4E33-8589-8D549E0AC9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MKE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TQQQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +387,21 @@
   <si>
     <t>记录数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未入场，已涨破止盈位，放弃入场</t>
+  </si>
+  <si>
+    <t>已入场</t>
+  </si>
+  <si>
+    <t>2021-09-27 09:30:14</t>
+  </si>
+  <si>
+    <t>2021-09-27 09:30:13.908890</t>
+  </si>
+  <si>
+    <t>未入场，等待入场</t>
   </si>
 </sst>
 </file>
@@ -551,6 +562,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -570,7 +649,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -883,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -902,10 +981,10 @@
     <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.25" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
@@ -935,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1022,22 +1101,22 @@
         <v>748</v>
       </c>
       <c r="I2" s="5">
-        <f>H2/G2-1</f>
+        <f t="shared" ref="I2:I16" si="0">H2/G2-1</f>
         <v>-9.2715231788079722E-3</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="5">
-        <f>-I2*J2</f>
+        <f t="shared" ref="K2:K14" si="1">-I2*J2</f>
         <v>9.2715231788079722E-3</v>
       </c>
       <c r="L2" s="6">
-        <f>G2*(1+K2)</f>
+        <f t="shared" ref="L2:L14" si="2">G2*(1+K2)</f>
         <v>761.99999999999989</v>
       </c>
-      <c r="M2" s="2">
-        <v>0</v>
+      <c r="M2" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N2" s="10">
         <v>0</v>
@@ -1103,43 +1182,43 @@
         <v>369</v>
       </c>
       <c r="I3" s="5">
-        <f>H3/G3-1</f>
+        <f t="shared" si="0"/>
         <v>-5.3908355795148077E-3</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <f>-I3*J3</f>
+        <f t="shared" si="1"/>
         <v>5.3908355795148077E-3</v>
       </c>
       <c r="L3" s="6">
-        <f>G3*(1+K3)</f>
+        <f t="shared" si="2"/>
         <v>372.99999999999994</v>
       </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
+      <c r="M3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="O3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="10">
-        <v>0</v>
+      <c r="P3" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
       <c r="R3" s="10">
-        <v>0</v>
+        <v>370.43</v>
       </c>
       <c r="S3" s="10">
-        <v>0</v>
+        <v>1852.15</v>
       </c>
       <c r="T3" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3" s="11">
         <v>0</v>
@@ -1184,22 +1263,22 @@
         <v>396</v>
       </c>
       <c r="I4" s="5">
-        <f>H4/G4-1</f>
+        <f t="shared" si="0"/>
         <v>-4.8076923076923128E-2</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="5">
-        <f>-I4*J4</f>
+        <f t="shared" si="1"/>
         <v>4.8076923076923128E-2</v>
       </c>
       <c r="L4" s="6">
-        <f>G4*(1+K4)</f>
+        <f t="shared" si="2"/>
         <v>436</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
+      <c r="M4" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -1252,7 +1331,7 @@
         <v>44468</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <f>COUNTIFS(E:E,E5)</f>
@@ -1265,18 +1344,18 @@
         <v>130</v>
       </c>
       <c r="I5" s="5">
-        <f>H5/G5-1</f>
+        <f t="shared" si="0"/>
         <v>-7.4733096085409234E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <f>-I5*J5</f>
+        <f t="shared" si="1"/>
         <v>7.4733096085409234E-2</v>
       </c>
       <c r="L5" s="6">
-        <f>G5*(1+K5)</f>
+        <f t="shared" si="2"/>
         <v>150.99999999999997</v>
       </c>
       <c r="M5" s="2">
@@ -1333,7 +1412,7 @@
         <v>44468</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
         <f>COUNTIFS(E:E,E6)</f>
@@ -1346,18 +1425,18 @@
         <v>133.5</v>
       </c>
       <c r="I6" s="5">
-        <f>H6/G6-1</f>
+        <f t="shared" si="0"/>
         <v>-2.2336140607836064E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f>-I6*J6</f>
+        <f t="shared" si="1"/>
         <v>2.2336140607836064E-2</v>
       </c>
       <c r="L6" s="6">
-        <f>G6*(1+K6)</f>
+        <f t="shared" si="2"/>
         <v>139.60000000000005</v>
       </c>
       <c r="M6" s="2">
@@ -1427,18 +1506,18 @@
         <v>275</v>
       </c>
       <c r="I7" s="5">
-        <f>H7/G7-1</f>
+        <f t="shared" si="0"/>
         <v>-1.0791366906474864E-2</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <f>-I7*J7</f>
+        <f t="shared" si="1"/>
         <v>1.0791366906474864E-2</v>
       </c>
       <c r="L7" s="6">
-        <f>G7*(1+K7)</f>
+        <f t="shared" si="2"/>
         <v>281</v>
       </c>
       <c r="M7" s="2">
@@ -1508,18 +1587,18 @@
         <v>104</v>
       </c>
       <c r="I8" s="5">
-        <f>H8/G8-1</f>
+        <f t="shared" si="0"/>
         <v>-7.6335877862595547E-3</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <f>-I8*J8</f>
+        <f t="shared" si="1"/>
         <v>7.6335877862595547E-3</v>
       </c>
       <c r="L8" s="6">
-        <f>G8*(1+K8)</f>
+        <f t="shared" si="2"/>
         <v>105.59999999999998</v>
       </c>
       <c r="M8" s="2">
@@ -1589,18 +1668,18 @@
         <v>118.5</v>
       </c>
       <c r="I9" s="5">
-        <f>H9/G9-1</f>
+        <f t="shared" si="0"/>
         <v>-2.8688524590163911E-2</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <f>-I9*J9</f>
+        <f t="shared" si="1"/>
         <v>2.8688524590163911E-2</v>
       </c>
       <c r="L9" s="6">
-        <f>G9*(1+K9)</f>
+        <f t="shared" si="2"/>
         <v>125.50000000000001</v>
       </c>
       <c r="M9" s="2">
@@ -1670,18 +1749,18 @@
         <v>79.5</v>
       </c>
       <c r="I10" s="5">
-        <f>H10/G10-1</f>
+        <f t="shared" si="0"/>
         <v>-1.2422360248447228E-2</v>
       </c>
       <c r="J10" s="2">
         <v>4</v>
       </c>
       <c r="K10" s="5">
-        <f>-I10*J10</f>
+        <f t="shared" si="1"/>
         <v>4.9689440993788914E-2</v>
       </c>
       <c r="L10" s="6">
-        <f>G10*(1+K10)</f>
+        <f t="shared" si="2"/>
         <v>84.500000000000014</v>
       </c>
       <c r="M10" s="2">
@@ -1751,18 +1830,18 @@
         <v>37.799999999999997</v>
       </c>
       <c r="I11" s="5">
-        <f>H11/G11-1</f>
+        <f t="shared" si="0"/>
         <v>-5.2631578947369695E-3</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f>-I11*J11</f>
+        <f t="shared" si="1"/>
         <v>5.2631578947369695E-3</v>
       </c>
       <c r="L11" s="6">
-        <f>G11*(1+K11)</f>
+        <f t="shared" si="2"/>
         <v>38.20000000000001</v>
       </c>
       <c r="M11" s="2">
@@ -1819,7 +1898,7 @@
         <v>44468</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2">
         <f>COUNTIFS(E:E,E12)</f>
@@ -1832,18 +1911,18 @@
         <v>604</v>
       </c>
       <c r="I12" s="5">
-        <f>H12/G12-1</f>
+        <f t="shared" si="0"/>
         <v>-1.9798766634209763E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <f>-I12*J12</f>
+        <f t="shared" si="1"/>
         <v>1.9798766634209763E-2</v>
       </c>
       <c r="L12" s="6">
-        <f>G12*(1+K12)</f>
+        <f t="shared" si="2"/>
         <v>628.40000000000009</v>
       </c>
       <c r="M12" s="2">
@@ -1900,7 +1979,7 @@
         <v>44468</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2">
         <f>COUNTIFS(E:E,E13)</f>
@@ -1913,18 +1992,18 @@
         <v>41.4</v>
       </c>
       <c r="I13" s="5">
-        <f>H13/G13-1</f>
+        <f t="shared" si="0"/>
         <v>-7.1942446043166131E-3</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <f>-I13*J13</f>
+        <f t="shared" si="1"/>
         <v>7.1942446043166131E-3</v>
       </c>
       <c r="L13" s="6">
-        <f>G13*(1+K13)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="M13" s="2">
@@ -1981,7 +2060,7 @@
         <v>44468</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2">
         <f>COUNTIFS(E:E,E14)</f>
@@ -1994,18 +2073,18 @@
         <v>459</v>
       </c>
       <c r="I14" s="5">
-        <f>H14/G14-1</f>
+        <f t="shared" si="0"/>
         <v>-4.3383947939262812E-3</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="5">
-        <f>-I14*J14</f>
+        <f t="shared" si="1"/>
         <v>4.3383947939262812E-3</v>
       </c>
       <c r="L14" s="6">
-        <f>G14*(1+K14)</f>
+        <f t="shared" si="2"/>
         <v>462.99999999999994</v>
       </c>
       <c r="M14" s="2">
@@ -2075,18 +2154,18 @@
         <v>220</v>
       </c>
       <c r="I15" s="5">
-        <f>H15/G15-1</f>
+        <f t="shared" si="0"/>
         <v>-6.7720090293453827E-3</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" ref="K15" si="0">-I15*J15</f>
+        <f t="shared" ref="K15" si="3">-I15*J15</f>
         <v>6.7720090293453827E-3</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15" si="1">G15*(1+K15)</f>
+        <f t="shared" ref="L15" si="4">G15*(1+K15)</f>
         <v>223.00000000000003</v>
       </c>
       <c r="M15" s="2">
@@ -2156,7 +2235,7 @@
         <v>438</v>
       </c>
       <c r="I16" s="5">
-        <f>H16/G16-1</f>
+        <f t="shared" si="0"/>
         <v>-5.2237111060641217E-3</v>
       </c>
       <c r="J16" s="2">
@@ -2237,18 +2316,18 @@
         <v>139.9</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ref="I17:I32" si="2">H17/G17-1</f>
+        <f t="shared" ref="I17:I31" si="5">H17/G17-1</f>
         <v>-1.2702893436838281E-2</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ref="K17:K32" si="3">-I17*J17</f>
+        <f t="shared" ref="K17:K31" si="6">-I17*J17</f>
         <v>1.2702893436838281E-2</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:L32" si="4">G17*(1+K17)</f>
+        <f t="shared" ref="L17:L31" si="7">G17*(1+K17)</f>
         <v>143.49999999999997</v>
       </c>
       <c r="M17" s="2">
@@ -2318,18 +2397,18 @@
         <v>340.69</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.830409356725184E-3</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.830409356725184E-3</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>343.31</v>
       </c>
       <c r="M18" s="2">
@@ -2399,18 +2478,18 @@
         <v>219.5</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.8876811594202882E-3</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.8876811594202882E-3</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>222.10000000000002</v>
       </c>
       <c r="M19" s="2">
@@ -2480,18 +2559,18 @@
         <v>297.2</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4.3551088777219471E-3</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3551088777219471E-3</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>299.79999999999995</v>
       </c>
       <c r="M20" s="2">
@@ -2561,18 +2640,18 @@
         <v>80.2</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.7267080745341241E-3</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7267080745341241E-3</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80.799999999999983</v>
       </c>
       <c r="M21" s="2">
@@ -2642,18 +2721,18 @@
         <v>260.7</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-6.4786585365853577E-3</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4786585365853577E-3</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>264.09999999999997</v>
       </c>
       <c r="M22" s="2">
@@ -2723,18 +2802,18 @@
         <v>214</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-9.2592592592593004E-3</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.2592592592593004E-3</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>218</v>
       </c>
       <c r="M23" s="2">
@@ -2804,18 +2883,18 @@
         <v>323.39999999999998</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.2217470983506451E-2</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2217470983506451E-2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>331.40000000000003</v>
       </c>
       <c r="M24" s="2">
@@ -2885,18 +2964,18 @@
         <v>343</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.7971014492753659E-3</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.7971014492753659E-3</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>347.00000000000006</v>
       </c>
       <c r="M25" s="2">
@@ -2966,18 +3045,18 @@
         <v>242</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.0242914979757054E-2</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0242914979757054E-2</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>251.99999999999997</v>
       </c>
       <c r="M26" s="2">
@@ -3047,18 +3126,18 @@
         <v>27.8</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.4184397163120477E-2</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4184397163120477E-2</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28.599999999999994</v>
       </c>
       <c r="M27" s="2">
@@ -3103,7 +3182,7 @@
     </row>
     <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>38</v>
@@ -3115,32 +3194,32 @@
         <v>44467</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2">
         <f>COUNTIFS(E:E,E28)</f>
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>158.69999999999999</v>
+        <v>37.9</v>
       </c>
       <c r="H28" s="2">
-        <v>155.80000000000001</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.8273471959672216E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.9023746701847042E-2</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8273471959672216E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.9023746701847042E-2</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="4"/>
-        <v>161.59999999999997</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -3184,7 +3263,7 @@
     </row>
     <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
@@ -3196,32 +3275,32 @@
         <v>44467</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2">
         <f>COUNTIFS(E:E,E29)</f>
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>37.9</v>
+        <v>339.3</v>
       </c>
       <c r="H29" s="2">
-        <v>36.799999999999997</v>
+        <v>338</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.9023746701847042E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.8314176245211051E-3</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9023746701847042E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.8314176245211051E-3</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>340.6</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -3265,7 +3344,7 @@
     </row>
     <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
@@ -3277,32 +3356,32 @@
         <v>44467</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2">
         <f>COUNTIFS(E:E,E30)</f>
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>339.3</v>
+        <v>155</v>
       </c>
       <c r="H30" s="2">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.8314176245211051E-3</v>
+        <f t="shared" si="5"/>
+        <v>-6.4516129032258229E-3</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="3"/>
-        <v>3.8314176245211051E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.4516129032258229E-3</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="4"/>
-        <v>340.6</v>
+        <f t="shared" si="7"/>
+        <v>155.99999999999997</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -3346,7 +3425,7 @@
     </row>
     <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>38</v>
@@ -3358,32 +3437,32 @@
         <v>44467</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2">
         <f>COUNTIFS(E:E,E31)</f>
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>155</v>
+        <v>69.8</v>
       </c>
       <c r="H31" s="2">
-        <v>154</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="2"/>
-        <v>-6.4516129032258229E-3</v>
+        <f t="shared" si="5"/>
+        <v>-5.7306590257878431E-3</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="3"/>
-        <v>6.4516129032258229E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.7306590257878431E-3</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="4"/>
-        <v>155.99999999999997</v>
+        <f t="shared" si="7"/>
+        <v>70.2</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -3422,87 +3501,6 @@
         <v>0</v>
       </c>
       <c r="Y31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D32" s="4">
-        <v>44467</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="2">
-        <f>COUNTIFS(E:E,E32)</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>69.8</v>
-      </c>
-      <c r="H32" s="2">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="2"/>
-        <v>-5.7306590257878431E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="3"/>
-        <v>5.7306590257878431E-3</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="4"/>
-        <v>70.2</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
-      <c r="P32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>0</v>
-      </c>
-      <c r="R32" s="10">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10">
-        <v>0</v>
-      </c>
-      <c r="T32" s="10">
-        <v>0</v>
-      </c>
-      <c r="U32" s="11">
-        <v>0</v>
-      </c>
-      <c r="V32" s="11">
-        <v>0</v>
-      </c>
-      <c r="W32" s="12">
-        <v>0</v>
-      </c>
-      <c r="X32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="12">
         <v>0</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C16082-C150-4E33-8589-8D549E0AC9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A242EB-39F5-4075-A398-281D3BA5ECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,13 +395,13 @@
     <t>已入场</t>
   </si>
   <si>
-    <t>2021-09-27 09:30:14</t>
-  </si>
-  <si>
-    <t>2021-09-27 09:30:13.908890</t>
-  </si>
-  <si>
     <t>未入场，等待入场</t>
+  </si>
+  <si>
+    <t>已止损</t>
+  </si>
+  <si>
+    <t>未入场，已跌破止损位，放弃入场</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +553,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,9 +982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -982,9 +1000,9 @@
     <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
@@ -1091,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="2">
-        <f>COUNTIFS(E:E,E2)</f>
+        <f t="shared" ref="F2:F31" si="0">COUNTIFS(E:E,E2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -1101,18 +1119,18 @@
         <v>748</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I16" si="0">H2/G2-1</f>
+        <f t="shared" ref="I2:I16" si="1">H2/G2-1</f>
         <v>-9.2715231788079722E-3</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K14" si="1">-I2*J2</f>
+        <f t="shared" ref="K2:K14" si="2">-I2*J2</f>
         <v>9.2715231788079722E-3</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L14" si="2">G2*(1+K2)</f>
+        <f t="shared" ref="L2:L14" si="3">G2*(1+K2)</f>
         <v>761.99999999999989</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1172,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="2">
-        <f>COUNTIFS(E:E,E3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -1182,34 +1200,34 @@
         <v>369</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3908355795148077E-3</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3908355795148077E-3</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>372.99999999999994</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="11">
-        <v>0</v>
+      <c r="N3" s="13">
+        <v>44466.395995370367</v>
+      </c>
+      <c r="O3" s="14">
+        <v>44466.500717592593</v>
+      </c>
+      <c r="P3" s="15">
+        <v>44466.395994317128</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>44466.500717939816</v>
       </c>
       <c r="R3" s="10">
         <v>370.43</v>
@@ -1221,19 +1239,19 @@
         <v>5</v>
       </c>
       <c r="U3" s="11">
-        <v>0</v>
+        <v>368.93</v>
       </c>
       <c r="V3" s="11">
-        <v>0</v>
+        <v>1844.65</v>
       </c>
       <c r="W3" s="12">
-        <v>0</v>
-      </c>
-      <c r="X3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="12">
-        <v>0</v>
+        <v>-7.5</v>
+      </c>
+      <c r="X3" s="17">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0.10472222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1253,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f>COUNTIFS(E:E,E4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="2">
@@ -1263,22 +1281,22 @@
         <v>396</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.8076923076923128E-2</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8076923076923128E-2</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>436</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -1334,7 +1352,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="2">
-        <f>COUNTIFS(E:E,E5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="2">
@@ -1344,22 +1362,22 @@
         <v>130</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.4733096085409234E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4733096085409234E-2</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150.99999999999997</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
+      <c r="M5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
@@ -1415,7 +1433,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="2">
-        <f>COUNTIFS(E:E,E6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="2">
@@ -1425,22 +1443,22 @@
         <v>133.5</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.2336140607836064E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2336140607836064E-2</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139.60000000000005</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
+      <c r="M6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="N6" s="10">
         <v>0</v>
@@ -1496,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <f>COUNTIFS(E:E,E7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="2">
@@ -1506,22 +1524,22 @@
         <v>275</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0791366906474864E-2</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0791366906474864E-2</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>281</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
+      <c r="M7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -1577,7 +1595,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2">
-        <f>COUNTIFS(E:E,E8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="2">
@@ -1587,22 +1605,22 @@
         <v>104</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.6335877862595547E-3</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6335877862595547E-3</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105.59999999999998</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
+      <c r="M8" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
@@ -1658,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="2">
-        <f>COUNTIFS(E:E,E9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="2">
@@ -1668,22 +1686,22 @@
         <v>118.5</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.8688524590163911E-2</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8688524590163911E-2</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125.50000000000001</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
+      <c r="M9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N9" s="10">
         <v>0</v>
@@ -1739,7 +1757,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="2">
-        <f>COUNTIFS(E:E,E10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="2">
@@ -1749,43 +1767,43 @@
         <v>79.5</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2422360248447228E-2</v>
       </c>
       <c r="J10" s="2">
         <v>4</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9689440993788914E-2</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.500000000000014</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
+      <c r="M10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="13">
+        <v>44466.500567129631</v>
       </c>
       <c r="O10" s="11">
         <v>0</v>
       </c>
-      <c r="P10" s="10">
-        <v>0</v>
+      <c r="P10" s="15">
+        <v>44466.500572662037</v>
       </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="10">
-        <v>0</v>
+        <v>79.754999999999995</v>
       </c>
       <c r="S10" s="10">
-        <v>0</v>
+        <v>1993.875</v>
       </c>
       <c r="T10" s="10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U10" s="11">
         <v>0</v>
@@ -1820,7 +1838,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="2">
-        <f>COUNTIFS(E:E,E11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="2">
@@ -1830,22 +1848,22 @@
         <v>37.799999999999997</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.2631578947369695E-3</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2631578947369695E-3</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.20000000000001</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
+      <c r="M11" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N11" s="10">
         <v>0</v>
@@ -1901,7 +1919,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="2">
-        <f>COUNTIFS(E:E,E12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -1911,22 +1929,22 @@
         <v>604</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.9798766634209763E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9798766634209763E-2</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>628.40000000000009</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
+      <c r="M12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -1982,7 +2000,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2">
-        <f>COUNTIFS(E:E,E13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="2">
@@ -1992,22 +2010,22 @@
         <v>41.4</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.1942446043166131E-3</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1942446043166131E-3</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
+      <c r="M13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N13" s="10">
         <v>0</v>
@@ -2063,7 +2081,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="2">
-        <f>COUNTIFS(E:E,E14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="2">
@@ -2073,55 +2091,58 @@
         <v>459</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.3383947939262812E-3</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3383947939262812E-3</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>462.99999999999994</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
+      <c r="M14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="13">
+        <v>44466.500601851854</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
       </c>
-      <c r="P14" s="10">
-        <v>0</v>
+      <c r="P14" s="15">
+        <v>44466.500610682873</v>
       </c>
       <c r="Q14" s="11">
         <v>0</v>
       </c>
       <c r="R14" s="10">
-        <v>0</v>
+        <v>459.21</v>
       </c>
       <c r="S14" s="10">
-        <v>0</v>
+        <v>1836.84</v>
       </c>
       <c r="T14" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U14" s="11">
-        <v>0</v>
+        <v>458.90089999999998</v>
       </c>
       <c r="V14" s="11">
-        <v>0</v>
+        <f>U14*T14</f>
+        <v>1835.6035999999999</v>
       </c>
       <c r="W14" s="12">
-        <v>0</v>
-      </c>
-      <c r="X14" s="12">
-        <v>0</v>
+        <f>V14-S14</f>
+        <v>-1.2364000000000033</v>
+      </c>
+      <c r="X14" s="17">
+        <f>W14/S14</f>
+        <v>-6.7311251932667153E-4</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
@@ -2144,7 +2165,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="2">
-        <f>COUNTIFS(E:E,E15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="2">
@@ -2154,22 +2175,22 @@
         <v>220</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.7720090293453827E-3</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" ref="K15" si="3">-I15*J15</f>
+        <f t="shared" ref="K15" si="4">-I15*J15</f>
         <v>6.7720090293453827E-3</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15" si="4">G15*(1+K15)</f>
+        <f t="shared" ref="L15" si="5">G15*(1+K15)</f>
         <v>223.00000000000003</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
+      <c r="M15" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
@@ -2225,7 +2246,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="2">
-        <f>COUNTIFS(E:E,E16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="2">
@@ -2235,7 +2256,7 @@
         <v>438</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.2237111060641217E-3</v>
       </c>
       <c r="J16" s="2">
@@ -2249,8 +2270,8 @@
         <f>G16*(1+K16)</f>
         <v>442.60000000000008</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
+      <c r="M16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -2306,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2">
-        <f>COUNTIFS(E:E,E17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="2">
@@ -2316,22 +2337,22 @@
         <v>139.9</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ref="I17:I31" si="5">H17/G17-1</f>
+        <f t="shared" ref="I17:I31" si="6">H17/G17-1</f>
         <v>-1.2702893436838281E-2</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ref="K17:K31" si="6">-I17*J17</f>
+        <f t="shared" ref="K17:K31" si="7">-I17*J17</f>
         <v>1.2702893436838281E-2</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:L31" si="7">G17*(1+K17)</f>
+        <f t="shared" ref="L17:L31" si="8">G17*(1+K17)</f>
         <v>143.49999999999997</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
+      <c r="M17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N17" s="10">
         <v>0</v>
@@ -2387,7 +2408,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <f>COUNTIFS(E:E,E18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2397,22 +2418,22 @@
         <v>340.69</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.830409356725184E-3</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.830409356725184E-3</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>343.31</v>
       </c>
-      <c r="M18" s="2">
-        <v>0</v>
+      <c r="M18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N18" s="10">
         <v>0</v>
@@ -2468,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="2">
-        <f>COUNTIFS(E:E,E19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="2">
@@ -2478,22 +2499,22 @@
         <v>219.5</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.8876811594202882E-3</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.8876811594202882E-3</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>222.10000000000002</v>
       </c>
-      <c r="M19" s="2">
-        <v>0</v>
+      <c r="M19" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -2549,7 +2570,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="2">
-        <f>COUNTIFS(E:E,E20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20" s="2">
@@ -2559,22 +2580,22 @@
         <v>297.2</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.3551088777219471E-3</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3551088777219471E-3</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>299.79999999999995</v>
       </c>
-      <c r="M20" s="2">
-        <v>0</v>
+      <c r="M20" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N20" s="10">
         <v>0</v>
@@ -2630,7 +2651,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="2">
-        <f>COUNTIFS(E:E,E21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" s="2">
@@ -2640,22 +2661,22 @@
         <v>80.2</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.7267080745341241E-3</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7267080745341241E-3</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>80.799999999999983</v>
       </c>
-      <c r="M21" s="2">
-        <v>0</v>
+      <c r="M21" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N21" s="10">
         <v>0</v>
@@ -2711,7 +2732,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="2">
-        <f>COUNTIFS(E:E,E22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G22" s="2">
@@ -2721,22 +2742,22 @@
         <v>260.7</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.4786585365853577E-3</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4786585365853577E-3</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>264.09999999999997</v>
       </c>
-      <c r="M22" s="2">
-        <v>0</v>
+      <c r="M22" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -2792,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="2">
-        <f>COUNTIFS(E:E,E23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="2">
@@ -2802,22 +2823,22 @@
         <v>214</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.2592592592593004E-3</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.2592592592593004E-3</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
-      <c r="M23" s="2">
-        <v>0</v>
+      <c r="M23" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N23" s="10">
         <v>0</v>
@@ -2873,7 +2894,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="2">
-        <f>COUNTIFS(E:E,E24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G24" s="2">
@@ -2883,22 +2904,22 @@
         <v>323.39999999999998</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.2217470983506451E-2</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2217470983506451E-2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>331.40000000000003</v>
       </c>
-      <c r="M24" s="2">
-        <v>0</v>
+      <c r="M24" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N24" s="10">
         <v>0</v>
@@ -2954,7 +2975,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="2">
-        <f>COUNTIFS(E:E,E25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G25" s="2">
@@ -2964,22 +2985,22 @@
         <v>343</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.7971014492753659E-3</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7971014492753659E-3</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>347.00000000000006</v>
       </c>
-      <c r="M25" s="2">
-        <v>0</v>
+      <c r="M25" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N25" s="10">
         <v>0</v>
@@ -3035,7 +3056,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="2">
-        <f>COUNTIFS(E:E,E26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G26" s="2">
@@ -3045,22 +3066,22 @@
         <v>242</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.0242914979757054E-2</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0242914979757054E-2</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>251.99999999999997</v>
       </c>
-      <c r="M26" s="2">
-        <v>0</v>
+      <c r="M26" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N26" s="10">
         <v>0</v>
@@ -3116,7 +3137,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="2">
-        <f>COUNTIFS(E:E,E27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" s="2">
@@ -3126,22 +3147,22 @@
         <v>27.8</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.4184397163120477E-2</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4184397163120477E-2</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.599999999999994</v>
       </c>
-      <c r="M27" s="2">
-        <v>0</v>
+      <c r="M27" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N27" s="10">
         <v>0</v>
@@ -3197,7 +3218,7 @@
         <v>33</v>
       </c>
       <c r="F28" s="2">
-        <f>COUNTIFS(E:E,E28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G28" s="2">
@@ -3207,22 +3228,22 @@
         <v>36.799999999999997</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.9023746701847042E-2</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9023746701847042E-2</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="M28" s="2">
-        <v>0</v>
+      <c r="M28" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N28" s="10">
         <v>0</v>
@@ -3278,7 +3299,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="2">
-        <f>COUNTIFS(E:E,E29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G29" s="2">
@@ -3288,22 +3309,22 @@
         <v>338</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.8314176245211051E-3</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8314176245211051E-3</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>340.6</v>
       </c>
-      <c r="M29" s="2">
-        <v>0</v>
+      <c r="M29" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N29" s="10">
         <v>0</v>
@@ -3359,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="F30" s="2">
-        <f>COUNTIFS(E:E,E30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G30" s="2">
@@ -3369,43 +3390,43 @@
         <v>154</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.4516129032258229E-3</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4516129032258229E-3</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>155.99999999999997</v>
       </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10">
-        <v>0</v>
+      <c r="M30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="13">
+        <v>44466.500671296293</v>
       </c>
       <c r="O30" s="11">
         <v>0</v>
       </c>
-      <c r="P30" s="10">
-        <v>0</v>
+      <c r="P30" s="15">
+        <v>44466.500674490744</v>
       </c>
       <c r="Q30" s="11">
         <v>0</v>
       </c>
       <c r="R30" s="10">
-        <v>0</v>
+        <v>154.64500000000001</v>
       </c>
       <c r="S30" s="10">
-        <v>0</v>
+        <v>1855.74</v>
       </c>
       <c r="T30" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U30" s="11">
         <v>0</v>
@@ -3440,7 +3461,7 @@
         <v>37</v>
       </c>
       <c r="F31" s="2">
-        <f>COUNTIFS(E:E,E31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G31" s="2">
@@ -3450,22 +3471,22 @@
         <v>69.400000000000006</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.7306590257878431E-3</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7306590257878431E-3</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70.2</v>
       </c>
-      <c r="M31" s="2">
-        <v>0</v>
+      <c r="M31" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="N31" s="10">
         <v>0</v>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A242EB-39F5-4075-A398-281D3BA5ECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B4C9F-7D9B-43A0-8313-142DEDD0A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,9 +982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1007,7 +1007,7 @@
     <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.75" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.75" style="12" bestFit="1" customWidth="1"/>
@@ -1119,18 +1119,18 @@
         <v>748</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I16" si="1">H2/G2-1</f>
+        <f t="shared" ref="I2:I31" si="1">H2/G2-1</f>
         <v>-9.2715231788079722E-3</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K14" si="2">-I2*J2</f>
+        <f t="shared" ref="K2:K15" si="2">-I2*J2</f>
         <v>9.2715231788079722E-3</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L14" si="3">G2*(1+K2)</f>
+        <f t="shared" ref="L2:L15" si="3">G2*(1+K2)</f>
         <v>761.99999999999989</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1152,6 +1152,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="10">
+        <f>R2*T2</f>
         <v>0</v>
       </c>
       <c r="T2" s="10">
@@ -1161,12 +1162,15 @@
         <v>0</v>
       </c>
       <c r="V2" s="11">
+        <f t="shared" ref="V2:V31" si="4">U2*T2</f>
         <v>0</v>
       </c>
       <c r="W2" s="12">
-        <v>0</v>
-      </c>
-      <c r="X2" s="12">
+        <f>IF(U2=0,0,V2-S2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="17">
+        <f>IF(V2=0,0,W2/S2)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="12">
@@ -1233,6 +1237,7 @@
         <v>370.43</v>
       </c>
       <c r="S3" s="10">
+        <f t="shared" ref="S3:S31" si="5">R3*T3</f>
         <v>1852.15</v>
       </c>
       <c r="T3" s="10">
@@ -1242,13 +1247,16 @@
         <v>368.93</v>
       </c>
       <c r="V3" s="11">
+        <f t="shared" si="4"/>
         <v>1844.65</v>
       </c>
       <c r="W3" s="12">
+        <f t="shared" ref="W3:W31" si="6">IF(U3=0,0,V3-S3)</f>
         <v>-7.5</v>
       </c>
       <c r="X3" s="17">
-        <v>-4.0000000000000001E-3</v>
+        <f t="shared" ref="X3:X31" si="7">IF(V3=0,0,W3/S3)</f>
+        <v>-4.0493480549631507E-3</v>
       </c>
       <c r="Y3" s="18">
         <v>0.10472222222222222</v>
@@ -1314,6 +1322,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T4" s="10">
@@ -1323,12 +1332,15 @@
         <v>0</v>
       </c>
       <c r="V4" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y4" s="12">
@@ -1395,6 +1407,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T5" s="10">
@@ -1404,12 +1417,15 @@
         <v>0</v>
       </c>
       <c r="V5" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W5" s="12">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y5" s="12">
@@ -1476,6 +1492,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T6" s="10">
@@ -1485,12 +1502,15 @@
         <v>0</v>
       </c>
       <c r="V6" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W6" s="12">
-        <v>0</v>
-      </c>
-      <c r="X6" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y6" s="12">
@@ -1557,6 +1577,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T7" s="10">
@@ -1566,12 +1587,15 @@
         <v>0</v>
       </c>
       <c r="V7" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" s="12">
-        <v>0</v>
-      </c>
-      <c r="X7" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y7" s="12">
@@ -1638,6 +1662,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T8" s="10">
@@ -1647,12 +1672,15 @@
         <v>0</v>
       </c>
       <c r="V8" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8" s="12">
-        <v>0</v>
-      </c>
-      <c r="X8" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y8" s="12">
@@ -1719,6 +1747,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T9" s="10">
@@ -1728,12 +1757,15 @@
         <v>0</v>
       </c>
       <c r="V9" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W9" s="12">
-        <v>0</v>
-      </c>
-      <c r="X9" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y9" s="12">
@@ -1800,6 +1832,7 @@
         <v>79.754999999999995</v>
       </c>
       <c r="S10" s="10">
+        <f t="shared" si="5"/>
         <v>1993.875</v>
       </c>
       <c r="T10" s="10">
@@ -1809,12 +1842,15 @@
         <v>0</v>
       </c>
       <c r="V10" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10" s="12">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y10" s="12">
@@ -1881,6 +1917,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -1890,12 +1927,15 @@
         <v>0</v>
       </c>
       <c r="V11" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="12">
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y11" s="12">
@@ -1962,6 +2002,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T12" s="10">
@@ -1971,12 +2012,15 @@
         <v>0</v>
       </c>
       <c r="V12" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" s="12">
-        <v>0</v>
-      </c>
-      <c r="X12" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y12" s="12">
@@ -2043,6 +2087,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="10">
@@ -2052,12 +2097,15 @@
         <v>0</v>
       </c>
       <c r="V13" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" s="12">
-        <v>0</v>
-      </c>
-      <c r="X13" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y13" s="12">
@@ -2124,6 +2172,7 @@
         <v>459.21</v>
       </c>
       <c r="S14" s="10">
+        <f t="shared" si="5"/>
         <v>1836.84</v>
       </c>
       <c r="T14" s="10">
@@ -2133,15 +2182,15 @@
         <v>458.90089999999998</v>
       </c>
       <c r="V14" s="11">
-        <f>U14*T14</f>
+        <f t="shared" si="4"/>
         <v>1835.6035999999999</v>
       </c>
       <c r="W14" s="12">
-        <f>V14-S14</f>
+        <f t="shared" si="6"/>
         <v>-1.2364000000000033</v>
       </c>
       <c r="X14" s="17">
-        <f>W14/S14</f>
+        <f t="shared" si="7"/>
         <v>-6.7311251932667153E-4</v>
       </c>
       <c r="Y14" s="12">
@@ -2182,11 +2231,11 @@
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" ref="K15" si="4">-I15*J15</f>
+        <f t="shared" si="2"/>
         <v>6.7720090293453827E-3</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15" si="5">G15*(1+K15)</f>
+        <f t="shared" si="3"/>
         <v>223.00000000000003</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -2208,6 +2257,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T15" s="10">
@@ -2217,12 +2267,15 @@
         <v>0</v>
       </c>
       <c r="V15" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="12">
-        <v>0</v>
-      </c>
-      <c r="X15" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y15" s="12">
@@ -2289,6 +2342,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T16" s="10">
@@ -2298,12 +2352,15 @@
         <v>0</v>
       </c>
       <c r="V16" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" s="12">
-        <v>0</v>
-      </c>
-      <c r="X16" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y16" s="12">
@@ -2337,18 +2394,18 @@
         <v>139.9</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ref="I17:I31" si="6">H17/G17-1</f>
+        <f t="shared" si="1"/>
         <v>-1.2702893436838281E-2</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ref="K17:K31" si="7">-I17*J17</f>
+        <f t="shared" ref="K17:K31" si="8">-I17*J17</f>
         <v>1.2702893436838281E-2</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:L31" si="8">G17*(1+K17)</f>
+        <f t="shared" ref="L17:L31" si="9">G17*(1+K17)</f>
         <v>143.49999999999997</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -2370,6 +2427,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T17" s="10">
@@ -2379,12 +2437,15 @@
         <v>0</v>
       </c>
       <c r="V17" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" s="12">
-        <v>0</v>
-      </c>
-      <c r="X17" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17" s="12">
@@ -2418,18 +2479,18 @@
         <v>340.69</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-3.830409356725184E-3</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.830409356725184E-3</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>343.31</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -2451,6 +2512,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T18" s="10">
@@ -2460,12 +2522,15 @@
         <v>0</v>
       </c>
       <c r="V18" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W18" s="12">
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y18" s="12">
@@ -2499,18 +2564,18 @@
         <v>219.5</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-5.8876811594202882E-3</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.8876811594202882E-3</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>222.10000000000002</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -2532,6 +2597,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" s="10">
@@ -2541,12 +2607,15 @@
         <v>0</v>
       </c>
       <c r="V19" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W19" s="12">
-        <v>0</v>
-      </c>
-      <c r="X19" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y19" s="12">
@@ -2580,18 +2649,18 @@
         <v>297.2</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-4.3551088777219471E-3</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3551088777219471E-3</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>299.79999999999995</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -2613,6 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T20" s="10">
@@ -2622,12 +2692,15 @@
         <v>0</v>
       </c>
       <c r="V20" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W20" s="12">
-        <v>0</v>
-      </c>
-      <c r="X20" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y20" s="12">
@@ -2661,18 +2734,18 @@
         <v>80.2</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-3.7267080745341241E-3</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7267080745341241E-3</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80.799999999999983</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -2694,6 +2767,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T21" s="10">
@@ -2703,12 +2777,15 @@
         <v>0</v>
       </c>
       <c r="V21" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W21" s="12">
-        <v>0</v>
-      </c>
-      <c r="X21" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y21" s="12">
@@ -2742,18 +2819,18 @@
         <v>260.7</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-6.4786585365853577E-3</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4786585365853577E-3</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>264.09999999999997</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -2775,6 +2852,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T22" s="10">
@@ -2784,12 +2862,15 @@
         <v>0</v>
       </c>
       <c r="V22" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" s="12">
-        <v>0</v>
-      </c>
-      <c r="X22" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y22" s="12">
@@ -2823,18 +2904,18 @@
         <v>214</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-9.2592592592593004E-3</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.2592592592593004E-3</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>218</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -2856,6 +2937,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T23" s="10">
@@ -2865,12 +2947,15 @@
         <v>0</v>
       </c>
       <c r="V23" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" s="12">
-        <v>0</v>
-      </c>
-      <c r="X23" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y23" s="12">
@@ -2904,18 +2989,18 @@
         <v>323.39999999999998</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-1.2217470983506451E-2</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2217470983506451E-2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>331.40000000000003</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2937,6 +3022,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T24" s="10">
@@ -2946,12 +3032,15 @@
         <v>0</v>
       </c>
       <c r="V24" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" s="12">
-        <v>0</v>
-      </c>
-      <c r="X24" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y24" s="12">
@@ -2985,18 +3074,18 @@
         <v>343</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-5.7971014492753659E-3</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7971014492753659E-3</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>347.00000000000006</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -3018,6 +3107,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T25" s="10">
@@ -3027,12 +3117,15 @@
         <v>0</v>
       </c>
       <c r="V25" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W25" s="12">
-        <v>0</v>
-      </c>
-      <c r="X25" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y25" s="12">
@@ -3066,18 +3159,18 @@
         <v>242</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-2.0242914979757054E-2</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0242914979757054E-2</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>251.99999999999997</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -3099,6 +3192,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T26" s="10">
@@ -3108,12 +3202,15 @@
         <v>0</v>
       </c>
       <c r="V26" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W26" s="12">
-        <v>0</v>
-      </c>
-      <c r="X26" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y26" s="12">
@@ -3147,18 +3244,18 @@
         <v>27.8</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-1.4184397163120477E-2</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4184397163120477E-2</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.599999999999994</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -3180,6 +3277,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T27" s="10">
@@ -3189,12 +3287,15 @@
         <v>0</v>
       </c>
       <c r="V27" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" s="12">
-        <v>0</v>
-      </c>
-      <c r="X27" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y27" s="12">
@@ -3228,18 +3329,18 @@
         <v>36.799999999999997</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-2.9023746701847042E-2</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9023746701847042E-2</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="M28" s="2" t="s">
@@ -3261,6 +3362,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T28" s="10">
@@ -3270,12 +3372,15 @@
         <v>0</v>
       </c>
       <c r="V28" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W28" s="12">
-        <v>0</v>
-      </c>
-      <c r="X28" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y28" s="12">
@@ -3309,18 +3414,18 @@
         <v>338</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-3.8314176245211051E-3</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8314176245211051E-3</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>340.6</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -3342,6 +3447,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T29" s="10">
@@ -3351,12 +3457,15 @@
         <v>0</v>
       </c>
       <c r="V29" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W29" s="12">
-        <v>0</v>
-      </c>
-      <c r="X29" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y29" s="12">
@@ -3390,18 +3499,18 @@
         <v>154</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-6.4516129032258229E-3</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4516129032258229E-3</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>155.99999999999997</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -3423,7 +3532,8 @@
         <v>154.64500000000001</v>
       </c>
       <c r="S30" s="10">
-        <v>1855.74</v>
+        <f t="shared" si="5"/>
+        <v>1855.7400000000002</v>
       </c>
       <c r="T30" s="10">
         <v>12</v>
@@ -3432,12 +3542,15 @@
         <v>0</v>
       </c>
       <c r="V30" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W30" s="12">
-        <v>0</v>
-      </c>
-      <c r="X30" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y30" s="12">
@@ -3471,18 +3584,18 @@
         <v>69.400000000000006</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-5.7306590257878431E-3</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7306590257878431E-3</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70.2</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -3504,6 +3617,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T31" s="10">
@@ -3513,12 +3627,15 @@
         <v>0</v>
       </c>
       <c r="V31" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="12">
-        <v>0</v>
-      </c>
-      <c r="X31" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y31" s="12">

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B4C9F-7D9B-43A0-8313-142DEDD0A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D45795-80DB-4DB4-9790-76E92353B62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,13 +395,14 @@
     <t>已入场</t>
   </si>
   <si>
-    <t>未入场，等待入场</t>
-  </si>
-  <si>
     <t>已止损</t>
   </si>
   <si>
     <t>未入场，已跌破止损位，放弃入场</t>
+  </si>
+  <si>
+    <t>等待入场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,6 +572,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +988,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1219,7 +1223,7 @@
         <v>372.99999999999994</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="13">
         <v>44466.395995370367</v>
@@ -1303,8 +1307,8 @@
         <f t="shared" si="3"/>
         <v>436</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>61</v>
+      <c r="M4" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -1388,8 +1392,8 @@
         <f t="shared" si="3"/>
         <v>150.99999999999997</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>61</v>
+      <c r="M5" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
@@ -1473,8 +1477,8 @@
         <f t="shared" si="3"/>
         <v>139.60000000000005</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>61</v>
+      <c r="M6" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="N6" s="10">
         <v>0</v>
@@ -1558,8 +1562,8 @@
         <f t="shared" si="3"/>
         <v>281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>61</v>
+      <c r="M7" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -1984,7 +1988,7 @@
         <v>628.40000000000009</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -2154,7 +2158,7 @@
         <v>462.99999999999994</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="13">
         <v>44466.500601851854</v>
@@ -2323,8 +2327,8 @@
         <f>G16*(1+K16)</f>
         <v>442.60000000000008</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>61</v>
+      <c r="M16" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -2579,7 +2583,7 @@
         <v>222.10000000000002</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -2664,7 +2668,7 @@
         <v>299.79999999999995</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N20" s="10">
         <v>0</v>
@@ -2749,7 +2753,7 @@
         <v>80.799999999999983</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N21" s="10">
         <v>0</v>
@@ -2834,7 +2838,7 @@
         <v>264.09999999999997</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -3174,7 +3178,7 @@
         <v>251.99999999999997</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N26" s="10">
         <v>0</v>
@@ -3259,7 +3263,7 @@
         <v>28.599999999999994</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N27" s="10">
         <v>0</v>
@@ -3429,7 +3433,7 @@
         <v>340.6</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N29" s="10">
         <v>0</v>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D45795-80DB-4DB4-9790-76E92353B62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A751A50-BF94-4876-82D2-B216129D1699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,12 @@
   <si>
     <t>等待入场</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-27 13:22:06</t>
+  </si>
+  <si>
+    <t>2021-09-27 13:22:06.556884</t>
   </si>
 </sst>
 </file>
@@ -988,7 +994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1308,43 +1314,39 @@
         <v>436</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="O4" s="11">
         <v>0</v>
       </c>
-      <c r="P4" s="10">
-        <v>0</v>
+      <c r="P4" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="Q4" s="11">
         <v>0</v>
       </c>
       <c r="R4" s="10">
-        <v>0</v>
+        <v>410.24</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1640.96</v>
       </c>
       <c r="T4" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U4" s="11">
         <v>0</v>
       </c>
       <c r="V4" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W4" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X4" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y4" s="12">

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A751A50-BF94-4876-82D2-B216129D1699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D870CA-F242-465E-9138-4719F1085988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,7 +994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1839,10 +1839,10 @@
       </c>
       <c r="S10" s="10">
         <f t="shared" si="5"/>
-        <v>1993.875</v>
+        <v>3987.75</v>
       </c>
       <c r="T10" s="10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U10" s="11">
         <v>0</v>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D870CA-F242-465E-9138-4719F1085988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABD9CC6-F86B-44F0-BBA6-8D2465EECE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,7 +994,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3539,10 +3539,10 @@
       </c>
       <c r="S30" s="10">
         <f t="shared" si="5"/>
-        <v>1855.7400000000002</v>
+        <v>3711.4800000000005</v>
       </c>
       <c r="T30" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="U30" s="11">
         <v>0</v>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABD9CC6-F86B-44F0-BBA6-8D2465EECE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC77976-61AB-464D-A1D8-2B89383E99FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,384 +31,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+  <si>
+    <t>未入场，已涨破止盈位，放弃入场</t>
+  </si>
+  <si>
+    <t>已入场</t>
+  </si>
+  <si>
+    <t>已止损</t>
+  </si>
+  <si>
+    <t>未入场，已跌破止损位，放弃入场</t>
+  </si>
+  <si>
+    <t>2021-09-27 13:22:06</t>
+  </si>
+  <si>
+    <t>2021-09-27 13:22:06.556884</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>IWM</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>AFRM</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>XOP</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出处</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日盘前快播</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出处</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数</t>
   </si>
   <si>
     <t>入场位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>止损位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>止损比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置盈亏比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>止盈比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>止盈位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人标记状态</t>
   </si>
   <si>
     <t>入场时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAPL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场时间</t>
+  </si>
+  <si>
+    <t>入场单号</t>
+  </si>
+  <si>
+    <t>出场单号</t>
+  </si>
+  <si>
+    <t>成本价</t>
+  </si>
+  <si>
+    <t>成本金额</t>
+  </si>
+  <si>
+    <t>股数</t>
+  </si>
+  <si>
+    <t>出场价</t>
+  </si>
+  <si>
+    <t>出场金额</t>
+  </si>
+  <si>
+    <t>收益金额</t>
+  </si>
+  <si>
+    <t>收益率</t>
+  </si>
+  <si>
+    <t>持股时长</t>
+  </si>
+  <si>
+    <t>9月28日盘前快播</t>
+  </si>
+  <si>
+    <t>9月27日复盘视频</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>9月27日盘前快播</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>等待入场</t>
+  </si>
+  <si>
+    <t>TQQQ</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>9月24日盘前快播</t>
   </si>
   <si>
     <t>FB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XLF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AFRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EFA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UPST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NVAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NKE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AMC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24日盘前快播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>入场单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人标记状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出场单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出场时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出场价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出场金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日下周推演</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日盘前快播</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TQQQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADBE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未入场，已涨破止盈位，放弃入场</t>
-  </si>
-  <si>
-    <t>已入场</t>
-  </si>
-  <si>
-    <t>已止损</t>
-  </si>
-  <si>
-    <t>未入场，已跌破止损位，放弃入场</t>
-  </si>
-  <si>
-    <t>等待入场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-27 13:22:06</t>
-  </si>
-  <si>
-    <t>2021-09-27 13:22:06.556884</t>
   </si>
 </sst>
 </file>
@@ -418,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,12 +290,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="1"/>
@@ -580,7 +409,7 @@
     <xf numFmtId="21" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,7 +506,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -990,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1010,10 +839,10 @@
     <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.75" style="10" bestFit="1" customWidth="1"/>
@@ -1021,85 +850,85 @@
     <col min="22" max="22" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.75" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" style="12" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1107,44 +936,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D2" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F31" si="0">COUNTIFS(E:E,E2)</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>755</v>
+        <v>441.8</v>
       </c>
       <c r="H2" s="2">
-        <v>748</v>
+        <v>439.5</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I31" si="1">H2/G2-1</f>
-        <v>-9.2715231788079722E-3</v>
+        <v>-5.2059755545496023E-3</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K15" si="2">-I2*J2</f>
-        <v>9.2715231788079722E-3</v>
+        <v>5.2059755545496023E-3</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L15" si="3">G2*(1+K2)</f>
-        <v>761.99999999999989</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>59</v>
+        <v>444.10000000000008</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
       </c>
       <c r="N2" s="10">
         <v>0</v>
@@ -1162,7 +987,6 @@
         <v>0</v>
       </c>
       <c r="S2" s="10">
-        <f>R2*T2</f>
         <v>0</v>
       </c>
       <c r="T2" s="10">
@@ -1172,15 +996,12 @@
         <v>0</v>
       </c>
       <c r="V2" s="11">
-        <f t="shared" ref="V2:V31" si="4">U2*T2</f>
         <v>0</v>
       </c>
       <c r="W2" s="12">
-        <f>IF(U2=0,0,V2-S2)</f>
         <v>0</v>
       </c>
       <c r="X2" s="17">
-        <f>IF(V2=0,0,W2/S2)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="12">
@@ -1192,84 +1013,76 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D3" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>371</v>
+        <v>779</v>
       </c>
       <c r="H3" s="2">
-        <v>369</v>
+        <v>770</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.3908355795148077E-3</v>
+        <v>-1.1553273427471145E-2</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="2"/>
-        <v>5.3908355795148077E-3</v>
+        <v>1.1553273427471145E-2</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="3"/>
-        <v>372.99999999999994</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>787.99999999999989</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
       </c>
       <c r="N3" s="13">
-        <v>44466.395995370367</v>
+        <v>0</v>
       </c>
       <c r="O3" s="14">
-        <v>44466.500717592593</v>
+        <v>0</v>
       </c>
       <c r="P3" s="15">
-        <v>44466.395994317128</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <v>44466.500717939816</v>
+        <v>0</v>
       </c>
       <c r="R3" s="10">
-        <v>370.43</v>
+        <v>0</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S31" si="5">R3*T3</f>
-        <v>1852.15</v>
+        <v>0</v>
       </c>
       <c r="T3" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="11">
-        <v>368.93</v>
+        <v>0</v>
       </c>
       <c r="V3" s="11">
-        <f t="shared" si="4"/>
-        <v>1844.65</v>
+        <v>0</v>
       </c>
       <c r="W3" s="12">
-        <f t="shared" ref="W3:W31" si="6">IF(U3=0,0,V3-S3)</f>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="17">
-        <f t="shared" ref="X3:X31" si="7">IF(V3=0,0,W3/S3)</f>
-        <v>-4.0493480549631507E-3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="18">
-        <v>0.10472222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1277,65 +1090,61 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D4" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>416</v>
+        <v>142</v>
       </c>
       <c r="H4" s="2">
-        <v>396</v>
+        <v>141.27000000000001</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>-4.8076923076923128E-2</v>
+        <v>-5.1408450704224506E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="2"/>
-        <v>4.8076923076923128E-2</v>
+        <v>2.5704225352112253E-2</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="3"/>
-        <v>436</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>64</v>
+        <v>145.64999999999995</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
       </c>
       <c r="O4" s="11">
         <v>0</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>65</v>
+      <c r="P4" s="10">
+        <v>0</v>
       </c>
       <c r="Q4" s="11">
         <v>0</v>
       </c>
       <c r="R4" s="10">
-        <v>410.24</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10">
-        <v>1640.96</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11">
         <v>0</v>
@@ -1358,44 +1167,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D5" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>140.5</v>
+        <v>290</v>
       </c>
       <c r="H5" s="2">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="1"/>
-        <v>-7.4733096085409234E-2</v>
+        <v>-1.0344827586206917E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="2"/>
-        <v>7.4733096085409234E-2</v>
+        <v>1.0344827586206917E-2</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="3"/>
-        <v>150.99999999999997</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>63</v>
+        <v>293.00000000000006</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
@@ -1413,7 +1218,6 @@
         <v>0</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T5" s="10">
@@ -1423,15 +1227,12 @@
         <v>0</v>
       </c>
       <c r="V5" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X5" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y5" s="12">
@@ -1443,44 +1244,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D6" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>136.55000000000001</v>
+        <v>224</v>
       </c>
       <c r="H6" s="2">
-        <v>133.5</v>
+        <v>220</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.2336140607836064E-2</v>
+        <v>-1.7857142857142905E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2336140607836064E-2</v>
+        <v>1.7857142857142905E-2</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="3"/>
-        <v>139.60000000000005</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>63</v>
+        <v>228</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0</v>
       </c>
       <c r="N6" s="10">
         <v>0</v>
@@ -1498,7 +1295,6 @@
         <v>0</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T6" s="10">
@@ -1508,15 +1304,12 @@
         <v>0</v>
       </c>
       <c r="V6" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W6" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X6" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y6" s="12">
@@ -1528,44 +1321,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D7" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>278</v>
+        <v>105.8</v>
       </c>
       <c r="H7" s="2">
-        <v>275</v>
+        <v>104.5</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.0791366906474864E-2</v>
+        <v>-1.2287334593572785E-2</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0791366906474864E-2</v>
+        <v>1.2287334593572785E-2</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="3"/>
-        <v>281</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>63</v>
+        <v>107.1</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -1583,7 +1372,6 @@
         <v>0</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T7" s="10">
@@ -1593,15 +1381,12 @@
         <v>0</v>
       </c>
       <c r="V7" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X7" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y7" s="12">
@@ -1613,44 +1398,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D8" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>104.8</v>
+        <v>207</v>
       </c>
       <c r="H8" s="2">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="1"/>
-        <v>-7.6335877862595547E-3</v>
+        <v>-3.3816425120772986E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="2"/>
-        <v>7.6335877862595547E-3</v>
+        <v>3.3816425120772986E-2</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="3"/>
-        <v>105.59999999999998</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>59</v>
+        <v>214.00000000000003</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
@@ -1668,7 +1449,6 @@
         <v>0</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T8" s="10">
@@ -1678,15 +1458,12 @@
         <v>0</v>
       </c>
       <c r="V8" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X8" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y8" s="12">
@@ -1698,44 +1475,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D9" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>122</v>
+        <v>38.4</v>
       </c>
       <c r="H9" s="2">
-        <v>118.5</v>
+        <v>38.1</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.8688524590163911E-2</v>
+        <v>-7.812499999999889E-3</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="2"/>
-        <v>2.8688524590163911E-2</v>
+        <v>7.812499999999889E-3</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="3"/>
-        <v>125.50000000000001</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>59</v>
+        <v>38.699999999999996</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
       </c>
       <c r="N9" s="10">
         <v>0</v>
@@ -1753,7 +1526,6 @@
         <v>0</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T9" s="10">
@@ -1763,15 +1535,12 @@
         <v>0</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X9" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y9" s="12">
@@ -1783,80 +1552,72 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D10" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>80.5</v>
+        <v>164.6</v>
       </c>
       <c r="H10" s="2">
-        <v>79.5</v>
+        <v>163</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.2422360248447228E-2</v>
+        <v>-9.7205346294045869E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="2"/>
-        <v>4.9689440993788914E-2</v>
+        <v>9.7205346294045869E-3</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="3"/>
-        <v>84.500000000000014</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>60</v>
+        <v>166.19999999999996</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
       </c>
       <c r="N10" s="13">
-        <v>44466.500567129631</v>
+        <v>0</v>
       </c>
       <c r="O10" s="11">
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>44466.500572662037</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="10">
-        <v>79.754999999999995</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10">
-        <f t="shared" si="5"/>
-        <v>3987.75</v>
+        <v>0</v>
       </c>
       <c r="T10" s="10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U10" s="11">
         <v>0</v>
       </c>
       <c r="V10" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X10" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y10" s="12">
@@ -1868,44 +1629,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D11" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>38</v>
+        <v>51.85</v>
       </c>
       <c r="H11" s="2">
-        <v>37.799999999999997</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.2631578947369695E-3</v>
+        <v>-1.6393442622950838E-2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="2"/>
-        <v>5.2631578947369695E-3</v>
+        <v>1.6393442622950838E-2</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="3"/>
-        <v>38.20000000000001</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>59</v>
+        <v>52.7</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
       </c>
       <c r="N11" s="10">
         <v>0</v>
@@ -1923,7 +1680,6 @@
         <v>0</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -1933,15 +1689,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X11" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y11" s="12">
@@ -1953,44 +1706,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D12" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>616.20000000000005</v>
+        <v>42.7</v>
       </c>
       <c r="H12" s="2">
-        <v>604</v>
+        <v>41.5</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.9798766634209763E-2</v>
+        <v>-2.8103044496487151E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9798766634209763E-2</v>
+        <v>2.8103044496487151E-2</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="3"/>
-        <v>628.40000000000009</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>62</v>
+        <v>43.900000000000006</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -2008,7 +1757,6 @@
         <v>0</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T12" s="10">
@@ -2018,15 +1766,12 @@
         <v>0</v>
       </c>
       <c r="V12" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X12" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y12" s="12">
@@ -2038,44 +1783,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D13" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>41.7</v>
+        <v>58.4</v>
       </c>
       <c r="H13" s="2">
-        <v>41.4</v>
+        <v>57.4</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>-7.1942446043166131E-3</v>
+        <v>-1.7123287671232834E-2</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="2"/>
-        <v>7.1942446043166131E-3</v>
+        <v>1.7123287671232834E-2</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>59</v>
+        <v>59.4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
       </c>
       <c r="N13" s="10">
         <v>0</v>
@@ -2093,7 +1834,6 @@
         <v>0</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="10">
@@ -2103,15 +1843,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X13" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y13" s="12">
@@ -2123,81 +1860,73 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D14" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>461</v>
+        <v>122</v>
       </c>
       <c r="H14" s="2">
-        <v>459</v>
+        <v>118.5</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="1"/>
-        <v>-4.3383947939262812E-3</v>
+        <v>-2.8688524590163911E-2</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="2"/>
-        <v>4.3383947939262812E-3</v>
+        <v>2.8688524590163911E-2</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="3"/>
-        <v>462.99999999999994</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>61</v>
+        <v>125.50000000000001</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
       </c>
       <c r="N14" s="13">
-        <v>44466.500601851854</v>
+        <v>0</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>44466.500610682873</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="11">
         <v>0</v>
       </c>
       <c r="R14" s="10">
-        <v>459.21</v>
+        <v>0</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="5"/>
-        <v>1836.84</v>
+        <v>0</v>
       </c>
       <c r="T14" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U14" s="11">
-        <v>458.90089999999998</v>
+        <v>0</v>
       </c>
       <c r="V14" s="11">
-        <f t="shared" si="4"/>
-        <v>1835.6035999999999</v>
+        <v>0</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="6"/>
-        <v>-1.2364000000000033</v>
+        <v>0</v>
       </c>
       <c r="X14" s="17">
-        <f t="shared" si="7"/>
-        <v>-6.7311251932667153E-4</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
@@ -2211,41 +1940,37 @@
         <v>51</v>
       </c>
       <c r="C15" s="4">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="D15" s="4">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="6">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>221.5</v>
+        <v>279</v>
       </c>
       <c r="H15" s="2">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="1"/>
-        <v>-6.7720090293453827E-3</v>
+        <v>-1.0752688172043001E-2</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="2"/>
-        <v>6.7720090293453827E-3</v>
+        <v>1.0752688172043001E-2</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="3"/>
-        <v>223.00000000000003</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>59</v>
+        <v>282</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
@@ -2263,7 +1988,6 @@
         <v>0</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T15" s="10">
@@ -2273,15 +1997,12 @@
         <v>0</v>
       </c>
       <c r="V15" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X15" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y15" s="12">
@@ -2293,44 +2014,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44467</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44469</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-1.9157088122605415E-2</v>
+      </c>
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D16" s="4">
-        <v>44467</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>440.3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>438</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.2237111060641217E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
       <c r="K16" s="5">
-        <f>-I16*J16</f>
-        <v>5.2237111060641217E-3</v>
+        <v>3.8314176245210829E-2</v>
       </c>
       <c r="L16" s="6">
-        <f>G16*(1+K16)</f>
-        <v>442.60000000000008</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>63</v>
+        <v>27.100000000000005</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -2348,7 +2065,6 @@
         <v>0</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T16" s="10">
@@ -2358,15 +2074,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X16" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y16" s="12">
@@ -2378,44 +2091,40 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D17" s="4">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>141.69999999999999</v>
+        <v>95.77</v>
       </c>
       <c r="H17" s="2">
-        <v>139.9</v>
+        <v>94</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.2702893436838281E-2</v>
+        <v>-1.8481779262817133E-2</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ref="K17:K31" si="8">-I17*J17</f>
-        <v>1.2702893436838281E-2</v>
+        <v>1.8481779262817133E-2</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:L31" si="9">G17*(1+K17)</f>
-        <v>143.49999999999997</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>59</v>
+        <v>97.539999999999992</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
       </c>
       <c r="N17" s="10">
         <v>0</v>
@@ -2433,7 +2142,6 @@
         <v>0</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T17" s="10">
@@ -2443,15 +2151,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X17" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17" s="12">
@@ -2463,44 +2168,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D18" s="4">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="6">
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>342</v>
+        <v>71.7</v>
       </c>
       <c r="H18" s="2">
-        <v>340.69</v>
+        <v>71</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.830409356725184E-3</v>
+        <v>-9.7629009762901786E-3</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="8"/>
-        <v>3.830409356725184E-3</v>
+        <v>9.7629009762901786E-3</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="9"/>
-        <v>343.31</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>59</v>
+        <v>72.40000000000002</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
       </c>
       <c r="N18" s="10">
         <v>0</v>
@@ -2518,7 +2219,6 @@
         <v>0</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T18" s="10">
@@ -2528,15 +2228,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X18" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y18" s="12">
@@ -2548,44 +2245,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D19" s="4">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
       </c>
       <c r="G19" s="2">
-        <v>220.8</v>
+        <v>27.1</v>
       </c>
       <c r="H19" s="2">
-        <v>219.5</v>
+        <v>26.5</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.8876811594202882E-3</v>
+        <v>-2.2140221402214055E-2</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="8"/>
-        <v>5.8876811594202882E-3</v>
+        <v>2.2140221402214055E-2</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="9"/>
-        <v>222.10000000000002</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>62</v>
+        <v>27.700000000000006</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -2603,7 +2296,6 @@
         <v>0</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" s="10">
@@ -2613,15 +2305,12 @@
         <v>0</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W19" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X19" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y19" s="12">
@@ -2633,84 +2322,76 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D20" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="6">
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>298.5</v>
+        <v>371</v>
       </c>
       <c r="H20" s="2">
-        <v>297.2</v>
+        <v>369</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="1"/>
-        <v>-4.3551088777219471E-3</v>
+        <v>-5.3908355795148077E-3</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="8"/>
-        <v>4.3551088777219471E-3</v>
+        <v>5.3908355795148077E-3</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="9"/>
-        <v>299.79999999999995</v>
+        <v>372.99999999999994</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="N20" s="10">
-        <v>0</v>
+        <v>44466.395995370367</v>
       </c>
       <c r="O20" s="11">
-        <v>0</v>
+        <v>44466.500717592593</v>
       </c>
       <c r="P20" s="10">
-        <v>0</v>
+        <v>44466.395994317128</v>
       </c>
       <c r="Q20" s="11">
-        <v>0</v>
+        <v>44466.500717939816</v>
       </c>
       <c r="R20" s="10">
-        <v>0</v>
+        <v>370.43</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1852.15</v>
       </c>
       <c r="T20" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U20" s="11">
-        <v>0</v>
+        <v>368.93</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1844.65</v>
       </c>
       <c r="W20" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="X20" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4.0493480549631507E-3</v>
       </c>
       <c r="Y20" s="12">
-        <v>0</v>
+        <v>0.10472222222222222</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2718,80 +2399,72 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D21" s="4">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F21" s="6">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>80.5</v>
+        <v>406</v>
       </c>
       <c r="H21" s="2">
-        <v>80.2</v>
+        <v>394</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.7267080745341241E-3</v>
+        <v>-2.9556650246305383E-2</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="8"/>
-        <v>3.7267080745341241E-3</v>
+        <v>2.9556650246305383E-2</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="9"/>
-        <v>80.799999999999983</v>
+        <v>418</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="11">
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <v>0</v>
+      <c r="P21" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="Q21" s="11">
         <v>0</v>
       </c>
       <c r="R21" s="10">
-        <v>0</v>
+        <v>410.24</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1640.96</v>
       </c>
       <c r="T21" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U21" s="11">
         <v>0</v>
       </c>
       <c r="V21" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W21" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X21" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y21" s="12">
@@ -2803,44 +2476,40 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D22" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>262.39999999999998</v>
+        <v>140.5</v>
       </c>
       <c r="H22" s="2">
-        <v>260.7</v>
+        <v>130</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="1"/>
-        <v>-6.4786585365853577E-3</v>
+        <v>-7.4733096085409234E-2</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="8"/>
-        <v>6.4786585365853577E-3</v>
+        <v>7.4733096085409234E-2</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="9"/>
-        <v>264.09999999999997</v>
+        <v>150.99999999999997</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -2858,7 +2527,6 @@
         <v>0</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T22" s="10">
@@ -2868,15 +2536,12 @@
         <v>0</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X22" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y22" s="12">
@@ -2888,44 +2553,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D23" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F23" s="6">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>216</v>
+        <v>136.55000000000001</v>
       </c>
       <c r="H23" s="2">
-        <v>214</v>
+        <v>133.5</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="1"/>
-        <v>-9.2592592592593004E-3</v>
+        <v>-2.2336140607836064E-2</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="8"/>
-        <v>9.2592592592593004E-3</v>
+        <v>2.2336140607836064E-2</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="9"/>
-        <v>218</v>
+        <v>139.60000000000005</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N23" s="10">
         <v>0</v>
@@ -2943,7 +2604,6 @@
         <v>0</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T23" s="10">
@@ -2953,15 +2613,12 @@
         <v>0</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X23" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y23" s="12">
@@ -2973,80 +2630,72 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D24" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F24" s="6">
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>327.39999999999998</v>
+        <v>80.5</v>
       </c>
       <c r="H24" s="2">
-        <v>323.39999999999998</v>
+        <v>79.5</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.2217470983506451E-2</v>
+        <v>-1.2422360248447228E-2</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="8"/>
-        <v>1.2217470983506451E-2</v>
+        <v>4.9689440993788914E-2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="9"/>
-        <v>331.40000000000003</v>
+        <v>84.500000000000014</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="N24" s="10">
-        <v>0</v>
+        <v>44466.500567129631</v>
       </c>
       <c r="O24" s="11">
         <v>0</v>
       </c>
       <c r="P24" s="10">
-        <v>0</v>
+        <v>44466.500572662037</v>
       </c>
       <c r="Q24" s="11">
         <v>0</v>
       </c>
       <c r="R24" s="10">
-        <v>0</v>
+        <v>79.754999999999995</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3987.75</v>
       </c>
       <c r="T24" s="10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U24" s="11">
         <v>0</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X24" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y24" s="12">
@@ -3058,44 +2707,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D25" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F25" s="6">
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>345</v>
+        <v>616.20000000000005</v>
       </c>
       <c r="H25" s="2">
-        <v>343</v>
+        <v>604</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.7971014492753659E-3</v>
+        <v>-1.9798766634209763E-2</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="8"/>
-        <v>5.7971014492753659E-3</v>
+        <v>1.9798766634209763E-2</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="9"/>
-        <v>347.00000000000006</v>
+        <v>628.40000000000009</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="N25" s="10">
         <v>0</v>
@@ -3113,7 +2758,6 @@
         <v>0</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T25" s="10">
@@ -3123,15 +2767,12 @@
         <v>0</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W25" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X25" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y25" s="12">
@@ -3143,81 +2784,73 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D26" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F26" s="6">
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>247</v>
+        <v>461</v>
       </c>
       <c r="H26" s="2">
-        <v>242</v>
+        <v>459</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.0242914979757054E-2</v>
+        <v>-4.3383947939262812E-3</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="8"/>
-        <v>2.0242914979757054E-2</v>
+        <v>4.3383947939262812E-3</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="9"/>
-        <v>251.99999999999997</v>
+        <v>462.99999999999994</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="N26" s="10">
-        <v>0</v>
+        <v>44466.500601851854</v>
       </c>
       <c r="O26" s="11">
         <v>0</v>
       </c>
       <c r="P26" s="10">
-        <v>0</v>
+        <v>44466.500610682873</v>
       </c>
       <c r="Q26" s="11">
         <v>0</v>
       </c>
       <c r="R26" s="10">
-        <v>0</v>
+        <v>459.21</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1836.84</v>
       </c>
       <c r="T26" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U26" s="11">
-        <v>0</v>
+        <v>458.90089999999998</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1835.6035999999999</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.2364000000000033</v>
       </c>
       <c r="X26" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-6.7311251932667153E-4</v>
       </c>
       <c r="Y26" s="12">
         <v>0</v>
@@ -3228,7 +2861,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4">
         <v>44463</v>
@@ -3237,35 +2870,31 @@
         <v>44467</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F27" s="6">
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>28.2</v>
+        <v>342</v>
       </c>
       <c r="H27" s="2">
-        <v>27.8</v>
+        <v>340.69</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.4184397163120477E-2</v>
+        <v>-3.830409356725184E-3</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="8"/>
-        <v>1.4184397163120477E-2</v>
+        <v>3.830409356725184E-3</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="9"/>
-        <v>28.599999999999994</v>
+        <v>343.31</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N27" s="10">
         <v>0</v>
@@ -3283,7 +2912,6 @@
         <v>0</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T27" s="10">
@@ -3293,15 +2921,12 @@
         <v>0</v>
       </c>
       <c r="V27" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X27" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y27" s="12">
@@ -3310,10 +2935,10 @@
     </row>
     <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4">
         <v>44463</v>
@@ -3322,35 +2947,31 @@
         <v>44467</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F28" s="6">
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>37.9</v>
+        <v>80.5</v>
       </c>
       <c r="H28" s="2">
-        <v>36.799999999999997</v>
+        <v>80.2</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.9023746701847042E-2</v>
+        <v>-3.7267080745341241E-3</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="8"/>
-        <v>2.9023746701847042E-2</v>
+        <v>3.7267080745341241E-3</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="9"/>
-        <v>39</v>
+        <v>80.799999999999983</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="N28" s="10">
         <v>0</v>
@@ -3368,7 +2989,6 @@
         <v>0</v>
       </c>
       <c r="S28" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T28" s="10">
@@ -3378,15 +2998,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X28" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y28" s="12">
@@ -3395,10 +3012,10 @@
     </row>
     <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4">
         <v>44463</v>
@@ -3407,35 +3024,31 @@
         <v>44467</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>339.3</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="H29" s="2">
-        <v>338</v>
+        <v>260.7</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.8314176245211051E-3</v>
+        <v>-6.4786585365853577E-3</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="8"/>
-        <v>3.8314176245211051E-3</v>
+        <v>6.4786585365853577E-3</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="9"/>
-        <v>340.6</v>
+        <v>264.09999999999997</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="N29" s="10">
         <v>0</v>
@@ -3453,7 +3066,6 @@
         <v>0</v>
       </c>
       <c r="S29" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T29" s="10">
@@ -3463,15 +3075,12 @@
         <v>0</v>
       </c>
       <c r="V29" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X29" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y29" s="12">
@@ -3480,10 +3089,10 @@
     </row>
     <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4">
         <v>44463</v>
@@ -3492,71 +3101,63 @@
         <v>44467</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F30" s="6">
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="H30" s="2">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="1"/>
-        <v>-6.4516129032258229E-3</v>
+        <v>-9.2592592592593004E-3</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="8"/>
-        <v>6.4516129032258229E-3</v>
+        <v>9.2592592592593004E-3</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="9"/>
-        <v>155.99999999999997</v>
+        <v>218</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N30" s="13">
-        <v>44466.500671296293</v>
+        <v>0</v>
       </c>
       <c r="O30" s="11">
         <v>0</v>
       </c>
       <c r="P30" s="15">
-        <v>44466.500674490744</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="11">
         <v>0</v>
       </c>
       <c r="R30" s="10">
-        <v>154.64500000000001</v>
+        <v>0</v>
       </c>
       <c r="S30" s="10">
-        <f t="shared" si="5"/>
-        <v>3711.4800000000005</v>
+        <v>0</v>
       </c>
       <c r="T30" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U30" s="11">
         <v>0</v>
       </c>
       <c r="V30" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X30" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y30" s="12">
@@ -3565,10 +3166,10 @@
     </row>
     <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C31" s="4">
         <v>44463</v>
@@ -3577,35 +3178,31 @@
         <v>44467</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F31" s="6">
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>69.8</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="H31" s="2">
-        <v>69.400000000000006</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.7306590257878431E-3</v>
+        <v>-1.2217470983506451E-2</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="8"/>
-        <v>5.7306590257878431E-3</v>
+        <v>1.2217470983506451E-2</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="9"/>
-        <v>70.2</v>
+        <v>331.40000000000003</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="N31" s="10">
         <v>0</v>
@@ -3623,7 +3220,6 @@
         <v>0</v>
       </c>
       <c r="S31" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T31" s="10">
@@ -3633,20 +3229,575 @@
         <v>0</v>
       </c>
       <c r="V31" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X31" s="17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y31" s="12">
         <v>0</v>
       </c>
+    </row>
+    <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>345</v>
+      </c>
+      <c r="H32" s="2">
+        <v>343</v>
+      </c>
+      <c r="I32" s="5">
+        <v>-5.7971014492753659E-3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>5.7971014492753659E-3</v>
+      </c>
+      <c r="L32" s="6">
+        <v>347.00000000000006</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <v>0</v>
+      </c>
+      <c r="X32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>247</v>
+      </c>
+      <c r="H33" s="2">
+        <v>242</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-2.0242914979757054E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>2.0242914979757054E-2</v>
+      </c>
+      <c r="L33" s="6">
+        <v>251.99999999999997</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10">
+        <v>0</v>
+      </c>
+      <c r="T33" s="10">
+        <v>0</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0</v>
+      </c>
+      <c r="W33" s="12">
+        <v>0</v>
+      </c>
+      <c r="X33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="I34" s="5">
+        <v>-1.4184397163120477E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1.4184397163120477E-2</v>
+      </c>
+      <c r="L34" s="6">
+        <v>28.599999999999994</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0</v>
+      </c>
+      <c r="U34" s="11">
+        <v>0</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0</v>
+      </c>
+      <c r="W34" s="12">
+        <v>0</v>
+      </c>
+      <c r="X34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="H35" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I35" s="5">
+        <v>-2.9023746701847042E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>2.9023746701847042E-2</v>
+      </c>
+      <c r="L35" s="6">
+        <v>39</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0</v>
+      </c>
+      <c r="R35" s="10">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <v>0</v>
+      </c>
+      <c r="T35" s="10">
+        <v>0</v>
+      </c>
+      <c r="U35" s="11">
+        <v>0</v>
+      </c>
+      <c r="V35" s="11">
+        <v>0</v>
+      </c>
+      <c r="W35" s="12">
+        <v>0</v>
+      </c>
+      <c r="X35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>339.3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>338</v>
+      </c>
+      <c r="I36" s="5">
+        <v>-3.8314176245211051E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3.8314176245211051E-3</v>
+      </c>
+      <c r="L36" s="6">
+        <v>340.6</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="10">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <v>0</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
+        <v>0</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>155</v>
+      </c>
+      <c r="H37" s="2">
+        <v>154</v>
+      </c>
+      <c r="I37" s="5">
+        <v>-6.4516129032258229E-3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>6.4516129032258229E-3</v>
+      </c>
+      <c r="L37" s="6">
+        <v>155.99999999999997</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" s="10">
+        <v>44466.500671296293</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>44466.500674490744</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0</v>
+      </c>
+      <c r="R37" s="10">
+        <v>154.64500000000001</v>
+      </c>
+      <c r="S37" s="10">
+        <v>3711.4800000000005</v>
+      </c>
+      <c r="T37" s="10">
+        <v>24</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0</v>
+      </c>
+      <c r="V37" s="11">
+        <v>0</v>
+      </c>
+      <c r="W37" s="12">
+        <v>0</v>
+      </c>
+      <c r="X37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="I38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="I39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="I40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="I41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="I42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="6"/>
+      <c r="I43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="I44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="6"/>
+      <c r="I45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="6"/>
+      <c r="I46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="I47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="6"/>
+      <c r="I48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="F49" s="6"/>
+      <c r="I49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC77976-61AB-464D-A1D8-2B89383E99FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CAAFFF-D025-435E-9D0A-D17AA8963B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,100 +150,112 @@
     <t>机器人标记状态</t>
   </si>
   <si>
+    <t>9月28日盘前快播</t>
+  </si>
+  <si>
+    <t>9月27日复盘视频</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>9月27日盘前快播</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>等待入场</t>
+  </si>
+  <si>
+    <t>TQQQ</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>9月24日盘前快播</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>EFA</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>UPST</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>NVAX</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>XLK</t>
+  </si>
+  <si>
     <t>入场时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入场单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成本金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>股数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收益金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持股时长</t>
-  </si>
-  <si>
-    <t>9月28日盘前快播</t>
-  </si>
-  <si>
-    <t>9月27日复盘视频</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>9月27日盘前快播</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>等待入场</t>
-  </si>
-  <si>
-    <t>TQQQ</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>9月24日盘前快播</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>EFA</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>UPST</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>NVAX</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>XLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -419,74 +431,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -819,11 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -840,7 +784,7 @@
     <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.25" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
@@ -895,40 +839,40 @@
         <v>38</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -936,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4">
         <v>44467</v>
@@ -1001,7 +945,7 @@
       <c r="W2" s="12">
         <v>0</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="12">
         <v>0</v>
       </c>
       <c r="Y2" s="12">
@@ -1013,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4">
         <v>44467</v>
@@ -1048,16 +992,16 @@
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-      <c r="P3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
         <v>0</v>
       </c>
       <c r="R3" s="10">
@@ -1078,10 +1022,10 @@
       <c r="W3" s="12">
         <v>0</v>
       </c>
-      <c r="X3" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1090,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
         <v>44467</v>
@@ -1155,7 +1099,7 @@
       <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="12">
         <v>0</v>
       </c>
       <c r="Y4" s="12">
@@ -1167,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4">
         <v>44467</v>
@@ -1232,7 +1176,7 @@
       <c r="W5" s="12">
         <v>0</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="12">
         <v>0</v>
       </c>
       <c r="Y5" s="12">
@@ -1244,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4">
         <v>44467</v>
@@ -1309,7 +1253,7 @@
       <c r="W6" s="12">
         <v>0</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="12">
         <v>0</v>
       </c>
       <c r="Y6" s="12">
@@ -1321,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <v>44467</v>
@@ -1386,7 +1330,7 @@
       <c r="W7" s="12">
         <v>0</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="12">
         <v>0</v>
       </c>
       <c r="Y7" s="12">
@@ -1398,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
         <v>44467</v>
@@ -1463,7 +1407,7 @@
       <c r="W8" s="12">
         <v>0</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="12">
         <v>0</v>
       </c>
       <c r="Y8" s="12">
@@ -1475,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
         <v>44467</v>
@@ -1540,7 +1484,7 @@
       <c r="W9" s="12">
         <v>0</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="12">
         <v>0</v>
       </c>
       <c r="Y9" s="12">
@@ -1552,7 +1496,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4">
         <v>44467</v>
@@ -1587,13 +1531,13 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="10">
         <v>0</v>
       </c>
       <c r="O10" s="11">
         <v>0</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="10">
         <v>0</v>
       </c>
       <c r="Q10" s="11">
@@ -1617,7 +1561,7 @@
       <c r="W10" s="12">
         <v>0</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="12">
         <v>0</v>
       </c>
       <c r="Y10" s="12">
@@ -1629,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4">
         <v>44467</v>
@@ -1694,7 +1638,7 @@
       <c r="W11" s="12">
         <v>0</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="12">
         <v>0</v>
       </c>
       <c r="Y11" s="12">
@@ -1706,7 +1650,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4">
         <v>44467</v>
@@ -1771,7 +1715,7 @@
       <c r="W12" s="12">
         <v>0</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="12">
         <v>0</v>
       </c>
       <c r="Y12" s="12">
@@ -1783,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>44467</v>
@@ -1848,7 +1792,7 @@
       <c r="W13" s="12">
         <v>0</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="12">
         <v>0</v>
       </c>
       <c r="Y13" s="12">
@@ -1860,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <v>44467</v>
@@ -1895,13 +1839,13 @@
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="10">
         <v>0</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="10">
         <v>0</v>
       </c>
       <c r="Q14" s="11">
@@ -1925,7 +1869,7 @@
       <c r="W14" s="12">
         <v>0</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="12">
         <v>0</v>
       </c>
       <c r="Y14" s="12">
@@ -1937,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4">
         <v>44467</v>
@@ -2002,7 +1946,7 @@
       <c r="W15" s="12">
         <v>0</v>
       </c>
-      <c r="X15" s="17">
+      <c r="X15" s="12">
         <v>0</v>
       </c>
       <c r="Y15" s="12">
@@ -2014,7 +1958,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
         <v>44467</v>
@@ -2079,7 +2023,7 @@
       <c r="W16" s="12">
         <v>0</v>
       </c>
-      <c r="X16" s="17">
+      <c r="X16" s="12">
         <v>0</v>
       </c>
       <c r="Y16" s="12">
@@ -2091,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4">
         <v>44467</v>
@@ -2156,7 +2100,7 @@
       <c r="W17" s="12">
         <v>0</v>
       </c>
-      <c r="X17" s="17">
+      <c r="X17" s="12">
         <v>0</v>
       </c>
       <c r="Y17" s="12">
@@ -2168,7 +2112,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4">
         <v>44467</v>
@@ -2233,7 +2177,7 @@
       <c r="W18" s="12">
         <v>0</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="12">
         <v>0</v>
       </c>
       <c r="Y18" s="12">
@@ -2245,7 +2189,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4">
         <v>44467</v>
@@ -2254,7 +2198,7 @@
         <v>44469</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F19" s="6">
         <v>2</v>
@@ -2310,7 +2254,7 @@
       <c r="W19" s="12">
         <v>0</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="12">
         <v>0</v>
       </c>
       <c r="Y19" s="12">
@@ -2322,7 +2266,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4">
         <v>44466</v>
@@ -2357,16 +2301,16 @@
       <c r="M20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="13">
         <v>44466.395995370367</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="14">
         <v>44466.500717592593</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="15">
         <v>44466.395994317128</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="16">
         <v>44466.500717939816</v>
       </c>
       <c r="R20" s="10">
@@ -2390,7 +2334,7 @@
       <c r="X20" s="17">
         <v>-4.0493480549631507E-3</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="18">
         <v>0.10472222222222222</v>
       </c>
     </row>
@@ -2399,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4">
         <v>44467</v>
@@ -2476,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4">
         <v>44466</v>
@@ -2485,7 +2429,7 @@
         <v>44468</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -2509,7 +2453,7 @@
         <v>150.99999999999997</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -2553,7 +2497,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4">
         <v>44466</v>
@@ -2562,7 +2506,7 @@
         <v>44468</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -2586,7 +2530,7 @@
         <v>139.60000000000005</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N23" s="10">
         <v>0</v>
@@ -2630,7 +2574,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>44466</v>
@@ -2639,7 +2583,7 @@
         <v>44468</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
@@ -2665,13 +2609,13 @@
       <c r="M24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="13">
         <v>44466.500567129631</v>
       </c>
       <c r="O24" s="11">
         <v>0</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="15">
         <v>44466.500572662037</v>
       </c>
       <c r="Q24" s="11">
@@ -2707,7 +2651,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4">
         <v>44466</v>
@@ -2716,7 +2660,7 @@
         <v>44468</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
@@ -2784,7 +2728,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4">
         <v>44466</v>
@@ -2793,7 +2737,7 @@
         <v>44468</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -2819,13 +2763,13 @@
       <c r="M26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="13">
         <v>44466.500601851854</v>
       </c>
       <c r="O26" s="11">
         <v>0</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="15">
         <v>44466.500610682873</v>
       </c>
       <c r="Q26" s="11">
@@ -2861,7 +2805,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C27" s="4">
         <v>44463</v>
@@ -2870,7 +2814,7 @@
         <v>44467</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6">
         <v>1</v>
@@ -2938,7 +2882,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4">
         <v>44463</v>
@@ -2947,7 +2891,7 @@
         <v>44467</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6">
         <v>1</v>
@@ -3015,7 +2959,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4">
         <v>44463</v>
@@ -3024,7 +2968,7 @@
         <v>44467</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
@@ -3092,7 +3036,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4">
         <v>44463</v>
@@ -3127,13 +3071,13 @@
       <c r="M30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="10">
         <v>0</v>
       </c>
       <c r="O30" s="11">
         <v>0</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="10">
         <v>0</v>
       </c>
       <c r="Q30" s="11">
@@ -3169,7 +3113,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4">
         <v>44463</v>
@@ -3178,7 +3122,7 @@
         <v>44467</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
@@ -3246,7 +3190,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4">
         <v>44463</v>
@@ -3255,7 +3199,7 @@
         <v>44467</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>
@@ -3311,7 +3255,7 @@
       <c r="W32" s="12">
         <v>0</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="17">
         <v>0</v>
       </c>
       <c r="Y32" s="12">
@@ -3323,7 +3267,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C33" s="4">
         <v>44463</v>
@@ -3332,7 +3276,7 @@
         <v>44467</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F33" s="6">
         <v>1</v>
@@ -3388,7 +3332,7 @@
       <c r="W33" s="12">
         <v>0</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="17">
         <v>0</v>
       </c>
       <c r="Y33" s="12">
@@ -3400,7 +3344,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4">
         <v>44463</v>
@@ -3409,7 +3353,7 @@
         <v>44467</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F34" s="6">
         <v>2</v>
@@ -3465,7 +3409,7 @@
       <c r="W34" s="12">
         <v>0</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="17">
         <v>0</v>
       </c>
       <c r="Y34" s="12">
@@ -3477,7 +3421,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4">
         <v>44463</v>
@@ -3486,7 +3430,7 @@
         <v>44467</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
@@ -3542,7 +3486,7 @@
       <c r="W35" s="12">
         <v>0</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="17">
         <v>0</v>
       </c>
       <c r="Y35" s="12">
@@ -3554,7 +3498,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C36" s="4">
         <v>44463</v>
@@ -3563,7 +3507,7 @@
         <v>44467</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F36" s="6">
         <v>1</v>
@@ -3619,7 +3563,7 @@
       <c r="W36" s="12">
         <v>0</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36" s="17">
         <v>0</v>
       </c>
       <c r="Y36" s="12">
@@ -3631,7 +3575,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4">
         <v>44463</v>
@@ -3640,7 +3584,7 @@
         <v>44467</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
@@ -3666,13 +3610,13 @@
       <c r="M37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="13">
         <v>44466.500671296293</v>
       </c>
       <c r="O37" s="11">
         <v>0</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="15">
         <v>44466.500674490744</v>
       </c>
       <c r="Q37" s="11">
@@ -3696,108 +3640,12 @@
       <c r="W37" s="12">
         <v>0</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X37" s="17">
         <v>0</v>
       </c>
       <c r="Y37" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="6"/>
-      <c r="I38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="F39" s="6"/>
-      <c r="I39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="6"/>
-      <c r="I40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="F41" s="6"/>
-      <c r="I41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="6"/>
-      <c r="I42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="6"/>
-      <c r="I43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="F44" s="6"/>
-      <c r="I44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="F45" s="6"/>
-      <c r="I45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="F46" s="6"/>
-      <c r="I46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="F47" s="6"/>
-      <c r="I47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="F48" s="6"/>
-      <c r="I48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="F49" s="6"/>
-      <c r="I49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CAAFFF-D025-435E-9D0A-D17AA8963B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F1B6E-57BA-4B37-A40B-9C233F7391E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$37</definedName>
   </definedNames>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>未入场，已涨破止盈位，放弃入场</t>
   </si>
@@ -43,12 +46,6 @@
   </si>
   <si>
     <t>未入场，已跌破止损位，放弃入场</t>
-  </si>
-  <si>
-    <t>2021-09-27 13:22:06</t>
-  </si>
-  <si>
-    <t>2021-09-27 13:22:06.556884</t>
   </si>
   <si>
     <t>SPY</t>
@@ -211,51 +208,42 @@
   </si>
   <si>
     <t>入场时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入场单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成本金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>股数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出场金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收益金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持股时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:30:48</t>
   </si>
 </sst>
 </file>
@@ -440,6 +428,3806 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="记录"/>
+      <sheetName val="备份"/>
+      <sheetName val="code表"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>code</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>$COMPX</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>$DJI</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>$SPX.X</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>FNGU</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>IWM</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>QQQ</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>UVXY</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>FNGD</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>SDOW</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>SOXS</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>SPXU</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>SQQQ</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>SOXL</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>TNA</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>TQQQ</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>TZA</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>UDOW</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>UPRO</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>A</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>AA</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>AAL</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>AAPL</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>AAXJ</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>ABBV</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>ABNB</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>ABT</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>ACHV</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>ACN</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>ACRS</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>ACWI</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ADBE</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>ADGI</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>ADI</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>ADM</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>ADP</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>ADSK</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>AEO</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>AEP</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>AES</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>AFL</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>AFRM</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>AG</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>AGG</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>AGRX</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>AI</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>AIG</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>AJG</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>ALK</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>ALL</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>ALLY</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>AMAT</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>AMC</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>AMD</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>AMGN</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>AMT</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>AMZN</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>AN</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>ANY</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>AON</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>APA</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>APH</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>APO</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>APPS</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>APTV</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>ARAV</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>ARKF</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>ARKG</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>ARKK</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>ARKQ</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>ARKW</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>ASAN</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>ASHR</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>ASML</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>ASTC</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>ATUS</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>ATVI</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>AVGO</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>AVTR</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>AVXL</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>AXP</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>AXSM</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>AZN</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>BA</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>BABA</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>BAC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>BAM</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>BARK</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>BAX</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>BB</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>BBD</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>BBIG</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>BBL</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>BBWI</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>BBY</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>BCEL</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>BCPC</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>BDX</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>BEKE</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>BHP</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>BIDU</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>BIIB</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>BILI</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>BILL</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>BK</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>BKLN</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>BKR</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>BLDR</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>BLL</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>BLSP</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>BMY</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>BND</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>BNDX</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>BNGO</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>BNTX</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>BP</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>BRK.B</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>BSV</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>BSX</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>BTBT</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>BTI</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>BTX</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>BX</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>BYND</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>BYSI</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>BZ</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>BZQ</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>C</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>CAG</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>CAH</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>CAN</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>CAR</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>CARR</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>CAT</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>CB</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>CBRE</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>CCI</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>CCL</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>CERN</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>CF</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>CFG</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>CGBD</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>CHAU</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>CHGG</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>CHPT</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>CHWY</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>CI</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>CL</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>CLF</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>CLOV</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>CLVT</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>CLX</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>CMBM</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>CMCSA</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>CME</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>CMI</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>CMS</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>CNC</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>CNI</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>CNK</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>CNP</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>COF</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>COG</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>COIN</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>COLD</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>COP</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>COST</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>COUP</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>CP</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>CPB</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>CPNG</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>CPRI</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>CREE</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>CRM</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>CRWD</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>CSCO</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>CSGP</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>CSX</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>CTLT</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>CTSH</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>CTVA</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>CTXS</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>CUE</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>CVS</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>CVX</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>CZR</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>DAL</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>DARE</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>DASH</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>DBX</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>DD</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>DDD</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>DDOG</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>DE</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>DELL</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>DEO</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>DFEN</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>DFS</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>DG</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>DHI</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>DHR</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>DIA</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>DIDI</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>DIS</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>DISCA</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>DKNG</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>DKS</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>DLR</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>DLTR</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>DM</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>DOCN</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>DOCS</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>DOCU</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>DOW</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>DQ</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>DRI</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218" t="str">
+            <v>DT</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219" t="str">
+            <v>DUK</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220" t="str">
+            <v>DVN</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221" t="str">
+            <v>EA</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222" t="str">
+            <v>EBAY</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223" t="str">
+            <v>ECL</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224" t="str">
+            <v>ED</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225" t="str">
+            <v>EDIT</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226" t="str">
+            <v>EDU</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227" t="str">
+            <v>EEM</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228" t="str">
+            <v>EFA</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229" t="str">
+            <v>EFV</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230" t="str">
+            <v>EFX</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231" t="str">
+            <v>EH</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232" t="str">
+            <v>ELAN</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233" t="str">
+            <v>EMB</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234" t="str">
+            <v>EMR</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235" t="str">
+            <v>ENB</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236" t="str">
+            <v>ENPH</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237" t="str">
+            <v>EOG</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238" t="str">
+            <v>EPD</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239" t="str">
+            <v>EQH</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240" t="str">
+            <v>EQR</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241" t="str">
+            <v>EQT</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242" t="str">
+            <v>ES</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243" t="str">
+            <v>ESGU</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244" t="str">
+            <v>ESTC</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245" t="str">
+            <v>ET</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>ETHE</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>ETN</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v>ETR</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>ETSY</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>EW</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>EWC</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>EWH</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>EWJ</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>EWT</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>EWY</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>EWZ</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257" t="str">
+            <v>EXC</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258" t="str">
+            <v>EXK</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259" t="str">
+            <v>EXPE</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260" t="str">
+            <v>EZU</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261" t="str">
+            <v>F</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262" t="str">
+            <v>FANG</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263" t="str">
+            <v>FAS</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264" t="str">
+            <v>FAST</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265" t="str">
+            <v>FAZ</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266" t="str">
+            <v>FB</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267" t="str">
+            <v>FCEL</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268" t="str">
+            <v>FCX</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269" t="str">
+            <v>FDS</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270" t="str">
+            <v>FDX</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271" t="str">
+            <v>FE</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272" t="str">
+            <v>FICO</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273" t="str">
+            <v>FIS</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274" t="str">
+            <v>FISV</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275" t="str">
+            <v>FITB</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276" t="str">
+            <v>FIVE</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277" t="str">
+            <v>FIVN</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>FL</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279" t="str">
+            <v>FLGC</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280" t="str">
+            <v>FNGS</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281" t="str">
+            <v>FRSX</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282" t="str">
+            <v>FSLY</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283" t="str">
+            <v>FSR</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284" t="str">
+            <v>FTCH</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285" t="str">
+            <v>FTV</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286" t="str">
+            <v>FUBO</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287" t="str">
+            <v>FUTU</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288" t="str">
+            <v>FXI</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289" t="str">
+            <v>GBTC</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290" t="str">
+            <v>GDX</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291" t="str">
+            <v>GDXJ</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292" t="str">
+            <v>GE</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293" t="str">
+            <v>GILD</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294" t="str">
+            <v>GIS</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295" t="str">
+            <v>GKOS</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296" t="str">
+            <v>GLD</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297" t="str">
+            <v>GLSI</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298" t="str">
+            <v>GLW</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>GM</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300" t="str">
+            <v>GME</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>GOLD</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302" t="str">
+            <v>GOOG</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303" t="str">
+            <v>GOOGL</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304" t="str">
+            <v>GPN</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305" t="str">
+            <v>GPS</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306" t="str">
+            <v>GS</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307" t="str">
+            <v>GSK</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308" t="str">
+            <v>HAL</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309" t="str">
+            <v>HBAN</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310" t="str">
+            <v>HD</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311" t="str">
+            <v>HDB</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312" t="str">
+            <v>HES</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313" t="str">
+            <v>HIG</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314" t="str">
+            <v>HLT</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315" t="str">
+            <v>HOFV</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316" t="str">
+            <v>HOLX</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317" t="str">
+            <v>HON</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318" t="str">
+            <v>HOOD</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319" t="str">
+            <v>HPE</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320" t="str">
+            <v>HPQ</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321" t="str">
+            <v>HRC</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322" t="str">
+            <v>HST</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323" t="str">
+            <v>HYG</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324" t="str">
+            <v>IAU</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325" t="str">
+            <v>IBB</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326" t="str">
+            <v>IBKR</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327" t="str">
+            <v>IBM</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328" t="str">
+            <v>IBN</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329" t="str">
+            <v>ICE</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330" t="str">
+            <v>IEF</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331" t="str">
+            <v>IEFA</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332" t="str">
+            <v>IEI</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333" t="str">
+            <v>IEMG</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334" t="str">
+            <v>IFF</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>IGSB</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>IGV</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>IJH</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>IJR</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
+            <v>IMAB</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>IMUX</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>INDA</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>INFO</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>INFY</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>INMD</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>INTC</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>INVH</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>IP</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>IPG</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>IQ</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>IR</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>ISR</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>ITB</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>ITOT</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>ITUB</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>IVE</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>IVV</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>IVW</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>IWB</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>IWD</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v>IWF</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v>IWN</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v>IWO</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v>IWR</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v>IXUS</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>IYR</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v>JBLU</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367" t="str">
+            <v>JCI</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v>JD</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v>JETS</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v>JKS</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v>JMIA</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v>JMP</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v>JNJ</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v>JNK</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v>JPM</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v>JPST</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v>JWN</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v>K</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v>KBE</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v>KBNT</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v>KBWB</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382" t="str">
+            <v>KDP</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383" t="str">
+            <v>KEY</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v>KHC</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v>KIM</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v>KKR</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v>KMB</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v>KMI</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>KO</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>KR</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>KRE</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>KSS</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>KSU</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>KWEB</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v>LAC</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v>LCID</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v>LCTX</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v>LEN</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v>LHX</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v>LI</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v>LIN</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v>LIVN</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v>LKCO</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v>LLY</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405" t="str">
+            <v>LMND</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v>LMT</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v>LOW</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v>LQD</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v>LQDA</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v>LRCX</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v>LSPD</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v>LU</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v>LULU</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v>LUMN</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v>LUV</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v>LVS</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v>LYB</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v>LYFT</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v>M</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v>MA</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v>MAR</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v>MARA</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v>MAS</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v>MBB</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v>MCD</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426" t="str">
+            <v>MCHI</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427" t="str">
+            <v>MCHP</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v>MDB</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v>MDLA</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v>MDLZ</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v>MDT</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v>MDY</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v>MET</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v>MGA</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v>MGM</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v>MMC</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v>MMM</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v>MNST</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v>MO</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v>MOGO</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v>MOS</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442" t="str">
+            <v>MOTS</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443" t="str">
+            <v>MP</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v>MPC</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v>MRK</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v>MRNA</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v>MRO</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v>MRSN</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v>MRVL</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v>MS</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v>MSFT</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v>MSON</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v>MT</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v>MTCH</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v>MTUM</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v>MU</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v>MUB</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v>MVIS</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v>NAOV</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v>NCLH</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v>NCNO</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462" t="str">
+            <v>NDRA</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463" t="str">
+            <v>NEE</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="B464" t="str">
+            <v>NEM</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="B465" t="str">
+            <v>NET</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="B466" t="str">
+            <v>NFLX</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="B467" t="str">
+            <v>NIO</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="B468" t="str">
+            <v>NKE</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="B469" t="str">
+            <v>NKLA</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="B470" t="str">
+            <v>NLOK</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="B471" t="str">
+            <v>NLSN</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="B472" t="str">
+            <v>NLY</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="B473" t="str">
+            <v>NNDM</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="B474" t="str">
+            <v>NOK</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="B475" t="str">
+            <v>NOW</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="B476" t="str">
+            <v>NRG</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="B477" t="str">
+            <v>NRGD</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="B478" t="str">
+            <v>NRGU</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="B479" t="str">
+            <v>NSC</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="B480" t="str">
+            <v>NSPR</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="B481" t="str">
+            <v>NTAP</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="B482" t="str">
+            <v>NTES</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="B483" t="str">
+            <v>NTLA</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="B484" t="str">
+            <v>NUAN</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="B485" t="str">
+            <v>NUE</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="B486" t="str">
+            <v>NVAX</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="B487" t="str">
+            <v>NVDA</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="B488" t="str">
+            <v>NVS</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="B489" t="str">
+            <v>NVTA</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="B490" t="str">
+            <v>NXPI</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="B491" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="B492" t="str">
+            <v>OCGN</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="B493" t="str">
+            <v>OIH</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="B494" t="str">
+            <v>OKE</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="B495" t="str">
+            <v>OKTA</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="B496" t="str">
+            <v>OLLI</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="B497" t="str">
+            <v>OMC</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="B498" t="str">
+            <v>OMGA</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="B499" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="B500" t="str">
+            <v>OPEN</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="B501" t="str">
+            <v>ORCL</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="B502" t="str">
+            <v>ORGO</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="B503" t="str">
+            <v>OTIS</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="B504" t="str">
+            <v>OXY</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="B505" t="str">
+            <v>OZON</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="B506" t="str">
+            <v>PANW</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="B507" t="str">
+            <v>PATH</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="B508" t="str">
+            <v>PBR</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="B509" t="str">
+            <v>PBR.A</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="B510" t="str">
+            <v>PCAR</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="B511" t="str">
+            <v>PCG</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="B512" t="str">
+            <v>PDD</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="B513" t="str">
+            <v>PEAK</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="B514" t="str">
+            <v>PEG</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="B515" t="str">
+            <v>PENN</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516" t="str">
+            <v>PEP</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="B517" t="str">
+            <v>PFE</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="B518" t="str">
+            <v>PFF</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="B519" t="str">
+            <v>PFGC</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="B520" t="str">
+            <v>PG</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="B521" t="str">
+            <v>PGR</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="B522" t="str">
+            <v>PHM</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="B523" t="str">
+            <v>PINS</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="B524" t="str">
+            <v>PKI</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="B525" t="str">
+            <v>PLAN</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="B526" t="str">
+            <v>PLD</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="B527" t="str">
+            <v>PLTR</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="B528" t="str">
+            <v>PLUG</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="B529" t="str">
+            <v>PM</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="B530" t="str">
+            <v>PMCB</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="B531" t="str">
+            <v>PNC</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="B532" t="str">
+            <v>PNR</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="B533" t="str">
+            <v>PPG</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="B534" t="str">
+            <v>PPL</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="B535" t="str">
+            <v>PRU</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="B536" t="str">
+            <v>PSTG</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="B537" t="str">
+            <v>PSX</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="B538" t="str">
+            <v>PTON</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="B539" t="str">
+            <v>PVH</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="B540" t="str">
+            <v>PXD</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="B541" t="str">
+            <v>PYPL</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="B542" t="str">
+            <v>QCOM</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="B543" t="str">
+            <v>QLD</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="B544" t="str">
+            <v>QRVO</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="B545" t="str">
+            <v>QS</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="B546" t="str">
+            <v>QSR</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="B547" t="str">
+            <v>QUAL</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="B548" t="str">
+            <v>RBLX</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="B549" t="str">
+            <v>RCEL</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="B550" t="str">
+            <v>RCL</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="B551" t="str">
+            <v>RDS.A</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="B552" t="str">
+            <v>RDS.B</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="B553" t="str">
+            <v>RF</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="B554" t="str">
+            <v>RIDE</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="B555" t="str">
+            <v>RIO</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="B556" t="str">
+            <v>RIOT</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="B557" t="str">
+            <v>RKT</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="B558" t="str">
+            <v>RLX</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="B559" t="str">
+            <v>RMO</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="B560" t="str">
+            <v>ROKU</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="B561" t="str">
+            <v>ROST</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="B562" t="str">
+            <v>RSKD</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="B563" t="str">
+            <v>RSP</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="B564" t="str">
+            <v>RTX</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="B565" t="str">
+            <v>RUN</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="B566" t="str">
+            <v>RYCEY</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="B567" t="str">
+            <v>SAM</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="B568" t="str">
+            <v>SAVA</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="B569" t="str">
+            <v>SAVE</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="B570" t="str">
+            <v>SBUX</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="B571" t="str">
+            <v>SCHD</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="B572" t="str">
+            <v>SCHP</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="B573" t="str">
+            <v>SCHW</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="B574" t="str">
+            <v>SCI</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="B575" t="str">
+            <v>SCZ</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="B576" t="str">
+            <v>SE</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="B577" t="str">
+            <v>SESN</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="B578" t="str">
+            <v>SH</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="B579" t="str">
+            <v>SHOP</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="B580" t="str">
+            <v>SHV</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="B581" t="str">
+            <v>SHY</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="B582" t="str">
+            <v>SIRI</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="B583" t="str">
+            <v>SJNK</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="B584" t="str">
+            <v>SKLZ</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="B585" t="str">
+            <v>SLB</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="B586" t="str">
+            <v>SLV</v>
+          </cell>
+        </row>
+        <row r="587">
+          <cell r="B587" t="str">
+            <v>SMH</v>
+          </cell>
+        </row>
+        <row r="588">
+          <cell r="B588" t="str">
+            <v>SNAP</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="B589" t="str">
+            <v>SNDL</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="B590" t="str">
+            <v>SNOW</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="B591" t="str">
+            <v>SNY</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="B592" t="str">
+            <v>SO</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="B593" t="str">
+            <v>SOFI</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="B594" t="str">
+            <v>SOHU</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="B595" t="str">
+            <v>SONO</v>
+          </cell>
+        </row>
+        <row r="596">
+          <cell r="B596" t="str">
+            <v>SOXX</v>
+          </cell>
+        </row>
+        <row r="597">
+          <cell r="B597" t="str">
+            <v>SPCB</v>
+          </cell>
+        </row>
+        <row r="598">
+          <cell r="B598" t="str">
+            <v>SPCE</v>
+          </cell>
+        </row>
+        <row r="599">
+          <cell r="B599" t="str">
+            <v>SPG</v>
+          </cell>
+        </row>
+        <row r="600">
+          <cell r="B600" t="str">
+            <v>SPGI</v>
+          </cell>
+        </row>
+        <row r="601">
+          <cell r="B601" t="str">
+            <v>SPIB</v>
+          </cell>
+        </row>
+        <row r="602">
+          <cell r="B602" t="str">
+            <v>SPLK</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="B603" t="str">
+            <v>SPLV</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="B604" t="str">
+            <v>SPNE</v>
+          </cell>
+        </row>
+        <row r="605">
+          <cell r="B605" t="str">
+            <v>SPOT</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="B606" t="str">
+            <v>GREE</v>
+          </cell>
+        </row>
+        <row r="607">
+          <cell r="B607" t="str">
+            <v>SPTL</v>
+          </cell>
+        </row>
+        <row r="608">
+          <cell r="B608" t="str">
+            <v>SPXL</v>
+          </cell>
+        </row>
+        <row r="609">
+          <cell r="B609" t="str">
+            <v>SPY</v>
+          </cell>
+        </row>
+        <row r="610">
+          <cell r="B610" t="str">
+            <v>SPYG</v>
+          </cell>
+        </row>
+        <row r="611">
+          <cell r="B611" t="str">
+            <v>SQ</v>
+          </cell>
+        </row>
+        <row r="612">
+          <cell r="B612" t="str">
+            <v>SRGA</v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="B613" t="str">
+            <v>SRLN</v>
+          </cell>
+        </row>
+        <row r="614">
+          <cell r="B614" t="str">
+            <v>SRNE</v>
+          </cell>
+        </row>
+        <row r="615">
+          <cell r="B615" t="str">
+            <v>SSO</v>
+          </cell>
+        </row>
+        <row r="616">
+          <cell r="B616" t="str">
+            <v>STAA</v>
+          </cell>
+        </row>
+        <row r="617">
+          <cell r="B617" t="str">
+            <v>STLD</v>
+          </cell>
+        </row>
+        <row r="618">
+          <cell r="B618" t="str">
+            <v>STNE</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="B619" t="str">
+            <v>STT</v>
+          </cell>
+        </row>
+        <row r="620">
+          <cell r="B620" t="str">
+            <v>STX</v>
+          </cell>
+        </row>
+        <row r="621">
+          <cell r="B621" t="str">
+            <v>SU</v>
+          </cell>
+        </row>
+        <row r="622">
+          <cell r="B622" t="str">
+            <v>SVXY</v>
+          </cell>
+        </row>
+        <row r="623">
+          <cell r="B623" t="str">
+            <v>SWK</v>
+          </cell>
+        </row>
+        <row r="624">
+          <cell r="B624" t="str">
+            <v>SWKS</v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="B625" t="str">
+            <v>SYF</v>
+          </cell>
+        </row>
+        <row r="626">
+          <cell r="B626" t="str">
+            <v>SYK</v>
+          </cell>
+        </row>
+        <row r="627">
+          <cell r="B627" t="str">
+            <v>SYY</v>
+          </cell>
+        </row>
+        <row r="628">
+          <cell r="B628" t="str">
+            <v>T</v>
+          </cell>
+        </row>
+        <row r="629">
+          <cell r="B629" t="str">
+            <v>TAL</v>
+          </cell>
+        </row>
+        <row r="630">
+          <cell r="B630" t="str">
+            <v>TCEHY</v>
+          </cell>
+        </row>
+        <row r="631">
+          <cell r="B631" t="str">
+            <v>TCOM</v>
+          </cell>
+        </row>
+        <row r="632">
+          <cell r="B632" t="str">
+            <v>TDOC</v>
+          </cell>
+        </row>
+        <row r="633">
+          <cell r="B633" t="str">
+            <v>TEAM</v>
+          </cell>
+        </row>
+        <row r="634">
+          <cell r="B634" t="str">
+            <v>TECH</v>
+          </cell>
+        </row>
+        <row r="635">
+          <cell r="B635" t="str">
+            <v>TEL</v>
+          </cell>
+        </row>
+        <row r="636">
+          <cell r="B636" t="str">
+            <v>TFC</v>
+          </cell>
+        </row>
+        <row r="637">
+          <cell r="B637" t="str">
+            <v>TGT</v>
+          </cell>
+        </row>
+        <row r="638">
+          <cell r="B638" t="str">
+            <v>TIGR</v>
+          </cell>
+        </row>
+        <row r="639">
+          <cell r="B639" t="str">
+            <v>TIP</v>
+          </cell>
+        </row>
+        <row r="640">
+          <cell r="B640" t="str">
+            <v>TJX</v>
+          </cell>
+        </row>
+        <row r="641">
+          <cell r="B641" t="str">
+            <v>TKAT</v>
+          </cell>
+        </row>
+        <row r="642">
+          <cell r="B642" t="str">
+            <v>TLRY</v>
+          </cell>
+        </row>
+        <row r="643">
+          <cell r="B643" t="str">
+            <v>TLT</v>
+          </cell>
+        </row>
+        <row r="644">
+          <cell r="B644" t="str">
+            <v>TME</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="B645" t="str">
+            <v>TMUS</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="B646" t="str">
+            <v>TPR</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="B647" t="str">
+            <v>TRMB</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="B648" t="str">
+            <v>TROW</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="B649" t="str">
+            <v>TRU</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="B650" t="str">
+            <v>TSLA</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="B651" t="str">
+            <v>TSM</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="B652" t="str">
+            <v>TSN</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="B653" t="str">
+            <v>TSP</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="B654" t="str">
+            <v>TTD</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="B655" t="str">
+            <v>TWLO</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="B656" t="str">
+            <v>TWTR</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="B657" t="str">
+            <v>TXN</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="B658" t="str">
+            <v>U</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="B659" t="str">
+            <v>UAA</v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="B660" t="str">
+            <v>UAL</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="B661" t="str">
+            <v>UBER</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="B662" t="str">
+            <v>UMC</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="B663" t="str">
+            <v>UNH</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="B664" t="str">
+            <v>UNP</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="B665" t="str">
+            <v>UPS</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="B666" t="str">
+            <v>UPST</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="B667" t="str">
+            <v>USB</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="B668" t="str">
+            <v>USFD</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="B669" t="str">
+            <v>USMV</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="B670" t="str">
+            <v>USO</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="B671" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="B672" t="str">
+            <v>VALE</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="B673" t="str">
+            <v>VB</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="B674" t="str">
+            <v>VCIT</v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="B675" t="str">
+            <v>VCLT</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="B676" t="str">
+            <v>VCSH</v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="B677" t="str">
+            <v>VEA</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="B678" t="str">
+            <v>VEEV</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="B679" t="str">
+            <v>VEU</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="B680" t="str">
+            <v>VFC</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="B681" t="str">
+            <v>VGK</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="B682" t="str">
+            <v>VGLT</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="B683" t="str">
+            <v>VGT</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="B684" t="str">
+            <v>VIAC</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="B685" t="str">
+            <v>VICI</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="B686" t="str">
+            <v>VIG</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="B687" t="str">
+            <v>VIPS</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="B688" t="str">
+            <v>VLO</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="B689" t="str">
+            <v>VLUE</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="B690" t="str">
+            <v>VMC</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="B691" t="str">
+            <v>VMW</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="B692" t="str">
+            <v>VNQ</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="B693" t="str">
+            <v>VO</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="B694" t="str">
+            <v>VOO</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="B695" t="str">
+            <v>VRTX</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="B696" t="str">
+            <v>VT</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="B697" t="str">
+            <v>VTI</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="B698" t="str">
+            <v>VTIP</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="B699" t="str">
+            <v>VTR</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="B700" t="str">
+            <v>VTRS</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="B701" t="str">
+            <v>VTV</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="B702" t="str">
+            <v>VUG</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="B703" t="str">
+            <v>VWO</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="B704" t="str">
+            <v>VXUS</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="B705" t="str">
+            <v>VXX</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="B706" t="str">
+            <v>VZ</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="B707" t="str">
+            <v>W</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="B708" t="str">
+            <v>WBA</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="B709" t="str">
+            <v>WDAY</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="B710" t="str">
+            <v>WDC</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="B711" t="str">
+            <v>WELL</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="B712" t="str">
+            <v>WFC</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="B713" t="str">
+            <v>WISH</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="B714" t="str">
+            <v>WLTW</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="B715" t="str">
+            <v>WM</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="B716" t="str">
+            <v>WMB</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="B717" t="str">
+            <v>WMT</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="B718" t="str">
+            <v>WY</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="B719" t="str">
+            <v>WYNN</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="B720" t="str">
+            <v>X</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="B721" t="str">
+            <v>XBI</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="B722" t="str">
+            <v>XCUR</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="B723" t="str">
+            <v>XEL</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="B724" t="str">
+            <v>XHB</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="B725" t="str">
+            <v>XLB</v>
+          </cell>
+        </row>
+        <row r="726">
+          <cell r="B726" t="str">
+            <v>XLC</v>
+          </cell>
+        </row>
+        <row r="727">
+          <cell r="B727" t="str">
+            <v>XLE</v>
+          </cell>
+        </row>
+        <row r="728">
+          <cell r="B728" t="str">
+            <v>XLF</v>
+          </cell>
+        </row>
+        <row r="729">
+          <cell r="B729" t="str">
+            <v>XLI</v>
+          </cell>
+        </row>
+        <row r="730">
+          <cell r="B730" t="str">
+            <v>XLK</v>
+          </cell>
+        </row>
+        <row r="731">
+          <cell r="B731" t="str">
+            <v>XLP</v>
+          </cell>
+        </row>
+        <row r="732">
+          <cell r="B732" t="str">
+            <v>XLRE</v>
+          </cell>
+        </row>
+        <row r="733">
+          <cell r="B733" t="str">
+            <v>XLU</v>
+          </cell>
+        </row>
+        <row r="734">
+          <cell r="B734" t="str">
+            <v>XLV</v>
+          </cell>
+        </row>
+        <row r="735">
+          <cell r="B735" t="str">
+            <v>XLY</v>
+          </cell>
+        </row>
+        <row r="736">
+          <cell r="B736" t="str">
+            <v>XM</v>
+          </cell>
+        </row>
+        <row r="737">
+          <cell r="B737" t="str">
+            <v>XME</v>
+          </cell>
+        </row>
+        <row r="738">
+          <cell r="B738" t="str">
+            <v>XOM</v>
+          </cell>
+        </row>
+        <row r="739">
+          <cell r="B739" t="str">
+            <v>XOP</v>
+          </cell>
+        </row>
+        <row r="740">
+          <cell r="B740" t="str">
+            <v>XPEV</v>
+          </cell>
+        </row>
+        <row r="741">
+          <cell r="B741" t="str">
+            <v>XPO</v>
+          </cell>
+        </row>
+        <row r="742">
+          <cell r="B742" t="str">
+            <v>XRT</v>
+          </cell>
+        </row>
+        <row r="743">
+          <cell r="B743" t="str">
+            <v>YANG</v>
+          </cell>
+        </row>
+        <row r="744">
+          <cell r="B744" t="str">
+            <v>YUMC</v>
+          </cell>
+        </row>
+        <row r="745">
+          <cell r="B745" t="str">
+            <v>Z</v>
+          </cell>
+        </row>
+        <row r="746">
+          <cell r="B746" t="str">
+            <v>ZBH</v>
+          </cell>
+        </row>
+        <row r="747">
+          <cell r="B747" t="str">
+            <v>ZEN</v>
+          </cell>
+        </row>
+        <row r="748">
+          <cell r="B748" t="str">
+            <v>ZEV</v>
+          </cell>
+        </row>
+        <row r="749">
+          <cell r="B749" t="str">
+            <v>ZI</v>
+          </cell>
+        </row>
+        <row r="750">
+          <cell r="B750" t="str">
+            <v>ZIM</v>
+          </cell>
+        </row>
+        <row r="751">
+          <cell r="B751" t="str">
+            <v>ZM</v>
+          </cell>
+        </row>
+        <row r="752">
+          <cell r="B752" t="str">
+            <v>ZNGA</v>
+          </cell>
+        </row>
+        <row r="753">
+          <cell r="B753" t="str">
+            <v>ZS</v>
+          </cell>
+        </row>
+        <row r="754">
+          <cell r="B754" t="str">
+            <v>ZTO</v>
+          </cell>
+        </row>
+        <row r="755">
+          <cell r="B755" t="str">
+            <v>ZTS</v>
+          </cell>
+        </row>
+        <row r="756">
+          <cell r="B756" t="str">
+            <v>ZY</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,116 +4551,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="12" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="N1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -880,18 +4667,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4">
         <v>44467</v>
       </c>
       <c r="D2" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E2)=0,"error",COUNTIFS(E:E,E2))</f>
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -901,19 +4689,19 @@
         <v>439.5</v>
       </c>
       <c r="I2" s="5">
-        <v>-5.2059755545496023E-3</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="5">
-        <v>5.2059755545496023E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="L2" s="6">
-        <v>444.10000000000008</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
+        <v>444.1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="N2" s="10">
         <v>0</v>
@@ -957,18 +4745,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>44467</v>
       </c>
       <c r="D3" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E3)=0,"error",COUNTIFS(E:E,E3))</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -978,40 +4767,40 @@
         <v>770</v>
       </c>
       <c r="I3" s="5">
-        <v>-1.1553273427471145E-2</v>
+        <v>-1.1599999999999999E-2</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>1.1553273427471145E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="L3" s="6">
-        <v>787.99999999999989</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
+        <v>788</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <v>44467.424143518518</v>
       </c>
       <c r="O3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="10">
-        <v>0</v>
+      <c r="P3" s="15">
+        <v>44467.424150844905</v>
       </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
       <c r="R3" s="10">
-        <v>0</v>
+        <v>778.625</v>
       </c>
       <c r="S3" s="10">
-        <v>0</v>
+        <v>1557.25</v>
       </c>
       <c r="T3" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" s="11">
         <v>0</v>
@@ -1034,18 +4823,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>44467</v>
       </c>
       <c r="D4" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E4)=0,"error",COUNTIFS(E:E,E4))</f>
         <v>1</v>
       </c>
       <c r="G4" s="2">
@@ -1055,19 +4845,19 @@
         <v>141.27000000000001</v>
       </c>
       <c r="I4" s="5">
-        <v>-5.1408450704224506E-3</v>
+        <v>-5.1000000000000004E-3</v>
       </c>
       <c r="J4" s="2">
         <v>5</v>
       </c>
       <c r="K4" s="5">
-        <v>2.5704225352112253E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="L4" s="6">
-        <v>145.64999999999995</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
+        <v>145.65</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -1111,18 +4901,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>44467</v>
       </c>
       <c r="D5" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E5)=0,"error",COUNTIFS(E:E,E5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="2">
@@ -1132,40 +4923,40 @@
         <v>287</v>
       </c>
       <c r="I5" s="5">
-        <v>-1.0344827586206917E-2</v>
+        <v>-1.03E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <v>1.0344827586206917E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="L5" s="6">
-        <v>293.00000000000006</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13">
+        <v>44467.424212962964</v>
       </c>
       <c r="O5" s="11">
         <v>0</v>
       </c>
-      <c r="P5" s="10">
-        <v>0</v>
+      <c r="P5" s="15">
+        <v>44467.42421420139</v>
       </c>
       <c r="Q5" s="11">
         <v>0</v>
       </c>
       <c r="R5" s="10">
-        <v>0</v>
+        <v>287.90499999999997</v>
       </c>
       <c r="S5" s="10">
-        <v>0</v>
+        <v>1727.43</v>
       </c>
       <c r="T5" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U5" s="11">
         <v>0</v>
@@ -1188,18 +4979,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
         <v>44467</v>
       </c>
       <c r="D6" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E6)=0,"error",COUNTIFS(E:E,E6))</f>
         <v>1</v>
       </c>
       <c r="G6" s="2">
@@ -1209,40 +5001,40 @@
         <v>220</v>
       </c>
       <c r="I6" s="5">
-        <v>-1.7857142857142905E-2</v>
+        <v>-1.7899999999999999E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <v>1.7857142857142905E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="L6" s="6">
         <v>228</v>
       </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
+      <c r="M6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13">
+        <v>44467.424247685187</v>
       </c>
       <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="10">
-        <v>0</v>
+      <c r="P6" s="15">
+        <v>44467.424251979166</v>
       </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
       <c r="R6" s="10">
-        <v>0</v>
+        <v>222.77500000000001</v>
       </c>
       <c r="S6" s="10">
-        <v>0</v>
+        <v>1782.2</v>
       </c>
       <c r="T6" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U6" s="11">
         <v>0</v>
@@ -1265,18 +5057,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>44467</v>
       </c>
       <c r="D7" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E7)=0,"error",COUNTIFS(E:E,E7))</f>
         <v>1</v>
       </c>
       <c r="G7" s="2">
@@ -1286,19 +5079,19 @@
         <v>104.5</v>
       </c>
       <c r="I7" s="5">
-        <v>-1.2287334593572785E-2</v>
+        <v>-1.23E-2</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <v>1.2287334593572785E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="L7" s="6">
         <v>107.1</v>
       </c>
-      <c r="M7" s="19">
-        <v>0</v>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -1342,18 +5135,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>44467</v>
       </c>
       <c r="D8" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E8)=0,"error",COUNTIFS(E:E,E8))</f>
         <v>1</v>
       </c>
       <c r="G8" s="2">
@@ -1363,19 +5157,19 @@
         <v>200</v>
       </c>
       <c r="I8" s="5">
-        <v>-3.3816425120772986E-2</v>
+        <v>-3.3799999999999997E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <v>3.3816425120772986E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="L8" s="6">
-        <v>214.00000000000003</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
@@ -1419,18 +5213,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>44467</v>
       </c>
       <c r="D9" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E9)=0,"error",COUNTIFS(E:E,E9))</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
@@ -1440,40 +5235,40 @@
         <v>38.1</v>
       </c>
       <c r="I9" s="5">
-        <v>-7.812499999999889E-3</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>7.812499999999889E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="L9" s="6">
-        <v>38.699999999999996</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="13">
+        <v>44467.429699074077</v>
       </c>
       <c r="O9" s="11">
         <v>0</v>
       </c>
-      <c r="P9" s="10">
-        <v>0</v>
+      <c r="P9" s="15">
+        <v>44467.429705324073</v>
       </c>
       <c r="Q9" s="11">
         <v>0</v>
       </c>
       <c r="R9" s="10">
-        <v>0</v>
+        <v>38.325000000000003</v>
       </c>
       <c r="S9" s="10">
-        <v>0</v>
+        <v>1992.9</v>
       </c>
       <c r="T9" s="10">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="U9" s="11">
         <v>0</v>
@@ -1496,18 +5291,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
         <v>44467</v>
       </c>
       <c r="D10" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E10)=0,"error",COUNTIFS(E:E,E10))</f>
         <v>1</v>
       </c>
       <c r="G10" s="2">
@@ -1517,18 +5313,18 @@
         <v>163</v>
       </c>
       <c r="I10" s="5">
-        <v>-9.7205346294045869E-3</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>9.7205346294045869E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="L10" s="6">
-        <v>166.19999999999996</v>
-      </c>
-      <c r="M10" s="2">
+        <v>166.2</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="10">
@@ -1573,18 +5369,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
         <v>44467</v>
       </c>
       <c r="D11" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E11)=0,"error",COUNTIFS(E:E,E11))</f>
         <v>1</v>
       </c>
       <c r="G11" s="2">
@@ -1594,18 +5391,18 @@
         <v>51</v>
       </c>
       <c r="I11" s="5">
-        <v>-1.6393442622950838E-2</v>
+        <v>-1.6400000000000001E-2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <v>1.6393442622950838E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="L11" s="6">
         <v>52.7</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="10">
@@ -1650,18 +5447,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>44467</v>
       </c>
       <c r="D12" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E12)=0,"error",COUNTIFS(E:E,E12))</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -1671,19 +5469,19 @@
         <v>41.5</v>
       </c>
       <c r="I12" s="5">
-        <v>-2.8103044496487151E-2</v>
+        <v>-2.81E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <v>2.8103044496487151E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="L12" s="6">
-        <v>43.900000000000006</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
+        <v>43.9</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -1727,18 +5525,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <v>44467</v>
       </c>
       <c r="D13" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E13)=0,"error",COUNTIFS(E:E,E13))</f>
         <v>1</v>
       </c>
       <c r="G13" s="2">
@@ -1748,18 +5547,18 @@
         <v>57.4</v>
       </c>
       <c r="I13" s="5">
-        <v>-1.7123287671232834E-2</v>
+        <v>-1.7100000000000001E-2</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>1.7123287671232834E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="L13" s="6">
         <v>59.4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="10">
@@ -1804,18 +5603,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
         <v>44467</v>
       </c>
       <c r="D14" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E14)=0,"error",COUNTIFS(E:E,E14))</f>
         <v>1</v>
       </c>
       <c r="G14" s="2">
@@ -1825,40 +5625,40 @@
         <v>118.5</v>
       </c>
       <c r="I14" s="5">
-        <v>-2.8688524590163911E-2</v>
+        <v>-2.87E-2</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="5">
-        <v>2.8688524590163911E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="L14" s="6">
-        <v>125.50000000000001</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
+        <v>125.5</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13">
+        <v>44467.4297337963</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
       </c>
-      <c r="P14" s="10">
-        <v>0</v>
+      <c r="P14" s="15">
+        <v>44467.429740925923</v>
       </c>
       <c r="Q14" s="11">
         <v>0</v>
       </c>
       <c r="R14" s="10">
-        <v>0</v>
+        <v>120.265</v>
       </c>
       <c r="S14" s="10">
-        <v>0</v>
+        <v>1924.24</v>
       </c>
       <c r="T14" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U14" s="11">
         <v>0</v>
@@ -1881,18 +5681,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
         <v>44467</v>
       </c>
       <c r="D15" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E15)=0,"error",COUNTIFS(E:E,E15))</f>
         <v>1</v>
       </c>
       <c r="G15" s="2">
@@ -1902,19 +5703,19 @@
         <v>276</v>
       </c>
       <c r="I15" s="5">
-        <v>-1.0752688172043001E-2</v>
+        <v>-1.0800000000000001E-2</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <v>1.0752688172043001E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="L15" s="6">
         <v>282</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
+      <c r="M15" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
@@ -1958,18 +5759,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>44467</v>
       </c>
       <c r="D16" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E16)=0,"error",COUNTIFS(E:E,E16))</f>
         <v>1</v>
       </c>
       <c r="G16" s="2">
@@ -1979,19 +5781,19 @@
         <v>25.6</v>
       </c>
       <c r="I16" s="5">
-        <v>-1.9157088122605415E-2</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="5">
-        <v>3.8314176245210829E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="L16" s="6">
-        <v>27.100000000000005</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0</v>
+        <v>27.1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -2035,18 +5837,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
         <v>44467</v>
       </c>
       <c r="D17" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E17)=0,"error",COUNTIFS(E:E,E17))</f>
         <v>1</v>
       </c>
       <c r="G17" s="2">
@@ -2056,18 +5859,18 @@
         <v>94</v>
       </c>
       <c r="I17" s="5">
-        <v>-1.8481779262817133E-2</v>
+        <v>-1.8499999999999999E-2</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <v>1.8481779262817133E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="L17" s="6">
-        <v>97.539999999999992</v>
-      </c>
-      <c r="M17" s="2">
+        <v>97.54</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N17" s="10">
@@ -2112,18 +5915,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4">
         <v>44467</v>
       </c>
       <c r="D18" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E18)=0,"error",COUNTIFS(E:E,E18))</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2133,19 +5937,19 @@
         <v>71</v>
       </c>
       <c r="I18" s="5">
-        <v>-9.7629009762901786E-3</v>
+        <v>-9.7999999999999997E-3</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>9.7629009762901786E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="L18" s="6">
-        <v>72.40000000000002</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N18" s="10">
         <v>0</v>
@@ -2189,19 +5993,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
         <v>44467</v>
       </c>
       <c r="D19" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="6">
-        <v>2</v>
+        <f>IF(COUNTIFS([1]code表!B:B,E19)=0,"error",COUNTIFS(E:E,E19))</f>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>27.1</v>
@@ -2210,19 +6015,19 @@
         <v>26.5</v>
       </c>
       <c r="I19" s="5">
-        <v>-2.2140221402214055E-2</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="5">
-        <v>2.2140221402214055E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="L19" s="6">
-        <v>27.700000000000006</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
+        <v>27.7</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -2266,18 +6071,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4">
         <v>44466</v>
       </c>
       <c r="D20" s="4">
-        <v>44468</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E20)=0,"error",COUNTIFS(E:E,E20))</f>
         <v>1</v>
       </c>
       <c r="G20" s="2">
@@ -2287,16 +6093,16 @@
         <v>369</v>
       </c>
       <c r="I20" s="5">
-        <v>-5.3908355795148077E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="5">
-        <v>5.3908355795148077E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="L20" s="6">
-        <v>372.99999999999994</v>
+        <v>373</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>2</v>
@@ -2311,7 +6117,7 @@
         <v>44466.395994317128</v>
       </c>
       <c r="Q20" s="16">
-        <v>44466.500717939816</v>
+        <v>44466.500717939824</v>
       </c>
       <c r="R20" s="10">
         <v>370.43</v>
@@ -2334,8 +6140,8 @@
       <c r="X20" s="17">
         <v>-4.0493480549631507E-3</v>
       </c>
-      <c r="Y20" s="18">
-        <v>0.10472222222222222</v>
+      <c r="Y20" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2343,18 +6149,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4">
         <v>44467</v>
       </c>
       <c r="D21" s="4">
-        <v>44469</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E21)=0,"error",COUNTIFS(E:E,E21))</f>
         <v>1</v>
       </c>
       <c r="G21" s="2">
@@ -2364,31 +6171,31 @@
         <v>394</v>
       </c>
       <c r="I21" s="5">
-        <v>-2.9556650246305383E-2</v>
+        <v>-2.9600000000000001E-2</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>2.9556650246305383E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="L21" s="6">
         <v>418</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>0</v>
+      <c r="M21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="13">
+        <v>44466.557013888887</v>
+      </c>
+      <c r="O21" s="14">
+        <v>44467.424560185187</v>
+      </c>
+      <c r="P21" s="15">
+        <v>44466.557020335647</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>44467.424558368053</v>
       </c>
       <c r="R21" s="10">
         <v>410.24</v>
@@ -2400,19 +6207,19 @@
         <v>4</v>
       </c>
       <c r="U21" s="11">
-        <v>0</v>
+        <v>380.28</v>
       </c>
       <c r="V21" s="11">
-        <v>0</v>
+        <v>1521.12</v>
       </c>
       <c r="W21" s="12">
-        <v>0</v>
+        <v>-119.84</v>
       </c>
       <c r="X21" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="12">
-        <v>0</v>
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>0.86754629629629632</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2420,18 +6227,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4">
         <v>44466</v>
       </c>
       <c r="D22" s="4">
-        <v>44468</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E22)=0,"error",COUNTIFS(E:E,E22))</f>
         <v>1</v>
       </c>
       <c r="G22" s="2">
@@ -2441,19 +6249,19 @@
         <v>130</v>
       </c>
       <c r="I22" s="5">
-        <v>-7.4733096085409234E-2</v>
+        <v>-7.4700000000000003E-2</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="5">
-        <v>7.4733096085409234E-2</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="L22" s="6">
-        <v>150.99999999999997</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>44</v>
+        <v>151</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -2497,18 +6305,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <v>44466</v>
       </c>
       <c r="D23" s="4">
-        <v>44468</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E23)=0,"error",COUNTIFS(E:E,E23))</f>
         <v>1</v>
       </c>
       <c r="G23" s="2">
@@ -2518,19 +6327,19 @@
         <v>133.5</v>
       </c>
       <c r="I23" s="5">
-        <v>-2.2336140607836064E-2</v>
+        <v>-2.23E-2</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="5">
-        <v>2.2336140607836064E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="L23" s="6">
-        <v>139.60000000000005</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>44</v>
+        <v>139.6</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="N23" s="10">
         <v>0</v>
@@ -2574,18 +6383,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4">
         <v>44466</v>
       </c>
       <c r="D24" s="4">
-        <v>44468</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E24)=0,"error",COUNTIFS(E:E,E24))</f>
         <v>1</v>
       </c>
       <c r="G24" s="2">
@@ -2595,16 +6405,16 @@
         <v>79.5</v>
       </c>
       <c r="I24" s="5">
-        <v>-1.2422360248447228E-2</v>
+        <v>-1.24E-2</v>
       </c>
       <c r="J24" s="2">
         <v>4</v>
       </c>
       <c r="K24" s="5">
-        <v>4.9689440993788914E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="L24" s="6">
-        <v>84.500000000000014</v>
+        <v>84.5</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>1</v>
@@ -2651,18 +6461,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4">
         <v>44466</v>
       </c>
       <c r="D25" s="4">
-        <v>44468</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E25)=0,"error",COUNTIFS(E:E,E25))</f>
         <v>1</v>
       </c>
       <c r="G25" s="2">
@@ -2672,16 +6483,16 @@
         <v>604</v>
       </c>
       <c r="I25" s="5">
-        <v>-1.9798766634209763E-2</v>
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="5">
-        <v>1.9798766634209763E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="L25" s="6">
-        <v>628.40000000000009</v>
+        <v>628.4</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>3</v>
@@ -2728,18 +6539,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4">
         <v>44466</v>
       </c>
       <c r="D26" s="4">
-        <v>44468</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E26)=0,"error",COUNTIFS(E:E,E26))</f>
         <v>1</v>
       </c>
       <c r="G26" s="2">
@@ -2749,22 +6561,22 @@
         <v>459</v>
       </c>
       <c r="I26" s="5">
-        <v>-4.3383947939262812E-3</v>
+        <v>-4.3E-3</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="5">
-        <v>4.3383947939262812E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="L26" s="6">
-        <v>462.99999999999994</v>
+        <v>463</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N26" s="13">
-        <v>44466.500601851854</v>
+        <v>44466.500601851847</v>
       </c>
       <c r="O26" s="11">
         <v>0</v>
@@ -2791,7 +6603,7 @@
         <v>1835.6035999999999</v>
       </c>
       <c r="W26" s="12">
-        <v>-1.2364000000000033</v>
+        <v>-1.2364000000000031</v>
       </c>
       <c r="X26" s="17">
         <v>-6.7311251932667153E-4</v>
@@ -2805,18 +6617,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4">
         <v>44463</v>
       </c>
       <c r="D27" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E27)=0,"error",COUNTIFS(E:E,E27))</f>
         <v>1</v>
       </c>
       <c r="G27" s="2">
@@ -2826,13 +6639,13 @@
         <v>340.69</v>
       </c>
       <c r="I27" s="5">
-        <v>-3.830409356725184E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="5">
-        <v>3.830409356725184E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="L27" s="6">
         <v>343.31</v>
@@ -2882,18 +6695,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4">
         <v>44463</v>
       </c>
       <c r="D28" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E28)=0,"error",COUNTIFS(E:E,E28))</f>
         <v>1</v>
       </c>
       <c r="G28" s="2">
@@ -2903,16 +6717,16 @@
         <v>80.2</v>
       </c>
       <c r="I28" s="5">
-        <v>-3.7267080745341241E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="5">
-        <v>3.7267080745341241E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="L28" s="6">
-        <v>80.799999999999983</v>
+        <v>80.8</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>3</v>
@@ -2959,18 +6773,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4">
         <v>44463</v>
       </c>
       <c r="D29" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E29)=0,"error",COUNTIFS(E:E,E29))</f>
         <v>1</v>
       </c>
       <c r="G29" s="2">
@@ -2980,16 +6795,16 @@
         <v>260.7</v>
       </c>
       <c r="I29" s="5">
-        <v>-6.4786585365853577E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="5">
-        <v>6.4786585365853577E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="L29" s="6">
-        <v>264.09999999999997</v>
+        <v>264.10000000000002</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>3</v>
@@ -3036,18 +6851,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="4">
         <v>44463</v>
       </c>
       <c r="D30" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E30)=0,"error",COUNTIFS(E:E,E30))</f>
         <v>1</v>
       </c>
       <c r="G30" s="2">
@@ -3057,13 +6873,13 @@
         <v>214</v>
       </c>
       <c r="I30" s="5">
-        <v>-9.2592592592593004E-3</v>
+        <v>-9.2999999999999992E-3</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="5">
-        <v>9.2592592592593004E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="L30" s="6">
         <v>218</v>
@@ -3113,18 +6929,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4">
         <v>44463</v>
       </c>
       <c r="D31" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F31" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E31)=0,"error",COUNTIFS(E:E,E31))</f>
         <v>1</v>
       </c>
       <c r="G31" s="2">
@@ -3134,16 +6951,16 @@
         <v>323.39999999999998</v>
       </c>
       <c r="I31" s="5">
-        <v>-1.2217470983506451E-2</v>
+        <v>-1.2200000000000001E-2</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <v>1.2217470983506451E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="L31" s="6">
-        <v>331.40000000000003</v>
+        <v>331.4</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>0</v>
@@ -3190,18 +7007,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4">
         <v>44463</v>
       </c>
       <c r="D32" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E32)=0,"error",COUNTIFS(E:E,E32))</f>
         <v>1</v>
       </c>
       <c r="G32" s="2">
@@ -3211,16 +7029,16 @@
         <v>343</v>
       </c>
       <c r="I32" s="5">
-        <v>-5.7971014492753659E-3</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="5">
-        <v>5.7971014492753659E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="L32" s="6">
-        <v>347.00000000000006</v>
+        <v>347</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>0</v>
@@ -3267,18 +7085,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4">
         <v>44463</v>
       </c>
       <c r="D33" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E33)=0,"error",COUNTIFS(E:E,E33))</f>
         <v>1</v>
       </c>
       <c r="G33" s="2">
@@ -3288,16 +7107,16 @@
         <v>242</v>
       </c>
       <c r="I33" s="5">
-        <v>-2.0242914979757054E-2</v>
+        <v>-2.0199999999999999E-2</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="5">
-        <v>2.0242914979757054E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="L33" s="6">
-        <v>251.99999999999997</v>
+        <v>252</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>3</v>
@@ -3344,40 +7163,41 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="4">
         <v>44463</v>
       </c>
       <c r="D34" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F34" s="6">
-        <v>2</v>
+        <f>IF(COUNTIFS([1]code表!B:B,E34)=0,"error",COUNTIFS(E:E,E34))</f>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>28.2</v>
+        <v>37.9</v>
       </c>
       <c r="H34" s="2">
-        <v>27.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I34" s="5">
-        <v>-1.4184397163120477E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="5">
-        <v>1.4184397163120477E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="L34" s="6">
-        <v>28.599999999999994</v>
+        <v>39</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N34" s="10">
         <v>0</v>
@@ -3421,40 +7241,41 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4">
         <v>44463</v>
       </c>
       <c r="D35" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E35)=0,"error",COUNTIFS(E:E,E35))</f>
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>37.9</v>
+        <v>339.3</v>
       </c>
       <c r="H35" s="2">
-        <v>36.799999999999997</v>
+        <v>338</v>
       </c>
       <c r="I35" s="5">
-        <v>-2.9023746701847042E-2</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
       </c>
       <c r="K35" s="5">
-        <v>2.9023746701847042E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="L35" s="6">
-        <v>39</v>
+        <v>340.6</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N35" s="10">
         <v>0</v>
@@ -3498,61 +7319,62 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4">
         <v>44463</v>
       </c>
       <c r="D36" s="4">
-        <v>44467</v>
+        <v>44467.999988425923</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="6">
+        <f>IF(COUNTIFS([1]code表!B:B,E36)=0,"error",COUNTIFS(E:E,E36))</f>
         <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>339.3</v>
+        <v>155</v>
       </c>
       <c r="H36" s="2">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="I36" s="5">
-        <v>-3.8314176245211051E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
       <c r="K36" s="5">
-        <v>3.8314176245211051E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="L36" s="6">
-        <v>340.6</v>
+        <v>156</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N36" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N36" s="13">
+        <v>44466.500671296293</v>
       </c>
       <c r="O36" s="11">
         <v>0</v>
       </c>
-      <c r="P36" s="10">
-        <v>0</v>
+      <c r="P36" s="15">
+        <v>44466.500674490737</v>
       </c>
       <c r="Q36" s="11">
         <v>0</v>
       </c>
       <c r="R36" s="10">
-        <v>0</v>
+        <v>154.64500000000001</v>
       </c>
       <c r="S36" s="10">
-        <v>0</v>
+        <v>3711.48</v>
       </c>
       <c r="T36" s="10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U36" s="11">
         <v>0</v>
@@ -3567,83 +7389,6 @@
         <v>0</v>
       </c>
       <c r="Y36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D37" s="4">
-        <v>44467</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>155</v>
-      </c>
-      <c r="H37" s="2">
-        <v>154</v>
-      </c>
-      <c r="I37" s="5">
-        <v>-6.4516129032258229E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>6.4516129032258229E-3</v>
-      </c>
-      <c r="L37" s="6">
-        <v>155.99999999999997</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N37" s="13">
-        <v>44466.500671296293</v>
-      </c>
-      <c r="O37" s="11">
-        <v>0</v>
-      </c>
-      <c r="P37" s="15">
-        <v>44466.500674490744</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>0</v>
-      </c>
-      <c r="R37" s="10">
-        <v>154.64500000000001</v>
-      </c>
-      <c r="S37" s="10">
-        <v>3711.4800000000005</v>
-      </c>
-      <c r="T37" s="10">
-        <v>24</v>
-      </c>
-      <c r="U37" s="11">
-        <v>0</v>
-      </c>
-      <c r="V37" s="11">
-        <v>0</v>
-      </c>
-      <c r="W37" s="12">
-        <v>0</v>
-      </c>
-      <c r="X37" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="12">
         <v>0</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F1B6E-57BA-4B37-A40B-9C233F7391E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C1814-B6C4-40AF-9A42-B488A5D54F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4553,9 +4553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A36"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4935,19 +4935,19 @@
         <v>293</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="13">
         <v>44467.424212962964</v>
       </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
-        <v>44467.42421420139</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
+      <c r="O5" s="14">
+        <v>44467.438101851854</v>
+      </c>
+      <c r="P5" s="13">
+        <v>44467.424212962964</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>44467.438106828704</v>
       </c>
       <c r="R5" s="10">
         <v>287.90499999999997</v>
@@ -4959,19 +4959,19 @@
         <v>6</v>
       </c>
       <c r="U5" s="11">
-        <v>0</v>
+        <v>286.625</v>
       </c>
       <c r="V5" s="11">
-        <v>0</v>
+        <v>1719.75</v>
       </c>
       <c r="W5" s="12">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>0</v>
+        <v>-7.68</v>
+      </c>
+      <c r="X5" s="17">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6395,7 +6395,6 @@
         <v>44</v>
       </c>
       <c r="F24" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E24)=0,"error",COUNTIFS(E:E,E24))</f>
         <v>1</v>
       </c>
       <c r="G24" s="2">
@@ -6417,19 +6416,19 @@
         <v>84.5</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="13">
         <v>44466.500567129631</v>
       </c>
-      <c r="O24" s="11">
-        <v>0</v>
-      </c>
-      <c r="P24" s="15">
-        <v>44466.500572662037</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>0</v>
+      <c r="O24" s="14">
+        <v>44467.438159722224</v>
+      </c>
+      <c r="P24" s="13">
+        <v>44466.500567129631</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>44467.438158831021</v>
       </c>
       <c r="R24" s="10">
         <v>79.754999999999995</v>
@@ -6441,19 +6440,19 @@
         <v>50</v>
       </c>
       <c r="U24" s="11">
-        <v>0</v>
+        <v>75.12</v>
       </c>
       <c r="V24" s="11">
-        <v>0</v>
+        <v>3756</v>
       </c>
       <c r="W24" s="12">
-        <v>0</v>
+        <v>-231.75</v>
       </c>
       <c r="X24" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="12">
-        <v>0</v>
+        <v>-5.8099999999999999E-2</v>
+      </c>
+      <c r="Y24" s="18">
+        <v>0.93759259259259264</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7331,7 +7330,6 @@
         <v>56</v>
       </c>
       <c r="F36" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E36)=0,"error",COUNTIFS(E:E,E36))</f>
         <v>1</v>
       </c>
       <c r="G36" s="2">
@@ -7353,19 +7351,19 @@
         <v>156</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" s="13">
         <v>44466.500671296293</v>
       </c>
-      <c r="O36" s="11">
-        <v>0</v>
-      </c>
-      <c r="P36" s="15">
-        <v>44466.500674490737</v>
-      </c>
-      <c r="Q36" s="11">
-        <v>0</v>
+      <c r="O36" s="14">
+        <v>44467.438321759262</v>
+      </c>
+      <c r="P36" s="13">
+        <v>44466.500671296293</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>44467.438319641202</v>
       </c>
       <c r="R36" s="10">
         <v>154.64500000000001</v>
@@ -7377,19 +7375,19 @@
         <v>24</v>
       </c>
       <c r="U36" s="11">
-        <v>0</v>
+        <v>151.91499999999999</v>
       </c>
       <c r="V36" s="11">
-        <v>0</v>
+        <v>3645.96</v>
       </c>
       <c r="W36" s="12">
-        <v>0</v>
+        <v>-65.52</v>
       </c>
       <c r="X36" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="12">
-        <v>0</v>
+        <v>-1.77E-2</v>
+      </c>
+      <c r="Y36" s="18">
+        <v>0.93765046296296306</v>
       </c>
     </row>
   </sheetData>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C1814-B6C4-40AF-9A42-B488A5D54F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482540DC-879A-4375-99E9-A2CAA51C15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,78 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
-  <si>
-    <t>未入场，已涨破止盈位，放弃入场</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>已入场</t>
-  </si>
-  <si>
-    <t>已止损</t>
-  </si>
-  <si>
-    <t>未入场，已跌破止损位，放弃入场</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>QQQ</t>
   </si>
   <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
     <t>IWM</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>MRNA</t>
   </si>
   <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>XLF</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>XLE</t>
-  </si>
-  <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>AFRM</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
     <t>CCL</t>
-  </si>
-  <si>
-    <t>XOP</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>序号</t>
@@ -150,12 +93,6 @@
     <t>9月28日盘前快播</t>
   </si>
   <si>
-    <t>9月27日复盘视频</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
     <t>9月27日盘前快播</t>
   </si>
   <si>
@@ -163,48 +100,6 @@
   </si>
   <si>
     <t>等待入场</t>
-  </si>
-  <si>
-    <t>TQQQ</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>9月24日盘前快播</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>EFA</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>UPST</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>NVAX</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>XLK</t>
   </si>
   <si>
     <t>入场时间</t>
@@ -243,7 +138,112 @@
     <t>持股时长</t>
   </si>
   <si>
-    <t>02:30:48</t>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日盘前快播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFLX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日复盘视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +299,12 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -351,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,19 +400,7 @@
     <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="47" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -435,6 +429,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="记录"/>
+      <sheetName val="已出场"/>
       <sheetName val="备份"/>
       <sheetName val="code表"/>
       <sheetName val="Sheet1"/>
@@ -442,7 +437,8 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="1">
           <cell r="B1" t="str">
             <v>code</v>
@@ -4224,7 +4220,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4551,11 +4547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4587,79 +4583,79 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="V1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="W1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="X1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Y1" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4667,41 +4663,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D2" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E2)=0,"error",COUNTIFS(E:E,E2))</f>
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>441.8</v>
+        <v>50.8</v>
       </c>
       <c r="H2" s="2">
-        <v>439.5</v>
+        <v>49.5</v>
       </c>
       <c r="I2" s="5">
-        <v>-5.1999999999999998E-3</v>
+        <f>H2/G2-1</f>
+        <v>-2.5590551181102317E-2</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="5">
-        <v>5.1999999999999998E-3</v>
+        <f>I2*J2</f>
+        <v>-2.5590551181102317E-2</v>
       </c>
       <c r="L2" s="6">
-        <v>444.1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
+        <f>G2*(1-K2)</f>
+        <v>52.099999999999994</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
       </c>
       <c r="N2" s="10">
         <v>0</v>
@@ -4745,62 +4744,65 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D3" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E3)=0,"error",COUNTIFS(E:E,E3))</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>779</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
-        <v>770</v>
+        <v>37.6</v>
       </c>
       <c r="I3" s="5">
-        <v>-1.1599999999999999E-2</v>
+        <f>H3/G3-1</f>
+        <v>-1.0526315789473606E-2</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>1.1599999999999999E-2</v>
+        <f t="shared" ref="K3:K12" si="0">I3*J3</f>
+        <v>-1.0526315789473606E-2</v>
       </c>
       <c r="L3" s="6">
-        <v>788</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="13">
-        <v>44467.424143518518</v>
+        <f t="shared" ref="L3:L12" si="1">G3*(1-K3)</f>
+        <v>38.4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
       </c>
       <c r="O3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="15">
-        <v>44467.424150844905</v>
+      <c r="P3" s="10">
+        <v>0</v>
       </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
       <c r="R3" s="10">
-        <v>778.625</v>
+        <v>0</v>
       </c>
       <c r="S3" s="10">
-        <v>1557.25</v>
+        <v>0</v>
       </c>
       <c r="T3" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" s="11">
         <v>0</v>
@@ -4823,41 +4825,44 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44468</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44470</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44469.999988425923</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F4" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E4)=0,"error",COUNTIFS(E:E,E4))</f>
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>142</v>
+        <v>42.7</v>
       </c>
       <c r="H4" s="2">
-        <v>141.27000000000001</v>
+        <v>41</v>
       </c>
       <c r="I4" s="5">
-        <v>-5.1000000000000004E-3</v>
+        <f>H4/G4-1</f>
+        <v>-3.9812646370023463E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
-        <v>2.5700000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.9812646370023463E-2</v>
       </c>
       <c r="L4" s="6">
-        <v>145.65</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -4901,77 +4906,80 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D5" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E5)=0,"error",COUNTIFS(E:E,E5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>290</v>
+        <v>572</v>
       </c>
       <c r="H5" s="2">
-        <v>287</v>
+        <v>560</v>
       </c>
       <c r="I5" s="5">
-        <v>-1.03E-2</v>
+        <f>H5/G5-1</f>
+        <v>-2.0979020979020935E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <v>1.03E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.0979020979020935E-2</v>
       </c>
       <c r="L5" s="6">
-        <v>293</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="13">
-        <v>44467.424212962964</v>
-      </c>
-      <c r="O5" s="14">
-        <v>44467.438101851854</v>
-      </c>
-      <c r="P5" s="13">
-        <v>44467.424212962964</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>44467.438106828704</v>
+        <f t="shared" si="1"/>
+        <v>583.99999999999989</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
       </c>
       <c r="R5" s="10">
-        <v>287.90499999999997</v>
+        <v>0</v>
       </c>
       <c r="S5" s="10">
-        <v>1727.43</v>
+        <v>0</v>
       </c>
       <c r="T5" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5" s="11">
-        <v>286.625</v>
+        <v>0</v>
       </c>
       <c r="V5" s="11">
-        <v>1719.75</v>
+        <v>0</v>
       </c>
       <c r="W5" s="12">
-        <v>-7.68</v>
-      </c>
-      <c r="X5" s="17">
-        <v>-4.4000000000000003E-3</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>1.3888888888888888E-2</v>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4979,62 +4987,65 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D6" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E6)=0,"error",COUNTIFS(E:E,E6))</f>
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="H6" s="2">
-        <v>220</v>
+        <v>206.5</v>
       </c>
       <c r="I6" s="5">
-        <v>-1.7899999999999999E-2</v>
+        <f>H6/G6-1</f>
+        <v>-2.4154589371980784E-3</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <v>1.7899999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.4154589371980784E-3</v>
       </c>
       <c r="L6" s="6">
-        <v>228</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13">
-        <v>44467.424247685187</v>
+        <f t="shared" si="1"/>
+        <v>207.5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
       </c>
       <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="15">
-        <v>44467.424251979166</v>
+      <c r="P6" s="10">
+        <v>0</v>
       </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
       <c r="R6" s="10">
-        <v>222.77500000000001</v>
+        <v>0</v>
       </c>
       <c r="S6" s="10">
-        <v>1782.2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U6" s="11">
         <v>0</v>
@@ -5057,41 +5068,44 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D7" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E7)=0,"error",COUNTIFS(E:E,E7))</f>
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>105.8</v>
+        <v>339</v>
       </c>
       <c r="H7" s="2">
-        <v>104.5</v>
+        <v>336</v>
       </c>
       <c r="I7" s="5">
-        <v>-1.23E-2</v>
+        <f>H7/G7-1</f>
+        <v>-8.8495575221239076E-3</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <v>1.23E-2</v>
+        <f t="shared" si="0"/>
+        <v>-8.8495575221239076E-3</v>
       </c>
       <c r="L7" s="6">
-        <v>107.1</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -5135,41 +5149,44 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D8" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E8)=0,"error",COUNTIFS(E:E,E8))</f>
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="I8" s="5">
-        <v>-3.3799999999999997E-2</v>
+        <f>H8/G8-1</f>
+        <v>3.5087719298245723E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <v>3.3799999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5087719298245723E-2</v>
       </c>
       <c r="L8" s="6">
-        <v>214</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>54.999999999999993</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
@@ -5213,62 +5230,65 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D9" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E9)=0,"error",COUNTIFS(E:E,E9))</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>38.4</v>
+        <v>162</v>
       </c>
       <c r="H9" s="2">
-        <v>38.1</v>
+        <v>160</v>
       </c>
       <c r="I9" s="5">
-        <v>-7.7999999999999996E-3</v>
+        <f>H9/G9-1</f>
+        <v>-1.2345679012345734E-2</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>7.7999999999999996E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.2345679012345734E-2</v>
       </c>
       <c r="L9" s="6">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="13">
-        <v>44467.429699074077</v>
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
       </c>
       <c r="O9" s="11">
         <v>0</v>
       </c>
-      <c r="P9" s="15">
-        <v>44467.429705324073</v>
+      <c r="P9" s="10">
+        <v>0</v>
       </c>
       <c r="Q9" s="11">
         <v>0</v>
       </c>
       <c r="R9" s="10">
-        <v>38.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="S9" s="10">
-        <v>1992.9</v>
+        <v>0</v>
       </c>
       <c r="T9" s="10">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="U9" s="11">
         <v>0</v>
@@ -5291,40 +5311,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D10" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F10" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E10)=0,"error",COUNTIFS(E:E,E10))</f>
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>164.6</v>
+        <v>354</v>
       </c>
       <c r="H10" s="2">
-        <v>163</v>
+        <v>351</v>
       </c>
       <c r="I10" s="5">
-        <v>-9.7000000000000003E-3</v>
+        <f>H10/G10-1</f>
+        <v>-8.4745762711864181E-3</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>9.7000000000000003E-3</v>
+        <f t="shared" si="0"/>
+        <v>-8.4745762711864181E-3</v>
       </c>
       <c r="L10" s="6">
-        <v>166.2</v>
-      </c>
-      <c r="M10" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="10">
@@ -5369,40 +5392,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D11" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E11)=0,"error",COUNTIFS(E:E,E11))</f>
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>51.85</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2">
-        <v>51</v>
+        <v>30.71</v>
       </c>
       <c r="I11" s="5">
-        <v>-1.6400000000000001E-2</v>
+        <f>H11/G11-1</f>
+        <v>-9.6764705882352864E-2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <v>1.6400000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>-9.6764705882352864E-2</v>
       </c>
       <c r="L11" s="6">
-        <v>52.7</v>
-      </c>
-      <c r="M11" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>37.29</v>
+      </c>
+      <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="10">
@@ -5447,41 +5473,44 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="D12" s="4">
-        <v>44469.999988425923</v>
+        <v>44470</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F12" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E12)=0,"error",COUNTIFS(E:E,E12))</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>42.7</v>
+        <v>113.5</v>
       </c>
       <c r="H12" s="2">
-        <v>41.5</v>
+        <v>106.5</v>
       </c>
       <c r="I12" s="5">
-        <v>-2.81E-2</v>
+        <f>H12/G12-1</f>
+        <v>-6.1674008810572722E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <v>2.81E-2</v>
+        <f t="shared" si="0"/>
+        <v>-6.1674008810572722E-2</v>
       </c>
       <c r="L12" s="6">
-        <v>43.9</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>120.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -5525,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <v>44467</v>
@@ -5534,53 +5563,56 @@
         <v>44469.999988425923</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F13" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E13)=0,"error",COUNTIFS(E:E,E13))</f>
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>58.4</v>
+        <v>220</v>
       </c>
       <c r="H13" s="2">
-        <v>57.4</v>
+        <v>218</v>
       </c>
       <c r="I13" s="5">
-        <v>-1.7100000000000001E-2</v>
+        <f>H13/G13-1</f>
+        <v>-9.0909090909090384E-3</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>1.7100000000000001E-2</v>
+        <f>I13*J13</f>
+        <v>-9.0909090909090384E-3</v>
       </c>
       <c r="L13" s="6">
-        <v>59.4</v>
+        <f>G13*(1-K13)</f>
+        <v>222</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="10">
-        <v>0</v>
+      <c r="N13" s="13">
+        <v>44467.424247685187</v>
       </c>
       <c r="O13" s="11">
         <v>0</v>
       </c>
-      <c r="P13" s="10">
-        <v>0</v>
+      <c r="P13" s="14">
+        <v>44467.424247685187</v>
       </c>
       <c r="Q13" s="11">
         <v>0</v>
       </c>
       <c r="R13" s="10">
-        <v>0</v>
+        <v>222.77500000000001</v>
       </c>
       <c r="S13" s="10">
-        <v>0</v>
+        <v>1782.2</v>
       </c>
       <c r="T13" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U13" s="11">
         <v>0</v>
@@ -5603,7 +5635,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <v>44467</v>
@@ -5612,53 +5644,56 @@
         <v>44469.999988425923</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E14)=0,"error",COUNTIFS(E:E,E14))</f>
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2">
-        <v>118.5</v>
+        <v>141.27000000000001</v>
       </c>
       <c r="I14" s="5">
-        <v>-2.87E-2</v>
+        <f t="shared" ref="I14:I17" si="2">H14/G14-1</f>
+        <v>-5.1408450704224506E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14" s="5">
-        <v>2.87E-2</v>
+        <f t="shared" ref="K14:K17" si="3">I14*J14</f>
+        <v>-2.5704225352112253E-2</v>
       </c>
       <c r="L14" s="6">
-        <v>125.5</v>
+        <f t="shared" ref="L14:L17" si="4">G14*(1-K14)</f>
+        <v>145.64999999999995</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="13">
-        <v>44467.4297337963</v>
+        <v>44467.540196759262</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
       </c>
-      <c r="P14" s="15">
-        <v>44467.429740925923</v>
+      <c r="P14" s="14">
+        <v>44467.540204467594</v>
       </c>
       <c r="Q14" s="11">
         <v>0</v>
       </c>
       <c r="R14" s="10">
-        <v>120.265</v>
+        <v>141.97499999999999</v>
       </c>
       <c r="S14" s="10">
-        <v>1924.24</v>
+        <v>1987.65</v>
       </c>
       <c r="T14" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U14" s="11">
         <v>0</v>
@@ -5681,7 +5716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <v>44467</v>
@@ -5690,53 +5725,56 @@
         <v>44469.999988425923</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E15)=0,"error",COUNTIFS(E:E,E15))</f>
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="H15" s="2">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="I15" s="5">
-        <v>-1.0800000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>-3.8834951456310662E-2</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.8834951456310662E-2</v>
       </c>
       <c r="L15" s="6">
-        <v>282</v>
+        <f t="shared" si="4"/>
+        <v>214</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>44467.470219907409</v>
       </c>
       <c r="O15" s="11">
         <v>0</v>
       </c>
-      <c r="P15" s="10">
-        <v>0</v>
+      <c r="P15" s="14">
+        <v>44467.470224537035</v>
       </c>
       <c r="Q15" s="11">
         <v>0</v>
       </c>
       <c r="R15" s="10">
-        <v>0</v>
+        <v>206.98</v>
       </c>
       <c r="S15" s="10">
-        <v>0</v>
+        <v>1862.82</v>
       </c>
       <c r="T15" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U15" s="11">
         <v>0</v>
@@ -5759,7 +5797,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
         <v>44467</v>
@@ -5768,7 +5806,7 @@
         <v>44469.999988425923</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F16" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E16)=0,"error",COUNTIFS(E:E,E16))</f>
@@ -5781,19 +5819,22 @@
         <v>25.6</v>
       </c>
       <c r="I16" s="5">
-        <v>-1.9199999999999998E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.9157088122605415E-2</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="5">
-        <v>3.8300000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.8314176245210829E-2</v>
       </c>
       <c r="L16" s="6">
-        <v>27.1</v>
+        <f t="shared" si="4"/>
+        <v>27.100000000000005</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -5837,41 +5878,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="D17" s="4">
-        <v>44469.999988425923</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E17)=0,"error",COUNTIFS(E:E,E17))</f>
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>95.77</v>
+        <v>140.5</v>
       </c>
       <c r="H17" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="I17" s="5">
-        <v>-1.8499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>-7.4733096085409234E-2</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <v>1.8499999999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.4733096085409234E-2</v>
       </c>
       <c r="L17" s="6">
-        <v>97.54</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>150.99999999999997</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="N17" s="10">
         <v>0</v>
@@ -5908,1486 +5952,6 @@
       </c>
       <c r="Y17" s="12">
         <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D18" s="4">
-        <v>44469.999988425923</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E18)=0,"error",COUNTIFS(E:E,E18))</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>71.7</v>
-      </c>
-      <c r="H18" s="2">
-        <v>71</v>
-      </c>
-      <c r="I18" s="5">
-        <v>-9.7999999999999997E-3</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="L18" s="6">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <v>0</v>
-      </c>
-      <c r="U18" s="11">
-        <v>0</v>
-      </c>
-      <c r="V18" s="11">
-        <v>0</v>
-      </c>
-      <c r="W18" s="12">
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D19" s="4">
-        <v>44469.999988425923</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E19)=0,"error",COUNTIFS(E:E,E19))</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>27.1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>-2.2100000000000002E-2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="L19" s="6">
-        <v>27.7</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <v>0</v>
-      </c>
-      <c r="U19" s="11">
-        <v>0</v>
-      </c>
-      <c r="V19" s="11">
-        <v>0</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D20" s="4">
-        <v>44468.999988425923</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E20)=0,"error",COUNTIFS(E:E,E20))</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>371</v>
-      </c>
-      <c r="H20" s="2">
-        <v>369</v>
-      </c>
-      <c r="I20" s="5">
-        <v>-5.4000000000000003E-3</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="L20" s="6">
-        <v>373</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="13">
-        <v>44466.395995370367</v>
-      </c>
-      <c r="O20" s="14">
-        <v>44466.500717592593</v>
-      </c>
-      <c r="P20" s="15">
-        <v>44466.395994317128</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>44466.500717939824</v>
-      </c>
-      <c r="R20" s="10">
-        <v>370.43</v>
-      </c>
-      <c r="S20" s="10">
-        <v>1852.15</v>
-      </c>
-      <c r="T20" s="10">
-        <v>5</v>
-      </c>
-      <c r="U20" s="11">
-        <v>368.93</v>
-      </c>
-      <c r="V20" s="11">
-        <v>1844.65</v>
-      </c>
-      <c r="W20" s="12">
-        <v>-7.5</v>
-      </c>
-      <c r="X20" s="17">
-        <v>-4.0493480549631507E-3</v>
-      </c>
-      <c r="Y20" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D21" s="4">
-        <v>44469.999988425923</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E21)=0,"error",COUNTIFS(E:E,E21))</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>406</v>
-      </c>
-      <c r="H21" s="2">
-        <v>394</v>
-      </c>
-      <c r="I21" s="5">
-        <v>-2.9600000000000001E-2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="L21" s="6">
-        <v>418</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="13">
-        <v>44466.557013888887</v>
-      </c>
-      <c r="O21" s="14">
-        <v>44467.424560185187</v>
-      </c>
-      <c r="P21" s="15">
-        <v>44466.557020335647</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>44467.424558368053</v>
-      </c>
-      <c r="R21" s="10">
-        <v>410.24</v>
-      </c>
-      <c r="S21" s="10">
-        <v>1640.96</v>
-      </c>
-      <c r="T21" s="10">
-        <v>4</v>
-      </c>
-      <c r="U21" s="11">
-        <v>380.28</v>
-      </c>
-      <c r="V21" s="11">
-        <v>1521.12</v>
-      </c>
-      <c r="W21" s="12">
-        <v>-119.84</v>
-      </c>
-      <c r="X21" s="17">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="Y21" s="18">
-        <v>0.86754629629629632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D22" s="4">
-        <v>44468.999988425923</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E22)=0,"error",COUNTIFS(E:E,E22))</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>140.5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>130</v>
-      </c>
-      <c r="I22" s="5">
-        <v>-7.4700000000000003E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="L22" s="6">
-        <v>151</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>0</v>
-      </c>
-      <c r="R22" s="10">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0</v>
-      </c>
-      <c r="U22" s="11">
-        <v>0</v>
-      </c>
-      <c r="V22" s="11">
-        <v>0</v>
-      </c>
-      <c r="W22" s="12">
-        <v>0</v>
-      </c>
-      <c r="X22" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D23" s="4">
-        <v>44468.999988425923</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E23)=0,"error",COUNTIFS(E:E,E23))</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>136.55000000000001</v>
-      </c>
-      <c r="H23" s="2">
-        <v>133.5</v>
-      </c>
-      <c r="I23" s="5">
-        <v>-2.23E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
-        <v>2.23E-2</v>
-      </c>
-      <c r="L23" s="6">
-        <v>139.6</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>0</v>
-      </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
-        <v>0</v>
-      </c>
-      <c r="U23" s="11">
-        <v>0</v>
-      </c>
-      <c r="V23" s="11">
-        <v>0</v>
-      </c>
-      <c r="W23" s="12">
-        <v>0</v>
-      </c>
-      <c r="X23" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D24" s="4">
-        <v>44468.999988425923</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>80.5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>79.5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>-1.24E-2</v>
-      </c>
-      <c r="J24" s="2">
-        <v>4</v>
-      </c>
-      <c r="K24" s="5">
-        <v>4.9700000000000001E-2</v>
-      </c>
-      <c r="L24" s="6">
-        <v>84.5</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="13">
-        <v>44466.500567129631</v>
-      </c>
-      <c r="O24" s="14">
-        <v>44467.438159722224</v>
-      </c>
-      <c r="P24" s="13">
-        <v>44466.500567129631</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>44467.438158831021</v>
-      </c>
-      <c r="R24" s="10">
-        <v>79.754999999999995</v>
-      </c>
-      <c r="S24" s="10">
-        <v>3987.75</v>
-      </c>
-      <c r="T24" s="10">
-        <v>50</v>
-      </c>
-      <c r="U24" s="11">
-        <v>75.12</v>
-      </c>
-      <c r="V24" s="11">
-        <v>3756</v>
-      </c>
-      <c r="W24" s="12">
-        <v>-231.75</v>
-      </c>
-      <c r="X24" s="17">
-        <v>-5.8099999999999999E-2</v>
-      </c>
-      <c r="Y24" s="18">
-        <v>0.93759259259259264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D25" s="4">
-        <v>44468.999988425923</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E25)=0,"error",COUNTIFS(E:E,E25))</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>616.20000000000005</v>
-      </c>
-      <c r="H25" s="2">
-        <v>604</v>
-      </c>
-      <c r="I25" s="5">
-        <v>-1.9800000000000002E-2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <v>628.4</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>0</v>
-      </c>
-      <c r="R25" s="10">
-        <v>0</v>
-      </c>
-      <c r="S25" s="10">
-        <v>0</v>
-      </c>
-      <c r="T25" s="10">
-        <v>0</v>
-      </c>
-      <c r="U25" s="11">
-        <v>0</v>
-      </c>
-      <c r="V25" s="11">
-        <v>0</v>
-      </c>
-      <c r="W25" s="12">
-        <v>0</v>
-      </c>
-      <c r="X25" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D26" s="4">
-        <v>44468.999988425923</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E26)=0,"error",COUNTIFS(E:E,E26))</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>461</v>
-      </c>
-      <c r="H26" s="2">
-        <v>459</v>
-      </c>
-      <c r="I26" s="5">
-        <v>-4.3E-3</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <v>4.3E-3</v>
-      </c>
-      <c r="L26" s="6">
-        <v>463</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" s="13">
-        <v>44466.500601851847</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0</v>
-      </c>
-      <c r="P26" s="15">
-        <v>44466.500610682873</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>0</v>
-      </c>
-      <c r="R26" s="10">
-        <v>459.21</v>
-      </c>
-      <c r="S26" s="10">
-        <v>1836.84</v>
-      </c>
-      <c r="T26" s="10">
-        <v>4</v>
-      </c>
-      <c r="U26" s="11">
-        <v>458.90089999999998</v>
-      </c>
-      <c r="V26" s="11">
-        <v>1835.6035999999999</v>
-      </c>
-      <c r="W26" s="12">
-        <v>-1.2364000000000031</v>
-      </c>
-      <c r="X26" s="17">
-        <v>-6.7311251932667153E-4</v>
-      </c>
-      <c r="Y26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D27" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E27)=0,"error",COUNTIFS(E:E,E27))</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>342</v>
-      </c>
-      <c r="H27" s="2">
-        <v>340.69</v>
-      </c>
-      <c r="I27" s="5">
-        <v>-3.8E-3</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5">
-        <v>3.8E-3</v>
-      </c>
-      <c r="L27" s="6">
-        <v>343.31</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>0</v>
-      </c>
-      <c r="R27" s="10">
-        <v>0</v>
-      </c>
-      <c r="S27" s="10">
-        <v>0</v>
-      </c>
-      <c r="T27" s="10">
-        <v>0</v>
-      </c>
-      <c r="U27" s="11">
-        <v>0</v>
-      </c>
-      <c r="V27" s="11">
-        <v>0</v>
-      </c>
-      <c r="W27" s="12">
-        <v>0</v>
-      </c>
-      <c r="X27" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D28" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E28)=0,"error",COUNTIFS(E:E,E28))</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>80.5</v>
-      </c>
-      <c r="H28" s="2">
-        <v>80.2</v>
-      </c>
-      <c r="I28" s="5">
-        <v>-3.7000000000000002E-3</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="L28" s="6">
-        <v>80.8</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" s="10">
-        <v>0</v>
-      </c>
-      <c r="O28" s="11">
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>0</v>
-      </c>
-      <c r="R28" s="10">
-        <v>0</v>
-      </c>
-      <c r="S28" s="10">
-        <v>0</v>
-      </c>
-      <c r="T28" s="10">
-        <v>0</v>
-      </c>
-      <c r="U28" s="11">
-        <v>0</v>
-      </c>
-      <c r="V28" s="11">
-        <v>0</v>
-      </c>
-      <c r="W28" s="12">
-        <v>0</v>
-      </c>
-      <c r="X28" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D29" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E29)=0,"error",COUNTIFS(E:E,E29))</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>262.39999999999998</v>
-      </c>
-      <c r="H29" s="2">
-        <v>260.7</v>
-      </c>
-      <c r="I29" s="5">
-        <v>-6.4999999999999997E-3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="L29" s="6">
-        <v>264.10000000000002</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
-      <c r="O29" s="11">
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="11">
-        <v>0</v>
-      </c>
-      <c r="R29" s="10">
-        <v>0</v>
-      </c>
-      <c r="S29" s="10">
-        <v>0</v>
-      </c>
-      <c r="T29" s="10">
-        <v>0</v>
-      </c>
-      <c r="U29" s="11">
-        <v>0</v>
-      </c>
-      <c r="V29" s="11">
-        <v>0</v>
-      </c>
-      <c r="W29" s="12">
-        <v>0</v>
-      </c>
-      <c r="X29" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D30" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E30)=0,"error",COUNTIFS(E:E,E30))</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>216</v>
-      </c>
-      <c r="H30" s="2">
-        <v>214</v>
-      </c>
-      <c r="I30" s="5">
-        <v>-9.2999999999999992E-3</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="L30" s="6">
-        <v>218</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>0</v>
-      </c>
-      <c r="R30" s="10">
-        <v>0</v>
-      </c>
-      <c r="S30" s="10">
-        <v>0</v>
-      </c>
-      <c r="T30" s="10">
-        <v>0</v>
-      </c>
-      <c r="U30" s="11">
-        <v>0</v>
-      </c>
-      <c r="V30" s="11">
-        <v>0</v>
-      </c>
-      <c r="W30" s="12">
-        <v>0</v>
-      </c>
-      <c r="X30" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D31" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E31)=0,"error",COUNTIFS(E:E,E31))</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>327.39999999999998</v>
-      </c>
-      <c r="H31" s="2">
-        <v>323.39999999999998</v>
-      </c>
-      <c r="I31" s="5">
-        <v>-1.2200000000000001E-2</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="L31" s="6">
-        <v>331.4</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" s="10">
-        <v>0</v>
-      </c>
-      <c r="O31" s="11">
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>0</v>
-      </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10">
-        <v>0</v>
-      </c>
-      <c r="T31" s="10">
-        <v>0</v>
-      </c>
-      <c r="U31" s="11">
-        <v>0</v>
-      </c>
-      <c r="V31" s="11">
-        <v>0</v>
-      </c>
-      <c r="W31" s="12">
-        <v>0</v>
-      </c>
-      <c r="X31" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D32" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E32)=0,"error",COUNTIFS(E:E,E32))</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>345</v>
-      </c>
-      <c r="H32" s="2">
-        <v>343</v>
-      </c>
-      <c r="I32" s="5">
-        <v>-5.7999999999999996E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="L32" s="6">
-        <v>347</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
-      <c r="P32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>0</v>
-      </c>
-      <c r="R32" s="10">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10">
-        <v>0</v>
-      </c>
-      <c r="T32" s="10">
-        <v>0</v>
-      </c>
-      <c r="U32" s="11">
-        <v>0</v>
-      </c>
-      <c r="V32" s="11">
-        <v>0</v>
-      </c>
-      <c r="W32" s="12">
-        <v>0</v>
-      </c>
-      <c r="X32" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D33" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E33)=0,"error",COUNTIFS(E:E,E33))</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>247</v>
-      </c>
-      <c r="H33" s="2">
-        <v>242</v>
-      </c>
-      <c r="I33" s="5">
-        <v>-2.0199999999999999E-2</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="L33" s="6">
-        <v>252</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
-      <c r="O33" s="11">
-        <v>0</v>
-      </c>
-      <c r="P33" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>0</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10">
-        <v>0</v>
-      </c>
-      <c r="T33" s="10">
-        <v>0</v>
-      </c>
-      <c r="U33" s="11">
-        <v>0</v>
-      </c>
-      <c r="V33" s="11">
-        <v>0</v>
-      </c>
-      <c r="W33" s="12">
-        <v>0</v>
-      </c>
-      <c r="X33" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D34" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E34)=0,"error",COUNTIFS(E:E,E34))</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>37.9</v>
-      </c>
-      <c r="H34" s="2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="I34" s="5">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="L34" s="6">
-        <v>39</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-      <c r="O34" s="11">
-        <v>0</v>
-      </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>0</v>
-      </c>
-      <c r="R34" s="10">
-        <v>0</v>
-      </c>
-      <c r="S34" s="10">
-        <v>0</v>
-      </c>
-      <c r="T34" s="10">
-        <v>0</v>
-      </c>
-      <c r="U34" s="11">
-        <v>0</v>
-      </c>
-      <c r="V34" s="11">
-        <v>0</v>
-      </c>
-      <c r="W34" s="12">
-        <v>0</v>
-      </c>
-      <c r="X34" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D35" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E35)=0,"error",COUNTIFS(E:E,E35))</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>339.3</v>
-      </c>
-      <c r="H35" s="2">
-        <v>338</v>
-      </c>
-      <c r="I35" s="5">
-        <v>-3.8E-3</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5">
-        <v>3.8E-3</v>
-      </c>
-      <c r="L35" s="6">
-        <v>340.6</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-      <c r="O35" s="11">
-        <v>0</v>
-      </c>
-      <c r="P35" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="11">
-        <v>0</v>
-      </c>
-      <c r="R35" s="10">
-        <v>0</v>
-      </c>
-      <c r="S35" s="10">
-        <v>0</v>
-      </c>
-      <c r="T35" s="10">
-        <v>0</v>
-      </c>
-      <c r="U35" s="11">
-        <v>0</v>
-      </c>
-      <c r="V35" s="11">
-        <v>0</v>
-      </c>
-      <c r="W35" s="12">
-        <v>0</v>
-      </c>
-      <c r="X35" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D36" s="4">
-        <v>44467.999988425923</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>155</v>
-      </c>
-      <c r="H36" s="2">
-        <v>154</v>
-      </c>
-      <c r="I36" s="5">
-        <v>-6.4999999999999997E-3</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="L36" s="6">
-        <v>156</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N36" s="13">
-        <v>44466.500671296293</v>
-      </c>
-      <c r="O36" s="14">
-        <v>44467.438321759262</v>
-      </c>
-      <c r="P36" s="13">
-        <v>44466.500671296293</v>
-      </c>
-      <c r="Q36" s="16">
-        <v>44467.438319641202</v>
-      </c>
-      <c r="R36" s="10">
-        <v>154.64500000000001</v>
-      </c>
-      <c r="S36" s="10">
-        <v>3711.48</v>
-      </c>
-      <c r="T36" s="10">
-        <v>24</v>
-      </c>
-      <c r="U36" s="11">
-        <v>151.91499999999999</v>
-      </c>
-      <c r="V36" s="11">
-        <v>3645.96</v>
-      </c>
-      <c r="W36" s="12">
-        <v>-65.52</v>
-      </c>
-      <c r="X36" s="17">
-        <v>-1.77E-2</v>
-      </c>
-      <c r="Y36" s="18">
-        <v>0.93765046296296306</v>
       </c>
     </row>
   </sheetData>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482540DC-879A-4375-99E9-A2CAA51C15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAE5BC-9AEC-4D5C-8821-6DA36B1557EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>已入场</t>
   </si>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>DIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4547,37 +4543,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.75" style="12" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
@@ -4685,7 +4681,7 @@
         <v>49.5</v>
       </c>
       <c r="I2" s="5">
-        <f>H2/G2-1</f>
+        <f>IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
         <v>-2.5590551181102317E-2</v>
       </c>
       <c r="J2" s="2">
@@ -4766,18 +4762,18 @@
         <v>37.6</v>
       </c>
       <c r="I3" s="5">
-        <f>H3/G3-1</f>
+        <f t="shared" ref="I3:I16" si="0">IF(H3/G3-1&gt;0,"error",H3/G3-1)</f>
         <v>-1.0526315789473606E-2</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K12" si="0">I3*J3</f>
+        <f t="shared" ref="K3:K11" si="1">I3*J3</f>
         <v>-1.0526315789473606E-2</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" ref="L3:L12" si="1">G3*(1-K3)</f>
+        <f t="shared" ref="L3:L11" si="2">G3*(1-K3)</f>
         <v>38.4</v>
       </c>
       <c r="M3" s="2">
@@ -4847,18 +4843,18 @@
         <v>41</v>
       </c>
       <c r="I4" s="5">
-        <f>H4/G4-1</f>
+        <f t="shared" si="0"/>
         <v>-3.9812646370023463E-2</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.9812646370023463E-2</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.400000000000006</v>
       </c>
       <c r="M4" s="2">
@@ -4928,18 +4924,18 @@
         <v>560</v>
       </c>
       <c r="I5" s="5">
-        <f>H5/G5-1</f>
+        <f t="shared" si="0"/>
         <v>-2.0979020979020935E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0979020979020935E-2</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>583.99999999999989</v>
       </c>
       <c r="M5" s="2">
@@ -5009,18 +5005,18 @@
         <v>206.5</v>
       </c>
       <c r="I6" s="5">
-        <f>H6/G6-1</f>
+        <f t="shared" si="0"/>
         <v>-2.4154589371980784E-3</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.4154589371980784E-3</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>207.5</v>
       </c>
       <c r="M6" s="2">
@@ -5090,18 +5086,18 @@
         <v>336</v>
       </c>
       <c r="I7" s="5">
-        <f>H7/G7-1</f>
+        <f t="shared" si="0"/>
         <v>-8.8495575221239076E-3</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.8495575221239076E-3</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="M7" s="2">
@@ -5165,25 +5161,25 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="H8" s="2">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="I8" s="5">
-        <f>H8/G8-1</f>
-        <v>3.5087719298245723E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.2345679012345734E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>3.5087719298245723E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.2345679012345734E-2</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="1"/>
-        <v>54.999999999999993</v>
+        <f t="shared" si="2"/>
+        <v>164</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -5230,7 +5226,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>44468</v>
@@ -5239,32 +5235,32 @@
         <v>44470</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E9)=0,"error",COUNTIFS(E:E,E9))</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>162</v>
+        <v>354</v>
       </c>
       <c r="H9" s="2">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="I9" s="5">
-        <f>H9/G9-1</f>
-        <v>-1.2345679012345734E-2</v>
+        <f t="shared" si="0"/>
+        <v>-8.4745762711864181E-3</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2345679012345734E-2</v>
+        <f t="shared" si="1"/>
+        <v>-8.4745762711864181E-3</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="1"/>
-        <v>164</v>
+        <f t="shared" si="2"/>
+        <v>357</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -5311,7 +5307,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>44468</v>
@@ -5327,25 +5323,25 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>354</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2">
-        <v>351</v>
+        <v>30.71</v>
       </c>
       <c r="I10" s="5">
-        <f>H10/G10-1</f>
-        <v>-8.4745762711864181E-3</v>
+        <f t="shared" si="0"/>
+        <v>-9.6764705882352864E-2</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.4745762711864181E-3</v>
+        <f t="shared" si="1"/>
+        <v>-9.6764705882352864E-2</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="1"/>
-        <v>357</v>
+        <f t="shared" si="2"/>
+        <v>37.29</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -5392,7 +5388,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4">
         <v>44468</v>
@@ -5408,25 +5404,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>34</v>
+        <v>113.5</v>
       </c>
       <c r="H11" s="2">
-        <v>30.71</v>
+        <v>106.5</v>
       </c>
       <c r="I11" s="5">
-        <f>H11/G11-1</f>
-        <v>-9.6764705882352864E-2</v>
+        <f t="shared" si="0"/>
+        <v>-6.1674008810572722E-2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.6764705882352864E-2</v>
+        <f t="shared" si="1"/>
+        <v>-6.1674008810572722E-2</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="1"/>
-        <v>37.29</v>
+        <f t="shared" si="2"/>
+        <v>120.5</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -5473,65 +5469,65 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="D12" s="4">
-        <v>44470</v>
+        <v>44469.999988425923</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F12" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E12)=0,"error",COUNTIFS(E:E,E12))</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>113.5</v>
+        <v>220</v>
       </c>
       <c r="H12" s="2">
-        <v>106.5</v>
+        <v>218</v>
       </c>
       <c r="I12" s="5">
-        <f>H12/G12-1</f>
-        <v>-6.1674008810572722E-2</v>
+        <f t="shared" si="0"/>
+        <v>-9.0909090909090384E-3</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.1674008810572722E-2</v>
+        <f>I12*J12</f>
+        <v>-9.0909090909090384E-3</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="1"/>
-        <v>120.5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
+        <f>G12*(1-K12)</f>
+        <v>222</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>44467.424247685187</v>
       </c>
       <c r="O12" s="11">
         <v>0</v>
       </c>
-      <c r="P12" s="10">
-        <v>0</v>
+      <c r="P12" s="14">
+        <v>44467.424247685187</v>
       </c>
       <c r="Q12" s="11">
         <v>0</v>
       </c>
       <c r="R12" s="10">
-        <v>0</v>
+        <v>222.77500000000001</v>
       </c>
       <c r="S12" s="10">
-        <v>0</v>
+        <v>1782.2</v>
       </c>
       <c r="T12" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U12" s="11">
         <v>0</v>
@@ -5563,56 +5559,56 @@
         <v>44469.999988425923</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E13)=0,"error",COUNTIFS(E:E,E13))</f>
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="H13" s="2">
-        <v>218</v>
+        <v>141.27000000000001</v>
       </c>
       <c r="I13" s="5">
-        <f>H13/G13-1</f>
-        <v>-9.0909090909090384E-3</v>
+        <f t="shared" si="0"/>
+        <v>-5.1408450704224506E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" s="5">
-        <f>I13*J13</f>
-        <v>-9.0909090909090384E-3</v>
+        <f t="shared" ref="K13:K16" si="3">I13*J13</f>
+        <v>-2.5704225352112253E-2</v>
       </c>
       <c r="L13" s="6">
-        <f>G13*(1-K13)</f>
-        <v>222</v>
+        <f t="shared" ref="L13:L16" si="4">G13*(1-K13)</f>
+        <v>145.64999999999995</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="13">
-        <v>44467.424247685187</v>
+        <v>44467.540196759262</v>
       </c>
       <c r="O13" s="11">
         <v>0</v>
       </c>
       <c r="P13" s="14">
-        <v>44467.424247685187</v>
+        <v>44467.540204467594</v>
       </c>
       <c r="Q13" s="11">
         <v>0</v>
       </c>
       <c r="R13" s="10">
-        <v>222.77500000000001</v>
+        <v>141.97499999999999</v>
       </c>
       <c r="S13" s="10">
-        <v>1782.2</v>
+        <v>1987.65</v>
       </c>
       <c r="T13" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U13" s="11">
         <v>0</v>
@@ -5644,56 +5640,56 @@
         <v>44469.999988425923</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E14)=0,"error",COUNTIFS(E:E,E14))</f>
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="H14" s="2">
-        <v>141.27000000000001</v>
+        <v>198</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ref="I14:I17" si="2">H14/G14-1</f>
-        <v>-5.1408450704224506E-3</v>
+        <f t="shared" si="0"/>
+        <v>-3.8834951456310662E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:K17" si="3">I14*J14</f>
-        <v>-2.5704225352112253E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.8834951456310662E-2</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" ref="L14:L17" si="4">G14*(1-K14)</f>
-        <v>145.64999999999995</v>
+        <f t="shared" si="4"/>
+        <v>214</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="13">
-        <v>44467.540196759262</v>
+        <v>44467.470219907409</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
       </c>
       <c r="P14" s="14">
-        <v>44467.540204467594</v>
+        <v>44467.470224537035</v>
       </c>
       <c r="Q14" s="11">
         <v>0</v>
       </c>
       <c r="R14" s="10">
-        <v>141.97499999999999</v>
+        <v>206.98</v>
       </c>
       <c r="S14" s="10">
-        <v>1987.65</v>
+        <v>1862.82</v>
       </c>
       <c r="T14" s="10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U14" s="11">
         <v>0</v>
@@ -5725,56 +5721,56 @@
         <v>44469.999988425923</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E15)=0,"error",COUNTIFS(E:E,E15))</f>
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>206</v>
+        <v>26.1</v>
       </c>
       <c r="H15" s="2">
-        <v>198</v>
+        <v>25.6</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.8834951456310662E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.9157088122605415E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="3"/>
-        <v>-3.8834951456310662E-2</v>
+        <v>-3.8314176245210829E-2</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="4"/>
-        <v>214</v>
+        <v>27.100000000000005</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>44467.470219907409</v>
+        <v>21</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
       </c>
       <c r="O15" s="11">
         <v>0</v>
       </c>
-      <c r="P15" s="14">
-        <v>44467.470224537035</v>
+      <c r="P15" s="10">
+        <v>0</v>
       </c>
       <c r="Q15" s="11">
         <v>0</v>
       </c>
       <c r="R15" s="10">
-        <v>206.98</v>
+        <v>0</v>
       </c>
       <c r="S15" s="10">
-        <v>1862.82</v>
+        <v>0</v>
       </c>
       <c r="T15" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U15" s="11">
         <v>0</v>
@@ -5797,43 +5793,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="D16" s="4">
-        <v>44469.999988425923</v>
+        <v>44468.999988425923</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6">
         <f>IF(COUNTIFS([1]code表!B:B,E16)=0,"error",COUNTIFS(E:E,E16))</f>
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>26.1</v>
+        <v>140.5</v>
       </c>
       <c r="H16" s="2">
-        <v>25.6</v>
+        <v>130</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.9157088122605415E-2</v>
+        <f t="shared" si="0"/>
+        <v>-7.4733096085409234E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="3"/>
-        <v>-3.8314176245210829E-2</v>
+        <v>-7.4733096085409234E-2</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="4"/>
-        <v>27.100000000000005</v>
-      </c>
-      <c r="M16" s="2" t="s">
+        <v>150.99999999999997</v>
+      </c>
+      <c r="M16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="10">
@@ -5870,87 +5866,6 @@
         <v>0</v>
       </c>
       <c r="Y16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D17" s="4">
-        <v>44468.999988425923</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="6">
-        <f>IF(COUNTIFS([1]code表!B:B,E17)=0,"error",COUNTIFS(E:E,E17))</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>140.5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>130</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="2"/>
-        <v>-7.4733096085409234E-2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="3"/>
-        <v>-7.4733096085409234E-2</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="4"/>
-        <v>150.99999999999997</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="10">
-        <v>0</v>
-      </c>
-      <c r="S17" s="10">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <v>0</v>
-      </c>
-      <c r="V17" s="11">
-        <v>0</v>
-      </c>
-      <c r="W17" s="12">
-        <v>0</v>
-      </c>
-      <c r="X17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="12">
         <v>0</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAE5BC-9AEC-4D5C-8821-6DA36B1557EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94331E6F-441A-4B7F-82ED-E8FF1FB45257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>已入场</t>
   </si>
@@ -42,52 +42,13 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>IWM</t>
-  </si>
-  <si>
     <t>NVDA</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>序号</t>
   </si>
   <si>
     <t>出处</t>
   </si>
   <si>
-    <t>开始日期</t>
-  </si>
-  <si>
-    <t>结束日期</t>
-  </si>
-  <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>记录数</t>
-  </si>
-  <si>
-    <t>入场位</t>
-  </si>
-  <si>
-    <t>止损位</t>
-  </si>
-  <si>
-    <t>止损比例</t>
-  </si>
-  <si>
-    <t>设置盈亏比</t>
-  </si>
-  <si>
-    <t>止盈比例</t>
-  </si>
-  <si>
-    <t>止盈位</t>
-  </si>
-  <si>
-    <t>机器人标记状态</t>
   </si>
   <si>
     <t>9月28日盘前快播</t>
@@ -100,42 +61,6 @@
   </si>
   <si>
     <t>等待入场</t>
-  </si>
-  <si>
-    <t>入场时间</t>
-  </si>
-  <si>
-    <t>出场时间</t>
-  </si>
-  <si>
-    <t>入场单号</t>
-  </si>
-  <si>
-    <t>出场单号</t>
-  </si>
-  <si>
-    <t>成本价</t>
-  </si>
-  <si>
-    <t>成本金额</t>
-  </si>
-  <si>
-    <t>股数</t>
-  </si>
-  <si>
-    <t>出场价</t>
-  </si>
-  <si>
-    <t>出场金额</t>
-  </si>
-  <si>
-    <t>收益金额</t>
-  </si>
-  <si>
-    <t>收益率</t>
-  </si>
-  <si>
-    <t>持股时长</t>
   </si>
   <si>
     <r>
@@ -174,27 +99,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XLF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BAC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NFLX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JPM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,8 +147,399 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入场位</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>止损位</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>止损比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置盈亏比</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>止盈比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>止盈位</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机器人标记状态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入场时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出场时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入场单号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出场单号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成本价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成本金额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出场价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出场金额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收益金额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收益率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>持股时长</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日盘前快播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日复盘视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月29日盘前快播</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>9月28日复盘视频</t>
+  </si>
+  <si>
     <t>AFRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等待入场</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -353,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,9 +663,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,15 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -399,7 +687,13 @@
     <xf numFmtId="47" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,9 +725,9 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="B1" t="str">
@@ -4216,7 +4510,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4543,115 +4837,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="8" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="N1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="O1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="P1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Q1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="R1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="S1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="T1" s="11" t="s">
         <v>33</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4659,79 +4953,79 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44470</v>
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44473</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E2)=0,"error",COUNTIFS(E:E,E2))</f>
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>50.8</v>
+        <v>433</v>
       </c>
       <c r="H2" s="2">
-        <v>49.5</v>
-      </c>
-      <c r="I2" s="5">
+        <v>428.8</v>
+      </c>
+      <c r="I2" s="4">
         <f>IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
-        <v>-2.5590551181102317E-2</v>
+        <v>-9.6997690531177572E-3</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
-        <f>I2*J2</f>
-        <v>-2.5590551181102317E-2</v>
-      </c>
-      <c r="L2" s="6">
-        <f>G2*(1-K2)</f>
-        <v>52.099999999999994</v>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:K19" si="0">I2*J2</f>
+        <v>-9.6997690531177572E-3</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" ref="L2:L19" si="1">G2*(1-K2)</f>
+        <v>437.2</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
-        <v>0</v>
-      </c>
-      <c r="W2" s="12">
-        <v>0</v>
-      </c>
-      <c r="X2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="12">
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4740,79 +5034,79 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44470</v>
+        <v>39</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44473</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="6">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E3)=0,"error",COUNTIFS(E:E,E3))</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="H3" s="2">
-        <v>37.6</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I16" si="0">IF(H3/G3-1&gt;0,"error",H3/G3-1)</f>
-        <v>-1.0526315789473606E-2</v>
+        <v>351.69</v>
+      </c>
+      <c r="I3" s="4">
+        <f>IF(H3/G3-1&gt;0,"error",H3/G3-1)</f>
+        <v>-6.5254237288135952E-3</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K11" si="1">I3*J3</f>
-        <v>-1.0526315789473606E-2</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L11" si="2">G3*(1-K3)</f>
-        <v>38.4</v>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.5254237288135952E-3</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="1"/>
+        <v>356.31000000000006</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0</v>
-      </c>
-      <c r="W3" s="12">
-        <v>0</v>
-      </c>
-      <c r="X3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="12">
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4821,79 +5115,79 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44470</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44473</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E4)=0,"error",COUNTIFS(E:E,E4))</f>
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>42.7</v>
+        <v>97.2</v>
       </c>
       <c r="H4" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.9812646370023463E-2</v>
+        <v>96</v>
+      </c>
+      <c r="I4" s="4">
+        <f>IF(H4/G4-1&gt;0,"error",H4/G4-1)</f>
+        <v>-1.2345679012345734E-2</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.2345679012345734E-2</v>
+      </c>
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9812646370023463E-2</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" si="2"/>
-        <v>44.400000000000006</v>
+        <v>98.4</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0</v>
-      </c>
-      <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="12">
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4902,79 +5196,79 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44470</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44473</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E5)=0,"error",COUNTIFS(E:E,E5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="H5" s="2">
-        <v>560</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.0979020979020935E-2</v>
+        <v>583</v>
+      </c>
+      <c r="I5" s="4">
+        <f>IF(H5/G5-1&gt;0,"error",H5/G5-1)</f>
+        <v>-1.5202702702702742E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5202702702702742E-2</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
-        <v>-2.0979020979020935E-2</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" si="2"/>
-        <v>583.99999999999989</v>
+        <v>601</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0</v>
-      </c>
-      <c r="W5" s="12">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4983,79 +5277,79 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44470</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44473</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E6)=0,"error",COUNTIFS(E:E,E6))</f>
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>207</v>
+        <v>52.2</v>
       </c>
       <c r="H6" s="2">
-        <v>206.5</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.4154589371980784E-3</v>
+        <v>51.4</v>
+      </c>
+      <c r="I6" s="4">
+        <f>IF(H6/G6-1&gt;0,"error",H6/G6-1)</f>
+        <v>-1.5325670498084421E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5325670498084421E-2</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
-        <v>-2.4154589371980784E-3</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="2"/>
-        <v>207.5</v>
+        <v>53.000000000000007</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
-      <c r="W6" s="12">
-        <v>0</v>
-      </c>
-      <c r="X6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="12">
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5064,79 +5358,79 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44470</v>
+        <v>39</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44473</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E7)=0,"error",COUNTIFS(E:E,E7))</f>
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="H7" s="2">
-        <v>336</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.8495575221239076E-3</v>
+        <v>289</v>
+      </c>
+      <c r="I7" s="4">
+        <f>IF(H7/G7-1&gt;0,"error",H7/G7-1)</f>
+        <v>-3.6666666666666625E-2</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.6666666666666625E-2</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="1"/>
-        <v>-8.8495575221239076E-3</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="2"/>
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="11">
-        <v>0</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
-      <c r="W7" s="12">
-        <v>0</v>
-      </c>
-      <c r="X7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="12">
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5145,79 +5439,79 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44470</v>
+        <v>43</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44473</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E8)=0,"error",COUNTIFS(E:E,E8))</f>
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="H8" s="2">
-        <v>160</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.2345679012345734E-2</v>
+        <v>218</v>
+      </c>
+      <c r="I8" s="4">
+        <f>IF(H8/G8-1&gt;0,"error",H8/G8-1)</f>
+        <v>-9.0909090909090384E-3</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.0909090909090384E-3</v>
+      </c>
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
-        <v>-1.2345679012345734E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="2"/>
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-      <c r="W8" s="12">
-        <v>0</v>
-      </c>
-      <c r="X8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="12">
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5226,79 +5520,79 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44470</v>
+        <v>43</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44473</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E9)=0,"error",COUNTIFS(E:E,E9))</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>354</v>
+        <v>108.5</v>
       </c>
       <c r="H9" s="2">
-        <v>351</v>
-      </c>
-      <c r="I9" s="5">
+        <v>108</v>
+      </c>
+      <c r="I9" s="4">
+        <f>IF(H9/G9-1&gt;0,"error",H9/G9-1)</f>
+        <v>-4.6082949308755561E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>-8.4745762711864181E-3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
+        <v>-4.6082949308755561E-2</v>
+      </c>
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>-8.4745762711864181E-3</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="2"/>
-        <v>357</v>
+        <v>113.49999999999997</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="W9" s="12">
-        <v>0</v>
-      </c>
-      <c r="X9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="12">
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5307,79 +5601,79 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44470</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44473</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E10)=0,"error",COUNTIFS(E:E,E10))</f>
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>34</v>
+        <v>24.2</v>
       </c>
       <c r="H10" s="2">
-        <v>30.71</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.6764705882352864E-2</v>
+        <v>23.5</v>
+      </c>
+      <c r="I10" s="4">
+        <f>IF(H10/G10-1&gt;0,"error",H10/G10-1)</f>
+        <v>-2.8925619834710758E-2</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.8925619834710758E-2</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
-        <v>-9.6764705882352864E-2</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="2"/>
-        <v>37.29</v>
+        <v>24.9</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-      <c r="W10" s="12">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="12">
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5388,79 +5682,79 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44468</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44470</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44473</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="6">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E11)=0,"error",COUNTIFS(E:E,E11))</f>
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>113.5</v>
+        <v>198.5</v>
       </c>
       <c r="H11" s="2">
-        <v>106.5</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.1674008810572722E-2</v>
+        <v>195</v>
+      </c>
+      <c r="I11" s="4">
+        <f>IF(H11/G11-1&gt;0,"error",H11/G11-1)</f>
+        <v>-1.7632241813602012E-2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.7632241813602012E-2</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
-        <v>-6.1674008810572722E-2</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="2"/>
-        <v>120.5</v>
+        <v>201.99999999999997</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="12">
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="12">
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5469,79 +5763,79 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D12" s="4">
-        <v>44469.999988425923</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44473</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
+        <v>48</v>
+      </c>
+      <c r="F12" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E12)=0,"error",COUNTIFS(E:E,E12))</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2">
-        <v>218</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.0909090909090384E-3</v>
+        <v>68</v>
+      </c>
+      <c r="I12" s="4">
+        <f>IF(H12/G12-1&gt;0,"error",H12/G12-1)</f>
+        <v>-1.4492753623188359E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
-        <f>I12*J12</f>
-        <v>-9.0909090909090384E-3</v>
-      </c>
-      <c r="L12" s="6">
-        <f>G12*(1-K12)</f>
-        <v>222</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>44467.424247685187</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
-        <v>44467.424247685187</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="10">
-        <v>222.77500000000001</v>
-      </c>
-      <c r="S12" s="10">
-        <v>1782.2</v>
-      </c>
-      <c r="T12" s="10">
-        <v>16</v>
-      </c>
-      <c r="U12" s="11">
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
-        <v>0</v>
-      </c>
-      <c r="W12" s="12">
-        <v>0</v>
-      </c>
-      <c r="X12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="12">
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.4492753623188359E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5550,79 +5844,79 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D13" s="4">
-        <v>44469.999988425923</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44468</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44470.999988425923</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E13)=0,"error",COUNTIFS(E:E,E13))</f>
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
-        <v>141.27000000000001</v>
-      </c>
-      <c r="I13" s="5">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13:I19" si="2">IF(H13/G13-1&gt;0,"error",H13/G13-1)</f>
+        <v>-5.2631578947369695E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>-5.1408450704224506E-3</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" ref="K13:K16" si="3">I13*J13</f>
-        <v>-2.5704225352112253E-2</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" ref="L13:L16" si="4">G13*(1-K13)</f>
-        <v>145.64999999999995</v>
+        <v>-5.2631578947369695E-3</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>38.20000000000001</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
-        <v>44467.540196759262</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>44467.540204467594</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="10">
-        <v>141.97499999999999</v>
-      </c>
-      <c r="S13" s="10">
-        <v>1987.65</v>
-      </c>
-      <c r="T13" s="10">
-        <v>14</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
-      <c r="W13" s="12">
-        <v>0</v>
-      </c>
-      <c r="X13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="12">
+      <c r="N13" s="9">
+        <v>44468.399328703701</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>44468.399336469905</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>37.984999999999999</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1975.22</v>
+      </c>
+      <c r="T13" s="6">
+        <v>52</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5631,79 +5925,79 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D14" s="4">
-        <v>44469.999988425923</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44468</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44470</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E14)=0,"error",COUNTIFS(E:E,E14))</f>
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>206</v>
+        <v>42.7</v>
       </c>
       <c r="H14" s="2">
-        <v>198</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>-3.8834951456310662E-2</v>
+        <v>41</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.9812646370023463E-2</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.8834951456310662E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="4"/>
-        <v>214</v>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.9812646370023463E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>44.400000000000006</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>44467.470219907409</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>44467.470224537035</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-      <c r="R14" s="10">
-        <v>206.98</v>
-      </c>
-      <c r="S14" s="10">
-        <v>1862.82</v>
-      </c>
-      <c r="T14" s="10">
-        <v>9</v>
-      </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
-        <v>0</v>
-      </c>
-      <c r="W14" s="12">
-        <v>0</v>
-      </c>
-      <c r="X14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="12">
+        <v>8</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5712,79 +6006,79 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44467</v>
-      </c>
-      <c r="D15" s="4">
-        <v>44469.999988425923</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44468</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44470</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="6">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E15)=0,"error",COUNTIFS(E:E,E15))</f>
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>26.1</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="I15" s="5">
+        <v>30.71</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>-9.6764705882352864E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>-1.9157088122605415E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.8314176245210829E-2</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="4"/>
-        <v>27.100000000000005</v>
+        <v>-9.6764705882352864E-2</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="1"/>
+        <v>37.29</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="10">
-        <v>0</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
-        <v>0</v>
-      </c>
-      <c r="V15" s="11">
-        <v>0</v>
-      </c>
-      <c r="W15" s="12">
-        <v>0</v>
-      </c>
-      <c r="X15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="12">
+        <v>8</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5793,79 +6087,322 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4">
-        <v>44466</v>
-      </c>
-      <c r="D16" s="4">
-        <v>44468.999988425923</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44468</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44470.999988425923</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E16)=0,"error",COUNTIFS(E:E,E16))</f>
         <v>1</v>
       </c>
       <c r="G16" s="2">
+        <v>113.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>107</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.7268722466960353E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.7268722466960353E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>44468.510752314818</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>44468.5107565625</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>113.295</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1926.0150000000001</v>
+      </c>
+      <c r="T16" s="6">
+        <v>17</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44467</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44469.999988425923</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E17)=0,"error",COUNTIFS(E:E,E17))</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>142</v>
+      </c>
+      <c r="H17" s="2">
+        <v>141.27000000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.1408450704224506E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5704225352112253E-2</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="1"/>
+        <v>145.64999999999995</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>44467.540196759262</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>44467.540204467594</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>141.97499999999999</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1987.65</v>
+      </c>
+      <c r="T17" s="6">
+        <v>14</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44467</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44469.999988425923</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E18)=0,"error",COUNTIFS(E:E,E18))</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>206</v>
+      </c>
+      <c r="H18" s="2">
+        <v>198</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.8834951456310662E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.8834951456310662E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>44467.470219907409</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>44467.470224537035</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>206.98</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1862.82</v>
+      </c>
+      <c r="T18" s="6">
+        <v>9</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44466</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44468.999988425923</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E19)=0,"error",COUNTIFS(E:E,E19))</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>140.5</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H19" s="2">
         <v>130</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.4733096085409234E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>-7.4733096085409234E-2</v>
       </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>-7.4733096085409234E-2</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="4"/>
+      <c r="L19" s="5">
+        <f t="shared" si="1"/>
         <v>150.99999999999997</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
-        <v>0</v>
-      </c>
-      <c r="V16" s="11">
-        <v>0</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="12">
+      <c r="M19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="8">
         <v>0</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90328F9-F649-4035-9E70-1862873A06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F2740-9303-4557-B811-936D09D86D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,8 +12,11 @@
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>已入场</t>
-  </si>
-  <si>
-    <t>AAPL</t>
   </si>
   <si>
     <t>NVDA</t>
@@ -48,54 +48,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>9月28日盘前快播</t>
-  </si>
-  <si>
     <t>等待入场</t>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日盘前快播</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFLX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,10 +80,6 @@
       </rPr>
       <t>日复盘视频</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,6 +363,45 @@
     </r>
   </si>
   <si>
+    <t>9月29日盘前快播</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月1日盘前快播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
     <r>
       <t>9</t>
     </r>
@@ -421,7 +409,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -438,88 +426,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>日盘前快播</t>
+      <t>日复盘</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>9月30日盘前快播</t>
   </si>
   <si>
-    <t>AMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>SPY</t>
   </si>
   <si>
-    <t>UPST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日复盘视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETSY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月29日盘前快播</t>
-  </si>
-  <si>
-    <t>XLF</t>
-  </si>
-  <si>
-    <t>9月28日复盘视频</t>
-  </si>
-  <si>
-    <t>AFRM</t>
+    <t>BAC</t>
   </si>
 </sst>
 </file>
@@ -683,6 +604,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,6 +683,3808 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="记录"/>
+      <sheetName val="已出场"/>
+      <sheetName val="备份"/>
+      <sheetName val="code表"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>code</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>$COMPX</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>$DJI</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>$SPX.X</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>FNGU</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>IWM</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>QQQ</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>UVXY</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>FNGD</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>SDOW</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>SOXS</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>SPXU</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>SQQQ</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>SOXL</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>TNA</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>TQQQ</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>TZA</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>UDOW</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>UPRO</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>A</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>AA</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>AAL</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>AAPL</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>AAXJ</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>ABBV</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>ABNB</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>ABT</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>ACHV</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>ACN</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>ACRS</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>ACWI</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ADBE</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>ADGI</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>ADI</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>ADM</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>ADP</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>ADSK</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>AEO</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>AEP</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>AES</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>AFL</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>AFRM</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>AG</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>AGG</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>AGRX</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>AI</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>AIG</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>AJG</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>ALK</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>ALL</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>ALLY</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>AMAT</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>AMC</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>AMD</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>AMGN</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>AMT</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>AMZN</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>AN</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>ANY</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>AON</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>APA</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>APH</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>APO</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>APPS</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>APTV</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>ARAV</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>ARKF</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>ARKG</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>ARKK</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>ARKQ</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>ARKW</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>ASAN</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>ASHR</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>ASML</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>ASTC</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>ATUS</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>ATVI</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>AVGO</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>AVTR</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>AVXL</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>AXP</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>AXSM</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>AZN</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>BA</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>BABA</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>BAC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>BAM</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>BARK</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>BAX</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>BB</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>BBD</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>BBIG</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>BBL</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>BBWI</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>BBY</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>BCEL</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>BCPC</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>BDX</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>BEKE</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>BHP</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>BIDU</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>BIIB</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>BILI</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>BILL</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>BK</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>BKLN</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>BKR</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>BLDR</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>BLL</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>BLSP</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>BMY</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>BND</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>BNDX</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>BNGO</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>BNTX</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>BP</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>BRK.B</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>BSV</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>BSX</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>BTBT</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>BTI</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>BTX</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>BX</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>BYND</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>BYSI</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>BZ</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>BZQ</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>C</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>CAG</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>CAH</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>CAN</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>CAR</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>CARR</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>CAT</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>CB</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>CBRE</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>CCI</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>CCL</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>CERN</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>CF</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>CFG</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>CGBD</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>CHAU</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>CHGG</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>CHPT</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>CHWY</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>CI</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>CL</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>CLF</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>CLOV</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>CLVT</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>CLX</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>CMBM</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>CMCSA</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>CME</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>CMI</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>CMS</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>CNC</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>CNI</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>CNK</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>CNP</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>COF</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>COG</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>COIN</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>COLD</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>COP</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>COST</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>COUP</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>CP</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>CPB</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>CPNG</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>CPRI</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>CREE</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>CRM</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>CRWD</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>CSCO</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>CSGP</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>CSX</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>CTLT</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>CTSH</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>CTVA</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>CTXS</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>CUE</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>CVS</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>CVX</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>CZR</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>DAL</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>DARE</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>DASH</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>DBX</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>DD</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>DDD</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>DDOG</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>DE</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>DELL</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>DEO</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>DFEN</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>DFS</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>DG</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>DHI</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>DHR</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>DIA</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>DIDI</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>DIS</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>DISCA</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>DKNG</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>DKS</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>DLR</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>DLTR</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>DM</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>DOCN</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>DOCS</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>DOCU</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>DOW</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>DQ</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>DRI</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218" t="str">
+            <v>DT</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219" t="str">
+            <v>DUK</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220" t="str">
+            <v>DVN</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221" t="str">
+            <v>EA</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222" t="str">
+            <v>EBAY</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223" t="str">
+            <v>ECL</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224" t="str">
+            <v>ED</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225" t="str">
+            <v>EDIT</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226" t="str">
+            <v>EDU</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227" t="str">
+            <v>EEM</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228" t="str">
+            <v>EFA</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229" t="str">
+            <v>EFV</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230" t="str">
+            <v>EFX</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231" t="str">
+            <v>EH</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232" t="str">
+            <v>ELAN</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233" t="str">
+            <v>EMB</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234" t="str">
+            <v>EMR</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235" t="str">
+            <v>ENB</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236" t="str">
+            <v>ENPH</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237" t="str">
+            <v>EOG</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238" t="str">
+            <v>EPD</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239" t="str">
+            <v>EQH</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240" t="str">
+            <v>EQR</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241" t="str">
+            <v>EQT</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242" t="str">
+            <v>ES</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243" t="str">
+            <v>ESGU</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244" t="str">
+            <v>ESTC</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245" t="str">
+            <v>ET</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>ETHE</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>ETN</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v>ETR</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>ETSY</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>EW</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>EWC</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>EWH</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>EWJ</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>EWT</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>EWY</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>EWZ</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257" t="str">
+            <v>EXC</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258" t="str">
+            <v>EXK</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259" t="str">
+            <v>EXPE</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260" t="str">
+            <v>EZU</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261" t="str">
+            <v>F</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262" t="str">
+            <v>FANG</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263" t="str">
+            <v>FAS</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264" t="str">
+            <v>FAST</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265" t="str">
+            <v>FAZ</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266" t="str">
+            <v>FB</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267" t="str">
+            <v>FCEL</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268" t="str">
+            <v>FCX</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269" t="str">
+            <v>FDS</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270" t="str">
+            <v>FDX</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271" t="str">
+            <v>FE</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272" t="str">
+            <v>FICO</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273" t="str">
+            <v>FIS</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274" t="str">
+            <v>FISV</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275" t="str">
+            <v>FITB</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276" t="str">
+            <v>FIVE</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277" t="str">
+            <v>FIVN</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>FL</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279" t="str">
+            <v>FLGC</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280" t="str">
+            <v>FNGS</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281" t="str">
+            <v>FRSX</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282" t="str">
+            <v>FSLY</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283" t="str">
+            <v>FSR</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284" t="str">
+            <v>FTCH</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285" t="str">
+            <v>FTV</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286" t="str">
+            <v>FUBO</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287" t="str">
+            <v>FUTU</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288" t="str">
+            <v>FXI</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289" t="str">
+            <v>GBTC</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290" t="str">
+            <v>GDX</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291" t="str">
+            <v>GDXJ</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292" t="str">
+            <v>GE</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293" t="str">
+            <v>GILD</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294" t="str">
+            <v>GIS</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295" t="str">
+            <v>GKOS</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296" t="str">
+            <v>GLD</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297" t="str">
+            <v>GLSI</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298" t="str">
+            <v>GLW</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>GM</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300" t="str">
+            <v>GME</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>GOLD</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302" t="str">
+            <v>GOOG</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303" t="str">
+            <v>GOOGL</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304" t="str">
+            <v>GPN</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305" t="str">
+            <v>GPS</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306" t="str">
+            <v>GS</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307" t="str">
+            <v>GSK</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308" t="str">
+            <v>HAL</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309" t="str">
+            <v>HBAN</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310" t="str">
+            <v>HD</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311" t="str">
+            <v>HDB</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312" t="str">
+            <v>HES</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313" t="str">
+            <v>HIG</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314" t="str">
+            <v>HLT</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315" t="str">
+            <v>HOFV</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316" t="str">
+            <v>HOLX</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317" t="str">
+            <v>HON</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318" t="str">
+            <v>HOOD</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319" t="str">
+            <v>HPE</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320" t="str">
+            <v>HPQ</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321" t="str">
+            <v>HRC</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322" t="str">
+            <v>HST</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323" t="str">
+            <v>HYG</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324" t="str">
+            <v>IAU</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325" t="str">
+            <v>IBB</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326" t="str">
+            <v>IBKR</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327" t="str">
+            <v>IBM</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328" t="str">
+            <v>IBN</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329" t="str">
+            <v>ICE</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330" t="str">
+            <v>IEF</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331" t="str">
+            <v>IEFA</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332" t="str">
+            <v>IEI</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333" t="str">
+            <v>IEMG</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334" t="str">
+            <v>IFF</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>IGSB</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>IGV</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>IJH</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>IJR</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
+            <v>IMAB</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>IMUX</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>INDA</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>INFO</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>INFY</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>INMD</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>INTC</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>INVH</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>IP</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>IPG</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>IQ</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>IR</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>ISR</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>ITB</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>ITOT</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>ITUB</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>IVE</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>IVV</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>IVW</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>IWB</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>IWD</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v>IWF</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v>IWN</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v>IWO</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v>IWR</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v>IXUS</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>IYR</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v>JBLU</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367" t="str">
+            <v>JCI</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v>JD</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v>JETS</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v>JKS</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v>JMIA</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v>JMP</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v>JNJ</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v>JNK</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v>JPM</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v>JPST</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v>JWN</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v>K</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v>KBE</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v>KBNT</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v>KBWB</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382" t="str">
+            <v>KDP</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383" t="str">
+            <v>KEY</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v>KHC</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v>KIM</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v>KKR</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v>KMB</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v>KMI</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>KO</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>KR</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>KRE</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>KSS</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>KSU</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>KWEB</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v>LAC</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v>LCID</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v>LCTX</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v>LEN</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v>LHX</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v>LI</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v>LIN</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v>LIVN</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v>LKCO</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v>LLY</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405" t="str">
+            <v>LMND</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v>LMT</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v>LOW</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v>LQD</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v>LQDA</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v>LRCX</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v>LSPD</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v>LU</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v>LULU</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v>LUMN</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v>LUV</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v>LVS</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v>LYB</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v>LYFT</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v>M</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v>MA</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v>MAR</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v>MARA</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v>MAS</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v>MBB</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v>MCD</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426" t="str">
+            <v>MCHI</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427" t="str">
+            <v>MCHP</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v>MDB</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v>MDLA</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v>MDLZ</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v>MDT</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v>MDY</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v>MET</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v>MGA</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v>MGM</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v>MMC</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v>MMM</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v>MNST</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v>MO</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v>MOGO</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v>MOS</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442" t="str">
+            <v>MOTS</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443" t="str">
+            <v>MP</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v>MPC</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v>MRK</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v>MRNA</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v>MRO</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v>MRSN</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v>MRVL</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v>MS</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v>MSFT</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v>MSON</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v>MT</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v>MTCH</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v>MTUM</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v>MU</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v>MUB</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v>MVIS</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v>NAOV</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v>NCLH</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v>NCNO</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462" t="str">
+            <v>NDRA</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463" t="str">
+            <v>NEE</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="B464" t="str">
+            <v>NEM</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="B465" t="str">
+            <v>NET</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="B466" t="str">
+            <v>NFLX</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="B467" t="str">
+            <v>NIO</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="B468" t="str">
+            <v>NKE</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="B469" t="str">
+            <v>NKLA</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="B470" t="str">
+            <v>NLOK</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="B471" t="str">
+            <v>NLSN</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="B472" t="str">
+            <v>NLY</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="B473" t="str">
+            <v>NNDM</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="B474" t="str">
+            <v>NOK</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="B475" t="str">
+            <v>NOW</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="B476" t="str">
+            <v>NRG</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="B477" t="str">
+            <v>NRGD</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="B478" t="str">
+            <v>NRGU</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="B479" t="str">
+            <v>NSC</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="B480" t="str">
+            <v>NSPR</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="B481" t="str">
+            <v>NTAP</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="B482" t="str">
+            <v>NTES</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="B483" t="str">
+            <v>NTLA</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="B484" t="str">
+            <v>NUAN</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="B485" t="str">
+            <v>NUE</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="B486" t="str">
+            <v>NVAX</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="B487" t="str">
+            <v>NVDA</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="B488" t="str">
+            <v>NVS</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="B489" t="str">
+            <v>NVTA</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="B490" t="str">
+            <v>NXPI</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="B491" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="B492" t="str">
+            <v>OCGN</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="B493" t="str">
+            <v>OIH</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="B494" t="str">
+            <v>OKE</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="B495" t="str">
+            <v>OKTA</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="B496" t="str">
+            <v>OLLI</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="B497" t="str">
+            <v>OMC</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="B498" t="str">
+            <v>OMGA</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="B499" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="B500" t="str">
+            <v>OPEN</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="B501" t="str">
+            <v>ORCL</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="B502" t="str">
+            <v>ORGO</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="B503" t="str">
+            <v>OTIS</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="B504" t="str">
+            <v>OXY</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="B505" t="str">
+            <v>OZON</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="B506" t="str">
+            <v>PANW</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="B507" t="str">
+            <v>PATH</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="B508" t="str">
+            <v>PBR</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="B509" t="str">
+            <v>PBR.A</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="B510" t="str">
+            <v>PCAR</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="B511" t="str">
+            <v>PCG</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="B512" t="str">
+            <v>PDD</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="B513" t="str">
+            <v>PEAK</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="B514" t="str">
+            <v>PEG</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="B515" t="str">
+            <v>PENN</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516" t="str">
+            <v>PEP</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="B517" t="str">
+            <v>PFE</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="B518" t="str">
+            <v>PFF</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="B519" t="str">
+            <v>PFGC</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="B520" t="str">
+            <v>PG</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="B521" t="str">
+            <v>PGR</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="B522" t="str">
+            <v>PHM</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="B523" t="str">
+            <v>PINS</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="B524" t="str">
+            <v>PKI</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="B525" t="str">
+            <v>PLAN</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="B526" t="str">
+            <v>PLD</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="B527" t="str">
+            <v>PLTR</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="B528" t="str">
+            <v>PLUG</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="B529" t="str">
+            <v>PM</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="B530" t="str">
+            <v>PMCB</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="B531" t="str">
+            <v>PNC</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="B532" t="str">
+            <v>PNR</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="B533" t="str">
+            <v>PPG</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="B534" t="str">
+            <v>PPL</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="B535" t="str">
+            <v>PRU</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="B536" t="str">
+            <v>PSTG</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="B537" t="str">
+            <v>PSX</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="B538" t="str">
+            <v>PTON</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="B539" t="str">
+            <v>PVH</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="B540" t="str">
+            <v>PXD</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="B541" t="str">
+            <v>PYPL</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="B542" t="str">
+            <v>QCOM</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="B543" t="str">
+            <v>QLD</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="B544" t="str">
+            <v>QRVO</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="B545" t="str">
+            <v>QS</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="B546" t="str">
+            <v>QSR</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="B547" t="str">
+            <v>QUAL</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="B548" t="str">
+            <v>RBLX</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="B549" t="str">
+            <v>RCEL</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="B550" t="str">
+            <v>RCL</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="B551" t="str">
+            <v>RDS.A</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="B552" t="str">
+            <v>RDS.B</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="B553" t="str">
+            <v>RF</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="B554" t="str">
+            <v>RIDE</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="B555" t="str">
+            <v>RIO</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="B556" t="str">
+            <v>RIOT</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="B557" t="str">
+            <v>RKT</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="B558" t="str">
+            <v>RLX</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="B559" t="str">
+            <v>RMO</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="B560" t="str">
+            <v>ROKU</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="B561" t="str">
+            <v>ROST</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="B562" t="str">
+            <v>RSKD</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="B563" t="str">
+            <v>RSP</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="B564" t="str">
+            <v>RTX</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="B565" t="str">
+            <v>RUN</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="B566" t="str">
+            <v>RYCEY</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="B567" t="str">
+            <v>SAM</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="B568" t="str">
+            <v>SAVA</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="B569" t="str">
+            <v>SAVE</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="B570" t="str">
+            <v>SBUX</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="B571" t="str">
+            <v>SCHD</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="B572" t="str">
+            <v>SCHP</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="B573" t="str">
+            <v>SCHW</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="B574" t="str">
+            <v>SCI</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="B575" t="str">
+            <v>SCZ</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="B576" t="str">
+            <v>SE</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="B577" t="str">
+            <v>SESN</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="B578" t="str">
+            <v>SH</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="B579" t="str">
+            <v>SHOP</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="B580" t="str">
+            <v>SHV</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="B581" t="str">
+            <v>SHY</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="B582" t="str">
+            <v>SIRI</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="B583" t="str">
+            <v>SJNK</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="B584" t="str">
+            <v>SKLZ</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="B585" t="str">
+            <v>SLB</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="B586" t="str">
+            <v>SLV</v>
+          </cell>
+        </row>
+        <row r="587">
+          <cell r="B587" t="str">
+            <v>SMH</v>
+          </cell>
+        </row>
+        <row r="588">
+          <cell r="B588" t="str">
+            <v>SNAP</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="B589" t="str">
+            <v>SNDL</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="B590" t="str">
+            <v>SNOW</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="B591" t="str">
+            <v>SNY</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="B592" t="str">
+            <v>SO</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="B593" t="str">
+            <v>SOFI</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="B594" t="str">
+            <v>SOHU</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="B595" t="str">
+            <v>SONO</v>
+          </cell>
+        </row>
+        <row r="596">
+          <cell r="B596" t="str">
+            <v>SOXX</v>
+          </cell>
+        </row>
+        <row r="597">
+          <cell r="B597" t="str">
+            <v>SPCB</v>
+          </cell>
+        </row>
+        <row r="598">
+          <cell r="B598" t="str">
+            <v>SPCE</v>
+          </cell>
+        </row>
+        <row r="599">
+          <cell r="B599" t="str">
+            <v>SPG</v>
+          </cell>
+        </row>
+        <row r="600">
+          <cell r="B600" t="str">
+            <v>SPGI</v>
+          </cell>
+        </row>
+        <row r="601">
+          <cell r="B601" t="str">
+            <v>SPIB</v>
+          </cell>
+        </row>
+        <row r="602">
+          <cell r="B602" t="str">
+            <v>SPLK</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="B603" t="str">
+            <v>SPLV</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="B604" t="str">
+            <v>SPNE</v>
+          </cell>
+        </row>
+        <row r="605">
+          <cell r="B605" t="str">
+            <v>SPOT</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="B606" t="str">
+            <v>GREE</v>
+          </cell>
+        </row>
+        <row r="607">
+          <cell r="B607" t="str">
+            <v>SPTL</v>
+          </cell>
+        </row>
+        <row r="608">
+          <cell r="B608" t="str">
+            <v>SPXL</v>
+          </cell>
+        </row>
+        <row r="609">
+          <cell r="B609" t="str">
+            <v>SPY</v>
+          </cell>
+        </row>
+        <row r="610">
+          <cell r="B610" t="str">
+            <v>SPYG</v>
+          </cell>
+        </row>
+        <row r="611">
+          <cell r="B611" t="str">
+            <v>SQ</v>
+          </cell>
+        </row>
+        <row r="612">
+          <cell r="B612" t="str">
+            <v>SRGA</v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="B613" t="str">
+            <v>SRLN</v>
+          </cell>
+        </row>
+        <row r="614">
+          <cell r="B614" t="str">
+            <v>SRNE</v>
+          </cell>
+        </row>
+        <row r="615">
+          <cell r="B615" t="str">
+            <v>SSO</v>
+          </cell>
+        </row>
+        <row r="616">
+          <cell r="B616" t="str">
+            <v>STAA</v>
+          </cell>
+        </row>
+        <row r="617">
+          <cell r="B617" t="str">
+            <v>STLD</v>
+          </cell>
+        </row>
+        <row r="618">
+          <cell r="B618" t="str">
+            <v>STNE</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="B619" t="str">
+            <v>STT</v>
+          </cell>
+        </row>
+        <row r="620">
+          <cell r="B620" t="str">
+            <v>STX</v>
+          </cell>
+        </row>
+        <row r="621">
+          <cell r="B621" t="str">
+            <v>SU</v>
+          </cell>
+        </row>
+        <row r="622">
+          <cell r="B622" t="str">
+            <v>SVXY</v>
+          </cell>
+        </row>
+        <row r="623">
+          <cell r="B623" t="str">
+            <v>SWK</v>
+          </cell>
+        </row>
+        <row r="624">
+          <cell r="B624" t="str">
+            <v>SWKS</v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="B625" t="str">
+            <v>SYF</v>
+          </cell>
+        </row>
+        <row r="626">
+          <cell r="B626" t="str">
+            <v>SYK</v>
+          </cell>
+        </row>
+        <row r="627">
+          <cell r="B627" t="str">
+            <v>SYY</v>
+          </cell>
+        </row>
+        <row r="628">
+          <cell r="B628" t="str">
+            <v>T</v>
+          </cell>
+        </row>
+        <row r="629">
+          <cell r="B629" t="str">
+            <v>TAL</v>
+          </cell>
+        </row>
+        <row r="630">
+          <cell r="B630" t="str">
+            <v>TCEHY</v>
+          </cell>
+        </row>
+        <row r="631">
+          <cell r="B631" t="str">
+            <v>TCOM</v>
+          </cell>
+        </row>
+        <row r="632">
+          <cell r="B632" t="str">
+            <v>TDOC</v>
+          </cell>
+        </row>
+        <row r="633">
+          <cell r="B633" t="str">
+            <v>TEAM</v>
+          </cell>
+        </row>
+        <row r="634">
+          <cell r="B634" t="str">
+            <v>TECH</v>
+          </cell>
+        </row>
+        <row r="635">
+          <cell r="B635" t="str">
+            <v>TEL</v>
+          </cell>
+        </row>
+        <row r="636">
+          <cell r="B636" t="str">
+            <v>TFC</v>
+          </cell>
+        </row>
+        <row r="637">
+          <cell r="B637" t="str">
+            <v>TGT</v>
+          </cell>
+        </row>
+        <row r="638">
+          <cell r="B638" t="str">
+            <v>TIGR</v>
+          </cell>
+        </row>
+        <row r="639">
+          <cell r="B639" t="str">
+            <v>TIP</v>
+          </cell>
+        </row>
+        <row r="640">
+          <cell r="B640" t="str">
+            <v>TJX</v>
+          </cell>
+        </row>
+        <row r="641">
+          <cell r="B641" t="str">
+            <v>TKAT</v>
+          </cell>
+        </row>
+        <row r="642">
+          <cell r="B642" t="str">
+            <v>TLRY</v>
+          </cell>
+        </row>
+        <row r="643">
+          <cell r="B643" t="str">
+            <v>TLT</v>
+          </cell>
+        </row>
+        <row r="644">
+          <cell r="B644" t="str">
+            <v>TME</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="B645" t="str">
+            <v>TMUS</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="B646" t="str">
+            <v>TPR</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="B647" t="str">
+            <v>TRMB</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="B648" t="str">
+            <v>TROW</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="B649" t="str">
+            <v>TRU</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="B650" t="str">
+            <v>TSLA</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="B651" t="str">
+            <v>TSM</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="B652" t="str">
+            <v>TSN</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="B653" t="str">
+            <v>TSP</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="B654" t="str">
+            <v>TTD</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="B655" t="str">
+            <v>TWLO</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="B656" t="str">
+            <v>TWTR</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="B657" t="str">
+            <v>TXN</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="B658" t="str">
+            <v>U</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="B659" t="str">
+            <v>UAA</v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="B660" t="str">
+            <v>UAL</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="B661" t="str">
+            <v>UBER</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="B662" t="str">
+            <v>UMC</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="B663" t="str">
+            <v>UNH</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="B664" t="str">
+            <v>UNP</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="B665" t="str">
+            <v>UPS</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="B666" t="str">
+            <v>UPST</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="B667" t="str">
+            <v>USB</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="B668" t="str">
+            <v>USFD</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="B669" t="str">
+            <v>USMV</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="B670" t="str">
+            <v>USO</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="B671" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="B672" t="str">
+            <v>VALE</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="B673" t="str">
+            <v>VB</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="B674" t="str">
+            <v>VCIT</v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="B675" t="str">
+            <v>VCLT</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="B676" t="str">
+            <v>VCSH</v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="B677" t="str">
+            <v>VEA</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="B678" t="str">
+            <v>VEEV</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="B679" t="str">
+            <v>VEU</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="B680" t="str">
+            <v>VFC</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="B681" t="str">
+            <v>VGK</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="B682" t="str">
+            <v>VGLT</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="B683" t="str">
+            <v>VGT</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="B684" t="str">
+            <v>VIAC</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="B685" t="str">
+            <v>VICI</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="B686" t="str">
+            <v>VIG</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="B687" t="str">
+            <v>VIPS</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="B688" t="str">
+            <v>VLO</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="B689" t="str">
+            <v>VLUE</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="B690" t="str">
+            <v>VMC</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="B691" t="str">
+            <v>VMW</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="B692" t="str">
+            <v>VNQ</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="B693" t="str">
+            <v>VO</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="B694" t="str">
+            <v>VOO</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="B695" t="str">
+            <v>VRTX</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="B696" t="str">
+            <v>VT</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="B697" t="str">
+            <v>VTI</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="B698" t="str">
+            <v>VTIP</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="B699" t="str">
+            <v>VTR</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="B700" t="str">
+            <v>VTRS</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="B701" t="str">
+            <v>VTV</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="B702" t="str">
+            <v>VUG</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="B703" t="str">
+            <v>VWO</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="B704" t="str">
+            <v>VXUS</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="B705" t="str">
+            <v>VXX</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="B706" t="str">
+            <v>VZ</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="B707" t="str">
+            <v>W</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="B708" t="str">
+            <v>WBA</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="B709" t="str">
+            <v>WDAY</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="B710" t="str">
+            <v>WDC</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="B711" t="str">
+            <v>WELL</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="B712" t="str">
+            <v>WFC</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="B713" t="str">
+            <v>WISH</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="B714" t="str">
+            <v>WLTW</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="B715" t="str">
+            <v>WM</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="B716" t="str">
+            <v>WMB</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="B717" t="str">
+            <v>WMT</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="B718" t="str">
+            <v>WY</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="B719" t="str">
+            <v>WYNN</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="B720" t="str">
+            <v>X</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="B721" t="str">
+            <v>XBI</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="B722" t="str">
+            <v>XCUR</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="B723" t="str">
+            <v>XEL</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="B724" t="str">
+            <v>XHB</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="B725" t="str">
+            <v>XLB</v>
+          </cell>
+        </row>
+        <row r="726">
+          <cell r="B726" t="str">
+            <v>XLC</v>
+          </cell>
+        </row>
+        <row r="727">
+          <cell r="B727" t="str">
+            <v>XLE</v>
+          </cell>
+        </row>
+        <row r="728">
+          <cell r="B728" t="str">
+            <v>XLF</v>
+          </cell>
+        </row>
+        <row r="729">
+          <cell r="B729" t="str">
+            <v>XLI</v>
+          </cell>
+        </row>
+        <row r="730">
+          <cell r="B730" t="str">
+            <v>XLK</v>
+          </cell>
+        </row>
+        <row r="731">
+          <cell r="B731" t="str">
+            <v>XLP</v>
+          </cell>
+        </row>
+        <row r="732">
+          <cell r="B732" t="str">
+            <v>XLRE</v>
+          </cell>
+        </row>
+        <row r="733">
+          <cell r="B733" t="str">
+            <v>XLU</v>
+          </cell>
+        </row>
+        <row r="734">
+          <cell r="B734" t="str">
+            <v>XLV</v>
+          </cell>
+        </row>
+        <row r="735">
+          <cell r="B735" t="str">
+            <v>XLY</v>
+          </cell>
+        </row>
+        <row r="736">
+          <cell r="B736" t="str">
+            <v>XM</v>
+          </cell>
+        </row>
+        <row r="737">
+          <cell r="B737" t="str">
+            <v>XME</v>
+          </cell>
+        </row>
+        <row r="738">
+          <cell r="B738" t="str">
+            <v>XOM</v>
+          </cell>
+        </row>
+        <row r="739">
+          <cell r="B739" t="str">
+            <v>XOP</v>
+          </cell>
+        </row>
+        <row r="740">
+          <cell r="B740" t="str">
+            <v>XPEV</v>
+          </cell>
+        </row>
+        <row r="741">
+          <cell r="B741" t="str">
+            <v>XPO</v>
+          </cell>
+        </row>
+        <row r="742">
+          <cell r="B742" t="str">
+            <v>XRT</v>
+          </cell>
+        </row>
+        <row r="743">
+          <cell r="B743" t="str">
+            <v>YANG</v>
+          </cell>
+        </row>
+        <row r="744">
+          <cell r="B744" t="str">
+            <v>YUMC</v>
+          </cell>
+        </row>
+        <row r="745">
+          <cell r="B745" t="str">
+            <v>Z</v>
+          </cell>
+        </row>
+        <row r="746">
+          <cell r="B746" t="str">
+            <v>ZBH</v>
+          </cell>
+        </row>
+        <row r="747">
+          <cell r="B747" t="str">
+            <v>ZEN</v>
+          </cell>
+        </row>
+        <row r="748">
+          <cell r="B748" t="str">
+            <v>ZEV</v>
+          </cell>
+        </row>
+        <row r="749">
+          <cell r="B749" t="str">
+            <v>ZI</v>
+          </cell>
+        </row>
+        <row r="750">
+          <cell r="B750" t="str">
+            <v>ZIM</v>
+          </cell>
+        </row>
+        <row r="751">
+          <cell r="B751" t="str">
+            <v>ZM</v>
+          </cell>
+        </row>
+        <row r="752">
+          <cell r="B752" t="str">
+            <v>ZNGA</v>
+          </cell>
+        </row>
+        <row r="753">
+          <cell r="B753" t="str">
+            <v>ZS</v>
+          </cell>
+        </row>
+        <row r="754">
+          <cell r="B754" t="str">
+            <v>ZTO</v>
+          </cell>
+        </row>
+        <row r="755">
+          <cell r="B755" t="str">
+            <v>ZTS</v>
+          </cell>
+        </row>
+        <row r="756">
+          <cell r="B756" t="str">
+            <v>ZY</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -702,7 +4493,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1015,11 +4806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F18"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1051,79 +4842,79 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1131,40 +4922,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D2" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E2)=0,"error",COUNTIFS(E:E,E2))</f>
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>433</v>
+        <v>770</v>
       </c>
       <c r="H2" s="2">
-        <v>428.8</v>
+        <v>764</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I12" si="0">IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
-        <v>-9.6997690531177572E-3</v>
+        <f t="shared" ref="I2:I10" si="0">IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
+        <v>-7.7922077922077948E-3</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K18" si="1">I2*J2</f>
-        <v>-9.6997690531177572E-3</v>
+        <f t="shared" ref="K2:K9" si="1">-I2*J2</f>
+        <v>7.7922077922077948E-3</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" ref="L2:L18" si="2">G2*(1-K2)</f>
-        <v>437.2</v>
+        <f t="shared" ref="L2:L9" si="2">G2*(1+K2)</f>
+        <v>775.99999999999989</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -1211,40 +5003,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D3" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E3)=0,"error",COUNTIFS(E:E,E3))</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>354</v>
+        <v>606</v>
       </c>
       <c r="H3" s="2">
-        <v>351.69</v>
+        <v>603</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>-6.5254237288135952E-3</v>
+        <v>-4.9504950495049549E-3</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>-6.5254237288135952E-3</v>
+        <v>4.9504950495049549E-3</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="2"/>
-        <v>356.31000000000006</v>
+        <v>609</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1291,40 +5084,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D4" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E4)=0,"error",COUNTIFS(E:E,E4))</f>
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>97.2</v>
+        <v>37.4</v>
       </c>
       <c r="H4" s="2">
-        <v>96</v>
+        <v>36.5</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>-1.2345679012345734E-2</v>
+        <v>-2.4064171122994638E-2</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="1"/>
-        <v>-1.2345679012345734E-2</v>
+        <v>2.4064171122994638E-2</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="2"/>
-        <v>98.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1371,40 +5165,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D5" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E5)=0,"error",COUNTIFS(E:E,E5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>592</v>
+        <v>166</v>
       </c>
       <c r="H5" s="2">
-        <v>583</v>
+        <v>156</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5202702702702742E-2</v>
+        <v>-6.0240963855421659E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>-1.5202702702702742E-2</v>
+        <v>6.0240963855421659E-2</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="2"/>
-        <v>601</v>
+        <v>175.99999999999997</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1451,40 +5246,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D6" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E6)=0,"error",COUNTIFS(E:E,E6))</f>
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>52.2</v>
+        <v>51.7</v>
       </c>
       <c r="H6" s="2">
-        <v>51.4</v>
+        <v>50.7</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5325670498084421E-2</v>
+        <v>-1.934235976789167E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>-1.5325670498084421E-2</v>
+        <v>1.934235976789167E-2</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>53.000000000000007</v>
+        <v>52.7</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1531,40 +5327,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44470</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44474</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D7" s="3">
-        <v>44473</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F7" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E7)=0,"error",COUNTIFS(E:E,E7))</f>
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>300</v>
+        <v>58.3</v>
       </c>
       <c r="H7" s="2">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>-3.6666666666666625E-2</v>
+        <v>-2.2298456260720356E-2</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>-3.6666666666666625E-2</v>
+        <v>2.2298456260720356E-2</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>311</v>
+        <v>59.6</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1611,40 +5408,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D8" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E8)=0,"error",COUNTIFS(E:E,E8))</f>
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>220</v>
+        <v>101.4</v>
       </c>
       <c r="H8" s="2">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>-9.0909090909090384E-3</v>
+        <v>-1.3806706114398493E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>-9.0909090909090384E-3</v>
+        <v>1.3806706114398493E-2</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>222</v>
+        <v>102.80000000000001</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1691,40 +5489,41 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="D9" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E9)=0,"error",COUNTIFS(E:E,E9))</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>108.5</v>
+        <v>203.5</v>
       </c>
       <c r="H9" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>-4.6082949308755561E-3</v>
+        <v>-2.7027027027026973E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>-4.6082949308755561E-2</v>
+        <v>2.7027027027026973E-2</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="2"/>
-        <v>113.49999999999997</v>
+        <v>209</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1771,64 +5570,65 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3">
         <v>44469</v>
       </c>
       <c r="D10" s="3">
-        <v>44473</v>
+        <v>44473.999988425923</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E10)=0,"error",COUNTIFS(E:E,E10))</f>
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>24.2</v>
+        <v>433</v>
       </c>
       <c r="H10" s="2">
-        <v>23.5</v>
+        <v>428.8</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>-2.8925619834710758E-2</v>
+        <v>-9.6997690531177572E-3</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.8925619834710758E-2</v>
+        <f>-I10*J10</f>
+        <v>9.6997690531177572E-3</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
+        <f>G10*(1+K10)</f>
+        <v>437.2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>44469.484884259262</v>
       </c>
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="6">
-        <v>0</v>
+      <c r="P10" s="10">
+        <v>44469.484893009256</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
       </c>
       <c r="R10" s="6">
-        <v>0</v>
+        <v>432.95499999999998</v>
       </c>
       <c r="S10" s="6">
-        <v>0</v>
+        <v>1731.82</v>
       </c>
       <c r="T10" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U10" s="7">
         <v>0</v>
@@ -1851,64 +5651,65 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="D11" s="3">
-        <v>44473</v>
+        <v>44470.999988425923</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E11)=0,"error",COUNTIFS(E:E,E11))</f>
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>198.5</v>
+        <v>42.7</v>
       </c>
       <c r="H11" s="2">
-        <v>195</v>
+        <v>41.6</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.7632241813602012E-2</v>
+        <f>IF(H11/G11-1&gt;0,"error",H11/G11-1)</f>
+        <v>-2.5761124121779888E-2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.7632241813602012E-2</v>
+        <f t="shared" ref="K11:K12" si="3">-I11*J11</f>
+        <v>2.5761124121779888E-2</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="2"/>
-        <v>201.99999999999997</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
+        <f t="shared" ref="L11:L12" si="4">G11*(1+K11)</f>
+        <v>43.800000000000004</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>44469.484826388885</v>
       </c>
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="6">
-        <v>0</v>
+      <c r="P11" s="10">
+        <v>44469.484831793983</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <v>0</v>
+        <v>42.685000000000002</v>
       </c>
       <c r="S11" s="6">
-        <v>0</v>
+        <v>1963.51</v>
       </c>
       <c r="T11" s="6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="U11" s="7">
         <v>0</v>
@@ -1931,43 +5732,44 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="D12" s="3">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E12)=0,"error",COUNTIFS(E:E,E12))</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2">
-        <v>68</v>
+        <v>30.71</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.4492753623188359E-2</v>
+        <f>IF(H12/G12-1&gt;0,"error",H12/G12-1)</f>
+        <v>-9.6764705882352864E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.4492753623188359E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.6764705882352864E-2</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>37.29</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="6">
         <v>0</v>
@@ -2003,486 +5805,6 @@
         <v>0</v>
       </c>
       <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44468</v>
-      </c>
-      <c r="D13" s="3">
-        <v>44470.999988425923</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>38</v>
-      </c>
-      <c r="H13" s="2">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" ref="I13:I18" si="3">IF(H13/G13-1&gt;0,"error",H13/G13-1)</f>
-        <v>-5.2631578947369695E-3</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.2631578947369695E-3</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="2"/>
-        <v>38.20000000000001</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>44468.399328703701</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>44468.399336469905</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>37.984999999999999</v>
-      </c>
-      <c r="S13" s="6">
-        <v>1975.22</v>
-      </c>
-      <c r="T13" s="6">
-        <v>52</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44468</v>
-      </c>
-      <c r="D14" s="3">
-        <v>44470</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>42.7</v>
-      </c>
-      <c r="H14" s="2">
-        <v>41</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="3"/>
-        <v>-3.9812646370023463E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.9812646370023463E-2</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="2"/>
-        <v>44.400000000000006</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44468</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44470</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2">
-        <v>30.71</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="3"/>
-        <v>-9.6764705882352864E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>-9.6764705882352864E-2</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="2"/>
-        <v>37.29</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44468</v>
-      </c>
-      <c r="D16" s="3">
-        <v>44470.999988425923</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>113.5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>107</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="3"/>
-        <v>-5.7268722466960353E-2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.7268722466960353E-2</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>44468.510752314818</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <v>44468.5107565625</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>113.295</v>
-      </c>
-      <c r="S16" s="6">
-        <v>1926.0150000000001</v>
-      </c>
-      <c r="T16" s="6">
-        <v>17</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44467</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44469.999988425923</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>142</v>
-      </c>
-      <c r="H17" s="2">
-        <v>141.27000000000001</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="3"/>
-        <v>-5.1408450704224506E-3</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.5704225352112253E-2</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="2"/>
-        <v>145.64999999999995</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>44467.540196759262</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>44467.540204467594</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>141.97499999999999</v>
-      </c>
-      <c r="S17" s="6">
-        <v>1987.65</v>
-      </c>
-      <c r="T17" s="6">
-        <v>14</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
-        <v>0</v>
-      </c>
-      <c r="X17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44467</v>
-      </c>
-      <c r="D18" s="3">
-        <v>44469.999988425923</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>206</v>
-      </c>
-      <c r="H18" s="2">
-        <v>198</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="3"/>
-        <v>-3.8834951456310662E-2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.8834951456310662E-2</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="2"/>
-        <v>214</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>44467.470219907409</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>44467.470224537035</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>206.98</v>
-      </c>
-      <c r="S18" s="6">
-        <v>1862.82</v>
-      </c>
-      <c r="T18" s="6">
-        <v>9</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0</v>
-      </c>
-      <c r="X18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="8">
         <v>0</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F2740-9303-4557-B811-936D09D86D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E703E-19F3-4DB2-91C6-62D8980411E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>已入场</t>
   </si>
@@ -363,10 +363,80 @@
     </r>
   </si>
   <si>
-    <t>9月29日盘前快播</t>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日盘前快播</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XLF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFLX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,39 +449,6 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>月1日盘前快播</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>XLE</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>月</t>
     </r>
     <r>
@@ -420,27 +457,45 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>30</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>日复盘</t>
+      <t>日个股答疑</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月30日盘前快播</t>
+    <t>AAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPY</t>
+    <t>UBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BAC</t>
+    <t>PLTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月30日复盘</t>
   </si>
 </sst>
 </file>
@@ -450,7 +505,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,12 +545,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4493,7 +4542,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4806,11 +4855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4922,41 +4971,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D2" s="3">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E2)=0,"error",COUNTIFS(E:E,E2))</f>
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>770</v>
+        <v>442</v>
       </c>
       <c r="H2" s="2">
-        <v>764</v>
+        <v>426.5</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I10" si="0">IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
-        <v>-7.7922077922077948E-3</v>
+        <f t="shared" ref="I2:I18" si="0">IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
+        <v>-3.5067873303167407E-2</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K9" si="1">-I2*J2</f>
-        <v>7.7922077922077948E-3</v>
+        <f t="shared" ref="K2:K18" si="1">-I2*J2</f>
+        <v>3.5067873303167407E-2</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" ref="L2:L9" si="2">G2*(1+K2)</f>
-        <v>775.99999999999989</v>
+        <f t="shared" ref="L2:L18" si="2">G2*(1+K2)</f>
+        <v>457.49999999999994</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -5003,41 +5052,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44475</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44470</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44474</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E3)=0,"error",COUNTIFS(E:E,E3))</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>606</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>603</v>
+        <v>139.11000000000001</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>-4.9504950495049549E-3</v>
+        <v>-5.4959239130434656E-2</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>4.9504950495049549E-3</v>
+        <v>5.4959239130434656E-2</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="2"/>
-        <v>609</v>
+        <v>155.29</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -5084,41 +5133,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D4" s="3">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E4)=0,"error",COUNTIFS(E:E,E4))</f>
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>37.4</v>
+        <v>763</v>
       </c>
       <c r="H4" s="2">
-        <v>36.5</v>
+        <v>750</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>-2.4064171122994638E-2</v>
+        <v>-1.7038007863695914E-2</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="1"/>
-        <v>2.4064171122994638E-2</v>
+        <v>1.7038007863695914E-2</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="2"/>
-        <v>38.299999999999997</v>
+        <v>775.99999999999989</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -5165,41 +5214,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D5" s="3">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E5)=0,"error",COUNTIFS(E:E,E5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>166</v>
+        <v>79.5</v>
       </c>
       <c r="H5" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>-6.0240963855421659E-2</v>
+        <v>-1.8867924528301883E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>6.0240963855421659E-2</v>
+        <v>1.8867924528301883E-2</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="2"/>
-        <v>175.99999999999997</v>
+        <v>81</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -5246,41 +5295,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D6" s="3">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E6)=0,"error",COUNTIFS(E:E,E6))</f>
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>51.7</v>
+        <v>221</v>
       </c>
       <c r="H6" s="2">
-        <v>50.7</v>
+        <v>219</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>-1.934235976789167E-2</v>
+        <v>-9.0497737556560764E-3</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>1.934235976789167E-2</v>
+        <v>9.0497737556560764E-3</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>52.7</v>
+        <v>223</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -5327,41 +5376,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D7" s="3">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E7)=0,"error",COUNTIFS(E:E,E7))</f>
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>58.3</v>
+        <v>37.9</v>
       </c>
       <c r="H7" s="2">
-        <v>57</v>
+        <v>37.6</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>-2.2298456260720356E-2</v>
+        <v>-7.9155672823217893E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>2.2298456260720356E-2</v>
+        <v>1.5831134564643579E-2</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>59.6</v>
+        <v>38.499999999999993</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -5408,41 +5457,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D8" s="3">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E8)=0,"error",COUNTIFS(E:E,E8))</f>
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>101.4</v>
+        <v>595</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>585</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>-1.3806706114398493E-2</v>
+        <v>-1.6806722689075682E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>1.3806706114398493E-2</v>
+        <v>1.6806722689075682E-2</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>102.80000000000001</v>
+        <v>605</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -5489,41 +5538,41 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D9" s="3">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E9)=0,"error",COUNTIFS(E:E,E9))</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>203.5</v>
+        <v>52.7</v>
       </c>
       <c r="H9" s="2">
-        <v>198</v>
+        <v>51.9</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>-2.7027027027026973E-2</v>
+        <v>-1.5180265654649028E-2</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>2.7027027027026973E-2</v>
+        <v>1.5180265654649028E-2</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="2"/>
-        <v>209</v>
+        <v>53.5</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -5570,65 +5619,65 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D10" s="3">
-        <v>44473.999988425923</v>
+        <v>44475</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E10)=0,"error",COUNTIFS(E:E,E10))</f>
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>433</v>
+        <v>173</v>
       </c>
       <c r="H10" s="2">
-        <v>428.8</v>
+        <v>167</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>-9.6997690531177572E-3</v>
+        <v>-3.4682080924855474E-2</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <f>-I10*J10</f>
-        <v>9.6997690531177572E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.4682080924855474E-2</v>
       </c>
       <c r="L10" s="5">
-        <f>G10*(1+K10)</f>
-        <v>437.2</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>44469.484884259262</v>
+        <f t="shared" si="2"/>
+        <v>178.99999999999997</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
       </c>
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="10">
-        <v>44469.484893009256</v>
+      <c r="P10" s="6">
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
       </c>
       <c r="R10" s="6">
-        <v>432.95499999999998</v>
+        <v>0</v>
       </c>
       <c r="S10" s="6">
-        <v>1731.82</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U10" s="7">
         <v>0</v>
@@ -5654,62 +5703,62 @@
         <v>30</v>
       </c>
       <c r="C11" s="3">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D11" s="3">
-        <v>44470.999988425923</v>
+        <v>44475</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E11)=0,"error",COUNTIFS(E:E,E11))</f>
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>42.7</v>
+        <v>163</v>
       </c>
       <c r="H11" s="2">
-        <v>41.6</v>
+        <v>161</v>
       </c>
       <c r="I11" s="4">
-        <f>IF(H11/G11-1&gt;0,"error",H11/G11-1)</f>
-        <v>-2.5761124121779888E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.2269938650306789E-2</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" ref="K11:K12" si="3">-I11*J11</f>
-        <v>2.5761124121779888E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2269938650306789E-2</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:L12" si="4">G11*(1+K11)</f>
-        <v>43.800000000000004</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>44469.484826388885</v>
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
       </c>
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="10">
-        <v>44469.484831793983</v>
+      <c r="P11" s="6">
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <v>42.685000000000002</v>
+        <v>0</v>
       </c>
       <c r="S11" s="6">
-        <v>1963.51</v>
+        <v>0</v>
       </c>
       <c r="T11" s="6">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="U11" s="7">
         <v>0</v>
@@ -5732,79 +5781,727 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D12" s="3">
-        <v>44470</v>
+        <v>44475</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5">
         <f>IF(COUNTIFS([1]code表!B:B,E12)=0,"error",COUNTIFS(E:E,E12))</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>34</v>
+        <v>42.2</v>
       </c>
       <c r="H12" s="2">
-        <v>30.71</v>
+        <v>41.6</v>
       </c>
       <c r="I12" s="4">
-        <f>IF(H12/G12-1&gt;0,"error",H12/G12-1)</f>
-        <v>-9.6764705882352864E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.4218009478673022E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>1.4218009478673022E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="2"/>
+        <v>42.800000000000004</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44475</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E13)=0,"error",COUNTIFS(E:E,E13))</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.4339622641509413E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.4339622641509413E-3</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="2"/>
+        <v>21.400000000000002</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44475</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E14)=0,"error",COUNTIFS(E:E,E14))</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.3043478260869601E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3043478260869601E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="2"/>
+        <v>46.600000000000009</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44475</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E15)=0,"error",COUNTIFS(E:E,E15))</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000022E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="2"/>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44475</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E16)=0,"error",COUNTIFS(E:E,E16))</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>238.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>234.9</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5094339622641506E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5094339622641506E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="2"/>
+        <v>242.1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44475</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E17)=0,"error",COUNTIFS(E:E,E17))</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>161</v>
+      </c>
+      <c r="H17" s="2">
+        <v>158.62</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.4782608695652177E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4782608695652177E-2</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="2"/>
+        <v>163.38</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44475</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E18)=0,"error",COUNTIFS(E:E,E18))</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7331189710610992E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>2.7331189710610992E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="2"/>
+        <v>63.900000000000006</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44470</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44474.999988425923</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E19)=0,"error",COUNTIFS(E:E,E19))</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>203.5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>198</v>
+      </c>
+      <c r="I19" s="4">
+        <f>IF(H19/G19-1&gt;0,"error",H19/G19-1)</f>
+        <v>-2.7027027027026973E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f>-I19*J19</f>
+        <v>2.7027027027026973E-2</v>
+      </c>
+      <c r="L19" s="5">
+        <f>G19*(1+K19)</f>
+        <v>209</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>44470.406400462962</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>44470.406401284723</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>203.49</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1831.41</v>
+      </c>
+      <c r="T19" s="6">
+        <v>9</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44468</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44470</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E20)=0,"error",COUNTIFS(E:E,E20))</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>34</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30.71</v>
+      </c>
+      <c r="I20" s="4">
+        <f>IF(H20/G20-1&gt;0,"error",H20/G20-1)</f>
+        <v>-9.6764705882352864E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <f>-I20*J20</f>
         <v>9.6764705882352864E-2</v>
       </c>
-      <c r="L12" s="5">
-        <f t="shared" si="4"/>
+      <c r="L20" s="5">
+        <f>G20*(1+K20)</f>
         <v>37.29</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="8">
         <v>0</v>
       </c>
     </row>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD0C70-F107-489E-A4FB-05A477B72387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAE50A-C681-4377-9D28-AEBD173E5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2506,22 +2506,22 @@
         <v>203.5</v>
       </c>
       <c r="H19" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I19" s="4">
         <f>IF(H19/G19-1&gt;0,"error",H19/G19-1)</f>
-        <v>-2.7027027027026973E-2</v>
+        <v>-2.2113022113022129E-2</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="4">
         <f>-I19*J19</f>
-        <v>2.7027027027026973E-2</v>
+        <v>2.2113022113022129E-2</v>
       </c>
       <c r="L19" s="5">
         <f>G19*(1+K19)</f>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>0</v>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAE50A-C681-4377-9D28-AEBD173E5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6D069B-3D15-4D13-B58B-16DDEE08A207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2343,25 +2343,25 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H17" s="2">
         <v>158.62</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>-1.4782608695652177E-2</v>
+        <v>-2.3899371069182607E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>1.4782608695652177E-2</v>
+        <v>1.1949685534591303E-2</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="2"/>
-        <v>163.38</v>
+        <v>160.9</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>

--- a/短线点位导入机器人.xlsx
+++ b/短线点位导入机器人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6D069B-3D15-4D13-B58B-16DDEE08A207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F6E270-29D4-4D59-A5CA-A6A4B4E0187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$Y$28</definedName>
   </definedNames>
@@ -31,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>已入场</t>
-  </si>
-  <si>
-    <t>NVDA</t>
   </si>
   <si>
     <t>出处</t>
@@ -321,6 +321,37 @@
     </r>
   </si>
   <si>
+    <t>TSLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月5日盘前快播</t>
+  </si>
+  <si>
+    <t>CTRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>10</t>
     </r>
@@ -328,7 +359,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -345,115 +376,34 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>日盘前快播</t>
+      <t>日复盘</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPY</t>
+    <t>QQQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AAPL</t>
+    <t>UPST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TSLA</t>
+    <t>SQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MRK</t>
+    <t>AFRM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XLF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFLX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>10月4日盘前快播</t>
   </si>
   <si>
     <t>DIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日个股答疑</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LMND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月30日复盘</t>
   </si>
 </sst>
 </file>
@@ -508,7 +458,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="1"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -690,6 +640,3813 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="记录"/>
+      <sheetName val="已出场"/>
+      <sheetName val="备份"/>
+      <sheetName val="code表"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>code</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>$COMPX</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>$DJI</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>$SPX.X</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>FNGU</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>IWM</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>QQQ</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>UVXY</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>FNGD</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>SDOW</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>SOXS</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>SPXU</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>SQQQ</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>SOXL</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>TNA</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>TQQQ</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>TZA</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>UDOW</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>UPRO</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>A</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>AA</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>AAL</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>AAPL</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>AAXJ</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>ABBV</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>ABNB</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>ABT</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>ACHV</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>ACN</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>ACRS</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>ACWI</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ADBE</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>ADGI</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>ADI</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>ADM</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>ADP</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>ADSK</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>AEO</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>AEP</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>AES</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>AFL</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>AFRM</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>AG</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>AGG</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>AGRX</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>AI</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>AIG</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>AJG</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>ALK</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>ALL</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>ALLY</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>AMAT</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>AMC</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>AMD</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>AMGN</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>AMT</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>AMZN</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>AN</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>ANY</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>AON</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>APA</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>APH</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>APO</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>APPS</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>APTV</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>ARAV</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>ARKF</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>ARKG</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>ARKK</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>ARKQ</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>ARKW</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>ASAN</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>ASHR</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>ASML</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>ASTC</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>ATUS</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>ATVI</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>AVGO</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>AVTR</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>AVXL</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>AXP</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>AXSM</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>AZN</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>BA</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>BABA</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>BAC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>BAM</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>BARK</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>BAX</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>BB</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>BBD</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>BBIG</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>BBL</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>BBWI</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>BBY</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>BCEL</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>BCPC</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>BDX</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>BEKE</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>BHP</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>BIDU</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>BIIB</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>BILI</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>BILL</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>BK</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>BKLN</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>BKR</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>BLDR</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>BLL</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>BLSP</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>BMY</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>BND</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>BNDX</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>BNGO</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>BNTX</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>BP</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>BRK.B</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>BSV</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>BSX</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>BTBT</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>BTI</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>BTX</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>BX</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>BYND</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>BYSI</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>BZ</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>BZQ</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>C</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>CAG</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>CAH</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>CAN</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>CAR</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>CARR</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>CAT</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>CB</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>CBRE</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>CCI</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>CCL</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>CERN</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>CF</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>CFG</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>CGBD</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>CHAU</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>CHGG</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>CHPT</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>CHWY</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>CI</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>CL</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>CLF</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>CLOV</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>CLVT</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>CLX</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>CMBM</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>CMCSA</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>CME</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>CMI</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>CMS</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>CNC</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>CNI</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>CNK</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>CNP</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>COF</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>COG</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>COIN</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>COLD</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>COP</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>COST</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>COUP</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>CP</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>CPB</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>CPNG</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>CPRI</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>CREE</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>CRM</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>CRWD</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>CSCO</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>CSGP</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>CSX</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>CTLT</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>CTRA</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>CTSH</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>CTVA</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>CTXS</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>CUE</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>CVS</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>CVX</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>CZR</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>D</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>DAL</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>DARE</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>DASH</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>DBX</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>DD</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>DDD</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>DDOG</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>DE</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>DELL</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>DEO</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>DFEN</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>DFS</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>DG</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>DHI</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>DHR</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>DIA</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>DIDI</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>DIS</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>DISCA</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>DKNG</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>DKS</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>DLR</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>DLTR</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>DM</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>DOCN</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>DOCS</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>DOCU</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>DOW</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>DQ</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218" t="str">
+            <v>DRI</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219" t="str">
+            <v>DT</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220" t="str">
+            <v>DUK</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221" t="str">
+            <v>DVN</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222" t="str">
+            <v>EA</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223" t="str">
+            <v>EBAY</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224" t="str">
+            <v>ECL</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225" t="str">
+            <v>ED</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226" t="str">
+            <v>EDIT</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227" t="str">
+            <v>EDU</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228" t="str">
+            <v>EEM</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229" t="str">
+            <v>EFA</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230" t="str">
+            <v>EFV</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231" t="str">
+            <v>EFX</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232" t="str">
+            <v>EH</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233" t="str">
+            <v>ELAN</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234" t="str">
+            <v>EMB</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235" t="str">
+            <v>EMR</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236" t="str">
+            <v>ENB</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237" t="str">
+            <v>ENPH</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238" t="str">
+            <v>EOG</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239" t="str">
+            <v>EPD</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240" t="str">
+            <v>EQH</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241" t="str">
+            <v>EQR</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242" t="str">
+            <v>EQT</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243" t="str">
+            <v>ES</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244" t="str">
+            <v>ESGU</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245" t="str">
+            <v>ESTC</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>ET</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>ETHE</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v>ETN</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>ETR</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>ETSY</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>EW</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>EWC</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>EWH</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>EWJ</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>EWT</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>EWY</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257" t="str">
+            <v>EWZ</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258" t="str">
+            <v>EXC</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259" t="str">
+            <v>EXK</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260" t="str">
+            <v>EXPE</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261" t="str">
+            <v>EZU</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262" t="str">
+            <v>F</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263" t="str">
+            <v>FANG</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264" t="str">
+            <v>FAS</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265" t="str">
+            <v>FAST</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266" t="str">
+            <v>FAZ</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267" t="str">
+            <v>FB</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268" t="str">
+            <v>FCEL</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269" t="str">
+            <v>FCX</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270" t="str">
+            <v>FDS</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271" t="str">
+            <v>FDX</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272" t="str">
+            <v>FE</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273" t="str">
+            <v>FICO</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274" t="str">
+            <v>FIS</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275" t="str">
+            <v>FISV</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276" t="str">
+            <v>FITB</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277" t="str">
+            <v>FIVE</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>FIVN</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279" t="str">
+            <v>FL</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280" t="str">
+            <v>FLGC</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281" t="str">
+            <v>FNGS</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282" t="str">
+            <v>FRSX</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283" t="str">
+            <v>FSLY</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284" t="str">
+            <v>FSR</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285" t="str">
+            <v>FTCH</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286" t="str">
+            <v>FTV</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287" t="str">
+            <v>FUBO</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288" t="str">
+            <v>FUTU</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289" t="str">
+            <v>FXI</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290" t="str">
+            <v>GBTC</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291" t="str">
+            <v>GDX</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292" t="str">
+            <v>GDXJ</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293" t="str">
+            <v>GE</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294" t="str">
+            <v>GILD</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295" t="str">
+            <v>GIS</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296" t="str">
+            <v>GKOS</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297" t="str">
+            <v>GLD</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298" t="str">
+            <v>GLSI</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>GLW</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300" t="str">
+            <v>GM</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>GME</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302" t="str">
+            <v>GOLD</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303" t="str">
+            <v>GOOG</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304" t="str">
+            <v>GOOGL</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305" t="str">
+            <v>GPN</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306" t="str">
+            <v>GPS</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307" t="str">
+            <v>GREE</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308" t="str">
+            <v>GS</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309" t="str">
+            <v>GSK</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310" t="str">
+            <v>HAL</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311" t="str">
+            <v>HBAN</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312" t="str">
+            <v>HD</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313" t="str">
+            <v>HDB</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314" t="str">
+            <v>HES</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315" t="str">
+            <v>HIG</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316" t="str">
+            <v>HLT</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317" t="str">
+            <v>HOFV</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318" t="str">
+            <v>HOLX</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319" t="str">
+            <v>HON</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320" t="str">
+            <v>HOOD</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321" t="str">
+            <v>HPE</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322" t="str">
+            <v>HPQ</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323" t="str">
+            <v>HRC</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324" t="str">
+            <v>HST</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325" t="str">
+            <v>HYG</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326" t="str">
+            <v>IAU</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327" t="str">
+            <v>IBB</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328" t="str">
+            <v>IBKR</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329" t="str">
+            <v>IBM</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330" t="str">
+            <v>IBN</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331" t="str">
+            <v>ICE</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332" t="str">
+            <v>IEF</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333" t="str">
+            <v>IEFA</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334" t="str">
+            <v>IEI</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>IEMG</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>IFF</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>IGSB</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>IGV</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
+            <v>IJH</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>IJR</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>IMAB</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>IMUX</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>INDA</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>INFO</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>INFY</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>INMD</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>INTC</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>INVH</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>IP</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>IPG</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>IQ</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>IR</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>ISR</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>ITB</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>ITOT</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>ITUB</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>IVE</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>IVV</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>IVW</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v>IWB</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v>IWD</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v>IWF</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v>IWN</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v>IWO</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>IWR</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v>IXUS</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367" t="str">
+            <v>IYR</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v>JBLU</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v>JCI</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v>JD</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v>JETS</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v>JKS</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v>JMIA</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v>JMP</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v>JNJ</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v>JNK</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v>JPM</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v>JPST</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v>JWN</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v>K</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v>KBE</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382" t="str">
+            <v>KBNT</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383" t="str">
+            <v>KBWB</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v>KDP</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v>KEY</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v>KHC</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v>KIM</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v>KKR</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>KMB</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>KMI</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>KO</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>KR</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>KRE</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>KSS</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v>KSU</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v>KWEB</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v>LAC</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v>LCID</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v>LCTX</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v>LEN</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v>LHX</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v>LI</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v>LIN</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v>LIVN</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405" t="str">
+            <v>LKCO</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v>LLY</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v>LMND</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v>LMT</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v>LOW</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v>LQD</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v>LQDA</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v>LRCX</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v>LSPD</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v>LU</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v>LULU</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v>LUMN</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v>LUV</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v>LVS</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v>LYB</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v>LYFT</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v>M</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v>MA</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v>MAR</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v>MARA</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v>MAS</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426" t="str">
+            <v>MBB</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427" t="str">
+            <v>MCD</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v>MCHI</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v>MCHP</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v>MDB</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v>MDLA</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v>MDLZ</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v>MDT</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v>MDY</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v>MET</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v>MGA</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v>MGM</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v>MMC</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v>MMM</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v>MNST</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v>MO</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442" t="str">
+            <v>MOGO</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443" t="str">
+            <v>MOS</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v>MOTS</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v>MP</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v>MPC</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v>MRK</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v>MRNA</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v>MRO</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v>MRSN</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v>MRVL</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v>MS</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v>MSFT</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v>MSON</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v>MT</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v>MTCH</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v>MTUM</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v>MU</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v>MUB</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v>MVIS</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v>NAOV</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462" t="str">
+            <v>NCLH</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463" t="str">
+            <v>NCNO</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="B464" t="str">
+            <v>NDRA</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="B465" t="str">
+            <v>NEE</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="B466" t="str">
+            <v>NEM</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="B467" t="str">
+            <v>NET</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="B468" t="str">
+            <v>NFLX</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="B469" t="str">
+            <v>NIO</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="B470" t="str">
+            <v>NKE</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="B471" t="str">
+            <v>NKLA</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="B472" t="str">
+            <v>NLOK</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="B473" t="str">
+            <v>NLSN</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="B474" t="str">
+            <v>NLY</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="B475" t="str">
+            <v>NNDM</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="B476" t="str">
+            <v>NOK</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="B477" t="str">
+            <v>NOW</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="B478" t="str">
+            <v>NRG</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="B479" t="str">
+            <v>NRGD</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="B480" t="str">
+            <v>NRGU</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="B481" t="str">
+            <v>NSC</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="B482" t="str">
+            <v>NSPR</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="B483" t="str">
+            <v>NTAP</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="B484" t="str">
+            <v>NTES</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="B485" t="str">
+            <v>NTLA</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="B486" t="str">
+            <v>NUAN</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="B487" t="str">
+            <v>NUE</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="B488" t="str">
+            <v>NVAX</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="B489" t="str">
+            <v>NVDA</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="B490" t="str">
+            <v>NVS</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="B491" t="str">
+            <v>NVTA</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="B492" t="str">
+            <v>NXPI</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="B493" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="B494" t="str">
+            <v>OCGN</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="B495" t="str">
+            <v>OIH</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="B496" t="str">
+            <v>OKE</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="B497" t="str">
+            <v>OKTA</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="B498" t="str">
+            <v>OLLI</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="B499" t="str">
+            <v>OMC</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="B500" t="str">
+            <v>OMGA</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="B501" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="B502" t="str">
+            <v>OPEN</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="B503" t="str">
+            <v>ORCL</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="B504" t="str">
+            <v>ORGO</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="B505" t="str">
+            <v>OTIS</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="B506" t="str">
+            <v>OXY</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="B507" t="str">
+            <v>OZON</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="B508" t="str">
+            <v>PANW</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="B509" t="str">
+            <v>PATH</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="B510" t="str">
+            <v>PBR</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="B511" t="str">
+            <v>PBR.A</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="B512" t="str">
+            <v>PCAR</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="B513" t="str">
+            <v>PCG</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="B514" t="str">
+            <v>PDD</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="B515" t="str">
+            <v>PEAK</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516" t="str">
+            <v>PEG</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="B517" t="str">
+            <v>PENN</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="B518" t="str">
+            <v>PEP</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="B519" t="str">
+            <v>PFE</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="B520" t="str">
+            <v>PFF</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="B521" t="str">
+            <v>PFGC</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="B522" t="str">
+            <v>PG</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="B523" t="str">
+            <v>PGR</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="B524" t="str">
+            <v>PHM</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="B525" t="str">
+            <v>PINS</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="B526" t="str">
+            <v>PKI</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="B527" t="str">
+            <v>PLAN</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="B528" t="str">
+            <v>PLD</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="B529" t="str">
+            <v>PLTR</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="B530" t="str">
+            <v>PLUG</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="B531" t="str">
+            <v>PM</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="B532" t="str">
+            <v>PMCB</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="B533" t="str">
+            <v>PNC</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="B534" t="str">
+            <v>PNR</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="B535" t="str">
+            <v>PPG</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="B536" t="str">
+            <v>PPL</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="B537" t="str">
+            <v>PRU</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="B538" t="str">
+            <v>PSTG</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="B539" t="str">
+            <v>PSX</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="B540" t="str">
+            <v>PTON</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="B541" t="str">
+            <v>PVH</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="B542" t="str">
+            <v>PXD</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="B543" t="str">
+            <v>PYPL</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="B544" t="str">
+            <v>QCOM</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="B545" t="str">
+            <v>QLD</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="B546" t="str">
+            <v>QRVO</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="B547" t="str">
+            <v>QS</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="B548" t="str">
+            <v>QSR</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="B549" t="str">
+            <v>QUAL</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="B550" t="str">
+            <v>RBLX</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="B551" t="str">
+            <v>RCEL</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="B552" t="str">
+            <v>RCL</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="B553" t="str">
+            <v>RDS.A</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="B554" t="str">
+            <v>RDS.B</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="B555" t="str">
+            <v>RF</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="B556" t="str">
+            <v>RIDE</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="B557" t="str">
+            <v>RIO</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="B558" t="str">
+            <v>RIOT</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="B559" t="str">
+            <v>RKT</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="B560" t="str">
+            <v>RLX</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="B561" t="str">
+            <v>RMO</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="B562" t="str">
+            <v>ROKU</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="B563" t="str">
+            <v>ROST</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="B564" t="str">
+            <v>RSKD</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="B565" t="str">
+            <v>RSP</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="B566" t="str">
+            <v>RTX</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="B567" t="str">
+            <v>RUN</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="B568" t="str">
+            <v>RYCEY</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="B569" t="str">
+            <v>SAM</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="B570" t="str">
+            <v>SAVA</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="B571" t="str">
+            <v>SAVE</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="B572" t="str">
+            <v>SBUX</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="B573" t="str">
+            <v>SCHD</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="B574" t="str">
+            <v>SCHP</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="B575" t="str">
+            <v>SCHW</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="B576" t="str">
+            <v>SCI</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="B577" t="str">
+            <v>SCZ</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="B578" t="str">
+            <v>SE</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="B579" t="str">
+            <v>SESN</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="B580" t="str">
+            <v>SH</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="B581" t="str">
+            <v>SHOP</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="B582" t="str">
+            <v>SHV</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="B583" t="str">
+            <v>SHY</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="B584" t="str">
+            <v>SIRI</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="B585" t="str">
+            <v>SJNK</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="B586" t="str">
+            <v>SKLZ</v>
+          </cell>
+        </row>
+        <row r="587">
+          <cell r="B587" t="str">
+            <v>SLB</v>
+          </cell>
+        </row>
+        <row r="588">
+          <cell r="B588" t="str">
+            <v>SLV</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="B589" t="str">
+            <v>SMH</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="B590" t="str">
+            <v>SNAP</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="B591" t="str">
+            <v>SNDL</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="B592" t="str">
+            <v>SNOW</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="B593" t="str">
+            <v>SNY</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="B594" t="str">
+            <v>SO</v>
+          </cell>
+        </row>
+        <row r="595">
+          <cell r="B595" t="str">
+            <v>SOFI</v>
+          </cell>
+        </row>
+        <row r="596">
+          <cell r="B596" t="str">
+            <v>SOHU</v>
+          </cell>
+        </row>
+        <row r="597">
+          <cell r="B597" t="str">
+            <v>SONO</v>
+          </cell>
+        </row>
+        <row r="598">
+          <cell r="B598" t="str">
+            <v>SOXX</v>
+          </cell>
+        </row>
+        <row r="599">
+          <cell r="B599" t="str">
+            <v>SPCB</v>
+          </cell>
+        </row>
+        <row r="600">
+          <cell r="B600" t="str">
+            <v>SPCE</v>
+          </cell>
+        </row>
+        <row r="601">
+          <cell r="B601" t="str">
+            <v>SPG</v>
+          </cell>
+        </row>
+        <row r="602">
+          <cell r="B602" t="str">
+            <v>SPGI</v>
+          </cell>
+        </row>
+        <row r="603">
+          <cell r="B603" t="str">
+            <v>SPIB</v>
+          </cell>
+        </row>
+        <row r="604">
+          <cell r="B604" t="str">
+            <v>SPLK</v>
+          </cell>
+        </row>
+        <row r="605">
+          <cell r="B605" t="str">
+            <v>SPLV</v>
+          </cell>
+        </row>
+        <row r="606">
+          <cell r="B606" t="str">
+            <v>SPNE</v>
+          </cell>
+        </row>
+        <row r="607">
+          <cell r="B607" t="str">
+            <v>SPOT</v>
+          </cell>
+        </row>
+        <row r="608">
+          <cell r="B608" t="str">
+            <v>SPTL</v>
+          </cell>
+        </row>
+        <row r="609">
+          <cell r="B609" t="str">
+            <v>SPXL</v>
+          </cell>
+        </row>
+        <row r="610">
+          <cell r="B610" t="str">
+            <v>SPY</v>
+          </cell>
+        </row>
+        <row r="611">
+          <cell r="B611" t="str">
+            <v>SPYG</v>
+          </cell>
+        </row>
+        <row r="612">
+          <cell r="B612" t="str">
+            <v>SQ</v>
+          </cell>
+        </row>
+        <row r="613">
+          <cell r="B613" t="str">
+            <v>SRGA</v>
+          </cell>
+        </row>
+        <row r="614">
+          <cell r="B614" t="str">
+            <v>SRLN</v>
+          </cell>
+        </row>
+        <row r="615">
+          <cell r="B615" t="str">
+            <v>SRNE</v>
+          </cell>
+        </row>
+        <row r="616">
+          <cell r="B616" t="str">
+            <v>SSO</v>
+          </cell>
+        </row>
+        <row r="617">
+          <cell r="B617" t="str">
+            <v>STAA</v>
+          </cell>
+        </row>
+        <row r="618">
+          <cell r="B618" t="str">
+            <v>STLD</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="B619" t="str">
+            <v>STNE</v>
+          </cell>
+        </row>
+        <row r="620">
+          <cell r="B620" t="str">
+            <v>STT</v>
+          </cell>
+        </row>
+        <row r="621">
+          <cell r="B621" t="str">
+            <v>STX</v>
+          </cell>
+        </row>
+        <row r="622">
+          <cell r="B622" t="str">
+            <v>SU</v>
+          </cell>
+        </row>
+        <row r="623">
+          <cell r="B623" t="str">
+            <v>SVXY</v>
+          </cell>
+        </row>
+        <row r="624">
+          <cell r="B624" t="str">
+            <v>SWK</v>
+          </cell>
+        </row>
+        <row r="625">
+          <cell r="B625" t="str">
+            <v>SWKS</v>
+          </cell>
+        </row>
+        <row r="626">
+          <cell r="B626" t="str">
+            <v>SYF</v>
+          </cell>
+        </row>
+        <row r="627">
+          <cell r="B627" t="str">
+            <v>SYK</v>
+          </cell>
+        </row>
+        <row r="628">
+          <cell r="B628" t="str">
+            <v>SYY</v>
+          </cell>
+        </row>
+        <row r="629">
+          <cell r="B629" t="str">
+            <v>T</v>
+          </cell>
+        </row>
+        <row r="630">
+          <cell r="B630" t="str">
+            <v>TAL</v>
+          </cell>
+        </row>
+        <row r="631">
+          <cell r="B631" t="str">
+            <v>TCEHY</v>
+          </cell>
+        </row>
+        <row r="632">
+          <cell r="B632" t="str">
+            <v>TCOM</v>
+          </cell>
+        </row>
+        <row r="633">
+          <cell r="B633" t="str">
+            <v>TDOC</v>
+          </cell>
+        </row>
+        <row r="634">
+          <cell r="B634" t="str">
+            <v>TEAM</v>
+          </cell>
+        </row>
+        <row r="635">
+          <cell r="B635" t="str">
+            <v>TECH</v>
+          </cell>
+        </row>
+        <row r="636">
+          <cell r="B636" t="str">
+            <v>TEL</v>
+          </cell>
+        </row>
+        <row r="637">
+          <cell r="B637" t="str">
+            <v>TFC</v>
+          </cell>
+        </row>
+        <row r="638">
+          <cell r="B638" t="str">
+            <v>TGT</v>
+          </cell>
+        </row>
+        <row r="639">
+          <cell r="B639" t="str">
+            <v>TIGR</v>
+          </cell>
+        </row>
+        <row r="640">
+          <cell r="B640" t="str">
+            <v>TIP</v>
+          </cell>
+        </row>
+        <row r="641">
+          <cell r="B641" t="str">
+            <v>TJX</v>
+          </cell>
+        </row>
+        <row r="642">
+          <cell r="B642" t="str">
+            <v>TKAT</v>
+          </cell>
+        </row>
+        <row r="643">
+          <cell r="B643" t="str">
+            <v>TLRY</v>
+          </cell>
+        </row>
+        <row r="644">
+          <cell r="B644" t="str">
+            <v>TLT</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="B645" t="str">
+            <v>TME</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="B646" t="str">
+            <v>TMUS</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="B647" t="str">
+            <v>TPR</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="B648" t="str">
+            <v>TRMB</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="B649" t="str">
+            <v>TROW</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="B650" t="str">
+            <v>TRU</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="B651" t="str">
+            <v>TSLA</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="B652" t="str">
+            <v>TSM</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="B653" t="str">
+            <v>TSN</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="B654" t="str">
+            <v>TSP</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="B655" t="str">
+            <v>TTD</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="B656" t="str">
+            <v>TWLO</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="B657" t="str">
+            <v>TWTR</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="B658" t="str">
+            <v>TXN</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="B659" t="str">
+            <v>U</v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="B660" t="str">
+            <v>UAA</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="B661" t="str">
+            <v>UAL</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="B662" t="str">
+            <v>UBER</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="B663" t="str">
+            <v>UMC</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="B664" t="str">
+            <v>UNH</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="B665" t="str">
+            <v>UNP</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="B666" t="str">
+            <v>UPS</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="B667" t="str">
+            <v>UPST</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="B668" t="str">
+            <v>USB</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="B669" t="str">
+            <v>USFD</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="B670" t="str">
+            <v>USMV</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="B671" t="str">
+            <v>USO</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="B672" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="B673" t="str">
+            <v>VALE</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="B674" t="str">
+            <v>VB</v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="B675" t="str">
+            <v>VCIT</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="B676" t="str">
+            <v>VCLT</v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="B677" t="str">
+            <v>VCSH</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="B678" t="str">
+            <v>VEA</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="B679" t="str">
+            <v>VEEV</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="B680" t="str">
+            <v>VEU</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="B681" t="str">
+            <v>VFC</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="B682" t="str">
+            <v>VGK</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="B683" t="str">
+            <v>VGLT</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="B684" t="str">
+            <v>VGT</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="B685" t="str">
+            <v>VIAC</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="B686" t="str">
+            <v>VICI</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="B687" t="str">
+            <v>VIG</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="B688" t="str">
+            <v>VIPS</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="B689" t="str">
+            <v>VLO</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="B690" t="str">
+            <v>VLUE</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="B691" t="str">
+            <v>VMC</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="B692" t="str">
+            <v>VMW</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="B693" t="str">
+            <v>VNQ</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="B694" t="str">
+            <v>VO</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="B695" t="str">
+            <v>VOO</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="B696" t="str">
+            <v>VRTX</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="B697" t="str">
+            <v>VT</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="B698" t="str">
+            <v>VTI</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="B699" t="str">
+            <v>VTIP</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="B700" t="str">
+            <v>VTR</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="B701" t="str">
+            <v>VTRS</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="B702" t="str">
+            <v>VTV</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="B703" t="str">
+            <v>VUG</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="B704" t="str">
+            <v>VWO</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="B705" t="str">
+            <v>VXUS</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="B706" t="str">
+            <v>VXX</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="B707" t="str">
+            <v>VZ</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="B708" t="str">
+            <v>W</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="B709" t="str">
+            <v>WBA</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="B710" t="str">
+            <v>WDAY</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="B711" t="str">
+            <v>WDC</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="B712" t="str">
+            <v>WELL</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="B713" t="str">
+            <v>WFC</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="B714" t="str">
+            <v>WISH</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="B715" t="str">
+            <v>WLTW</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="B716" t="str">
+            <v>WM</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="B717" t="str">
+            <v>WMB</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="B718" t="str">
+            <v>WMT</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="B719" t="str">
+            <v>WY</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="B720" t="str">
+            <v>WYNN</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="B721" t="str">
+            <v>X</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="B722" t="str">
+            <v>XBI</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="B723" t="str">
+            <v>XCUR</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="B724" t="str">
+            <v>XEL</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="B725" t="str">
+            <v>XHB</v>
+          </cell>
+        </row>
+        <row r="726">
+          <cell r="B726" t="str">
+            <v>XLB</v>
+          </cell>
+        </row>
+        <row r="727">
+          <cell r="B727" t="str">
+            <v>XLC</v>
+          </cell>
+        </row>
+        <row r="728">
+          <cell r="B728" t="str">
+            <v>XLE</v>
+          </cell>
+        </row>
+        <row r="729">
+          <cell r="B729" t="str">
+            <v>XLF</v>
+          </cell>
+        </row>
+        <row r="730">
+          <cell r="B730" t="str">
+            <v>XLI</v>
+          </cell>
+        </row>
+        <row r="731">
+          <cell r="B731" t="str">
+            <v>XLK</v>
+          </cell>
+        </row>
+        <row r="732">
+          <cell r="B732" t="str">
+            <v>XLP</v>
+          </cell>
+        </row>
+        <row r="733">
+          <cell r="B733" t="str">
+            <v>XLRE</v>
+          </cell>
+        </row>
+        <row r="734">
+          <cell r="B734" t="str">
+            <v>XLU</v>
+          </cell>
+        </row>
+        <row r="735">
+          <cell r="B735" t="str">
+            <v>XLV</v>
+          </cell>
+        </row>
+        <row r="736">
+          <cell r="B736" t="str">
+            <v>XLY</v>
+          </cell>
+        </row>
+        <row r="737">
+          <cell r="B737" t="str">
+            <v>XM</v>
+          </cell>
+        </row>
+        <row r="738">
+          <cell r="B738" t="str">
+            <v>XME</v>
+          </cell>
+        </row>
+        <row r="739">
+          <cell r="B739" t="str">
+            <v>XOM</v>
+          </cell>
+        </row>
+        <row r="740">
+          <cell r="B740" t="str">
+            <v>XOP</v>
+          </cell>
+        </row>
+        <row r="741">
+          <cell r="B741" t="str">
+            <v>XPEV</v>
+          </cell>
+        </row>
+        <row r="742">
+          <cell r="B742" t="str">
+            <v>XPO</v>
+          </cell>
+        </row>
+        <row r="743">
+          <cell r="B743" t="str">
+            <v>XRT</v>
+          </cell>
+        </row>
+        <row r="744">
+          <cell r="B744" t="str">
+            <v>YANG</v>
+          </cell>
+        </row>
+        <row r="745">
+          <cell r="B745" t="str">
+            <v>YUMC</v>
+          </cell>
+        </row>
+        <row r="746">
+          <cell r="B746" t="str">
+            <v>Z</v>
+          </cell>
+        </row>
+        <row r="747">
+          <cell r="B747" t="str">
+            <v>ZBH</v>
+          </cell>
+        </row>
+        <row r="748">
+          <cell r="B748" t="str">
+            <v>ZEN</v>
+          </cell>
+        </row>
+        <row r="749">
+          <cell r="B749" t="str">
+            <v>ZEV</v>
+          </cell>
+        </row>
+        <row r="750">
+          <cell r="B750" t="str">
+            <v>ZI</v>
+          </cell>
+        </row>
+        <row r="751">
+          <cell r="B751" t="str">
+            <v>ZIM</v>
+          </cell>
+        </row>
+        <row r="752">
+          <cell r="B752" t="str">
+            <v>ZM</v>
+          </cell>
+        </row>
+        <row r="753">
+          <cell r="B753" t="str">
+            <v>ZNGA</v>
+          </cell>
+        </row>
+        <row r="754">
+          <cell r="B754" t="str">
+            <v>ZS</v>
+          </cell>
+        </row>
+        <row r="755">
+          <cell r="B755" t="str">
+            <v>ZTO</v>
+          </cell>
+        </row>
+        <row r="756">
+          <cell r="B756" t="str">
+            <v>ZTS</v>
+          </cell>
+        </row>
+        <row r="757">
+          <cell r="B757" t="str">
+            <v>ZY</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -698,7 +4455,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1011,11 +4768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1024,13 +4781,12 @@
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.75" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.75" style="6" bestFit="1" customWidth="1"/>
@@ -1048,79 +4804,79 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1128,40 +4884,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D2" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E2)=0,"error",COUNTIFS(E:E,E2))</f>
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>442</v>
+        <v>765.5</v>
       </c>
       <c r="H2" s="2">
-        <v>426.5</v>
+        <v>750</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I18" si="0">IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
-        <v>-3.5067873303167407E-2</v>
+        <f t="shared" ref="I2:I12" si="0">IF(H2/G2-1&gt;0,"error",H2/G2-1)</f>
+        <v>-2.0248203788373664E-2</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K18" si="1">-I2*J2</f>
-        <v>3.5067873303167407E-2</v>
+        <f t="shared" ref="K2:K13" si="1">-I2*J2</f>
+        <v>2.0248203788373664E-2</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" ref="L2:L18" si="2">G2*(1+K2)</f>
-        <v>457.49999999999994</v>
+        <f t="shared" ref="L2:L13" si="2">G2*(1+K2)</f>
+        <v>781.00000000000011</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -1208,40 +4965,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44474</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44476</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3">
-        <v>44473</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44475</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E3)=0,"error",COUNTIFS(E:E,E3))</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>147.19999999999999</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="H3" s="2">
-        <v>139.11000000000001</v>
+        <v>80</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>-5.4959239130434656E-2</v>
+        <v>-1.7199017199017286E-2</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>5.4959239130434656E-2</v>
+        <v>1.7199017199017286E-2</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="2"/>
-        <v>155.29</v>
+        <v>82.800000000000011</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1288,40 +5046,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D4" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E4)=0,"error",COUNTIFS(E:E,E4))</f>
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>763</v>
+        <v>53.5</v>
       </c>
       <c r="H4" s="2">
-        <v>750</v>
+        <v>52.8</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>-1.7038007863695914E-2</v>
+        <v>-1.3084112149532756E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="1"/>
-        <v>1.7038007863695914E-2</v>
+        <v>2.6168224299065512E-2</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="2"/>
-        <v>775.99999999999989</v>
+        <v>54.900000000000006</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1368,40 +5127,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D5" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E5)=0,"error",COUNTIFS(E:E,E5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>79.5</v>
+        <v>37.4</v>
       </c>
       <c r="H5" s="2">
-        <v>78</v>
+        <v>36.5</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>-1.8867924528301883E-2</v>
+        <v>-2.4064171122994638E-2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>1.8867924528301883E-2</v>
+        <v>2.4064171122994638E-2</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1448,40 +5208,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D6" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E6)=0,"error",COUNTIFS(E:E,E6))</f>
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>221</v>
+        <v>21.5</v>
       </c>
       <c r="H6" s="2">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>-9.0497737556560764E-3</v>
+        <v>-2.3255813953488413E-2</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>9.0497737556560764E-3</v>
+        <v>2.3255813953488413E-2</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1528,40 +5289,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D7" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E7)=0,"error",COUNTIFS(E:E,E7))</f>
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>37.9</v>
+        <v>59.5</v>
       </c>
       <c r="H7" s="2">
-        <v>37.6</v>
+        <v>58.5</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>-7.9155672823217893E-3</v>
+        <v>-1.6806722689075682E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>1.5831134564643579E-2</v>
+        <v>1.6806722689075682E-2</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>38.499999999999993</v>
+        <v>60.5</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1608,40 +5370,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D8" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E8)=0,"error",COUNTIFS(E:E,E8))</f>
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>595</v>
+        <v>42.7</v>
       </c>
       <c r="H8" s="2">
-        <v>585</v>
+        <v>41.9</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>-1.6806722689075682E-2</v>
+        <v>-1.8735362997658211E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>1.6806722689075682E-2</v>
+        <v>1.8735362997658211E-2</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>605</v>
+        <v>43.500000000000007</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1688,40 +5451,41 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D9" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E9)=0,"error",COUNTIFS(E:E,E9))</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>52.7</v>
+        <v>354</v>
       </c>
       <c r="H9" s="2">
-        <v>51.9</v>
+        <v>350.32</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5180265654649028E-2</v>
+        <v>-1.0395480225988685E-2</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>1.5180265654649028E-2</v>
+        <v>1.0395480225988685E-2</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>357.68</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1768,40 +5532,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D10" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E10)=0,"error",COUNTIFS(E:E,E10))</f>
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="H10" s="2">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>-3.4682080924855474E-2</v>
+        <v>-1.8867924528301883E-2</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>3.4682080924855474E-2</v>
+        <v>1.8867924528301883E-2</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="2"/>
-        <v>178.99999999999997</v>
+        <v>270</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1848,40 +5613,41 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D11" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E11)=0,"error",COUNTIFS(E:E,E11))</f>
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="H11" s="2">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>-1.2269938650306789E-2</v>
+        <v>-0.10280373831775702</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>1.2269938650306789E-2</v>
+        <v>0.10280373831775702</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>235.99999999999997</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1928,40 +5694,41 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D12" s="3">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E12)=0,"error",COUNTIFS(E:E,E12))</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>42.2</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2">
-        <v>41.6</v>
+        <v>96.5</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>-1.4218009478673022E-2</v>
+        <v>-6.3106796116504826E-2</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>1.4218009478673022E-2</v>
+        <v>6.3106796116504826E-2</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>42.800000000000004</v>
+        <v>109.5</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2014,58 +5781,59 @@
         <v>44473</v>
       </c>
       <c r="D13" s="3">
-        <v>44475</v>
+        <v>44475.999988425923</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="5">
+        <f>IF(COUNTIFS([1]code表!B:B,E13)=0,"error",COUNTIFS(E:E,E13))</f>
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>21.2</v>
+        <v>173</v>
       </c>
       <c r="H13" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>-9.4339622641509413E-3</v>
+        <f>IF(H13/G13-1&gt;0,"error",H13/G13-1)</f>
+        <v>-3.4682080924855474E-2</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>9.4339622641509413E-3</v>
+        <v>3.4682080924855474E-2</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="2"/>
-        <v>21.400000000000002</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
+        <v>178.99999999999997</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>44473.595254629632</v>
       </c>
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="6">
-        <v>0</v>
+      <c r="P13" s="10">
+        <v>44473.595256354165</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
       </c>
       <c r="R13" s="6">
-        <v>0</v>
+        <v>172.94499999999999</v>
       </c>
       <c r="S13" s="6">
-        <v>0</v>
+        <v>1902.395</v>
       </c>
       <c r="T13" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U13" s="7">
         <v>0</v>
@@ -2080,486 +5848,6 @@
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44473</v>
-      </c>
-      <c r="D14" s="3">
-        <v>44475</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2">
-        <v>45.4</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.3043478260869601E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3043478260869601E-2</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="2"/>
-        <v>46.600000000000009</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44473</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44475</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2">
-        <v>23.4</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.5000000000000022E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="2"/>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44473</v>
-      </c>
-      <c r="D16" s="3">
-        <v>44475</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>238.5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>234.9</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.5094339622641506E-2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>1.5094339622641506E-2</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="2"/>
-        <v>242.1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44473</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44475</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>159</v>
-      </c>
-      <c r="H17" s="2">
-        <v>158.62</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.3899371069182607E-3</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1949685534591303E-2</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="2"/>
-        <v>160.9</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
-        <v>0</v>
-      </c>
-      <c r="X17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44473</v>
-      </c>
-      <c r="D18" s="3">
-        <v>44475</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>62.2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>60.5</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.7331189710610992E-2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>2.7331189710610992E-2</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="2"/>
-        <v>63.900000000000006</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0</v>
-      </c>
-      <c r="X18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3">
-        <v>44470</v>
-      </c>
-      <c r="D19" s="3">
-        <v>44474.999988425923</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>203.5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>199</v>
-      </c>
-      <c r="I19" s="4">
-        <f>IF(H19/G19-1&gt;0,"error",H19/G19-1)</f>
-        <v>-2.2113022113022129E-2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <f>-I19*J19</f>
-        <v>2.2113022113022129E-2</v>
-      </c>
-      <c r="L19" s="5">
-        <f>G19*(1+K19)</f>
-        <v>208</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>44470.406400462962</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>44470.406401284723</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>203.49</v>
-      </c>
-      <c r="S19" s="6">
-        <v>1831.41</v>
-      </c>
-      <c r="T19" s="6">
-        <v>9</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="8">
-        <v>0</v>
-      </c>
-      <c r="X19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="8">
         <v>0</v>
       </c>
     </row>
